--- a/data/Plants_indoor_dataset_iot_AI.xlsx
+++ b/data/Plants_indoor_dataset_iot_AI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\derou\OneDrive\Bureau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinemanuel/Documents/GitHub/WePlant_25.5/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ABADCF1-3D45-4434-ACFA-B8D8E095D8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4981F3-AE6B-CD49-A88E-2EBD5DABDE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-38340" yWindow="680" windowWidth="36260" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plants database b5a880c30b2f4c1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="614">
   <si>
     <t>name</t>
   </si>
@@ -1841,12 +1841,36 @@
   </si>
   <si>
     <t>النبيذ الملكي</t>
+  </si>
+  <si>
+    <t>Type de Sol</t>
+  </si>
+  <si>
+    <t>Type de Racine</t>
+  </si>
+  <si>
+    <t>Limon</t>
+  </si>
+  <si>
+    <t>Moyens</t>
+  </si>
+  <si>
+    <t>Superficiels</t>
+  </si>
+  <si>
+    <t>Argile</t>
+  </si>
+  <si>
+    <t>Profonds</t>
+  </si>
+  <si>
+    <t>Sable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2330,7 +2354,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2352,6 +2376,12 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2707,30 +2737,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS304"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AU304"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="33.5" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="18.77734375" customWidth="1"/>
-    <col min="10" max="10" width="25.5546875" customWidth="1"/>
-    <col min="15" max="15" width="15.88671875" customWidth="1"/>
-    <col min="16" max="16" width="45.6640625" customWidth="1"/>
-    <col min="17" max="17" width="73" customWidth="1"/>
+    <col min="7" max="7" width="26.1640625" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" customWidth="1"/>
+    <col min="10" max="10" width="25.5" customWidth="1"/>
+    <col min="15" max="15" width="15.83203125" customWidth="1"/>
+    <col min="16" max="18" width="45.6640625" customWidth="1"/>
+    <col min="19" max="19" width="41.1640625" customWidth="1"/>
+    <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2777,13 +2809,15 @@
       <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
@@ -2796,8 +2830,8 @@
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
       <c r="AG1" s="3"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -2808,8 +2842,10 @@
       <c r="AQ1" s="1"/>
       <c r="AR1" s="1"/>
       <c r="AS1" s="1"/>
-    </row>
-    <row r="2" spans="1:45" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+    </row>
+    <row r="2" spans="1:47" ht="10.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2853,11 +2889,16 @@
       <c r="P2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" t="s">
+        <v>608</v>
+      </c>
+      <c r="R2" t="s">
+        <v>609</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
+      <c r="T2" s="8"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
@@ -2871,8 +2912,10 @@
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -2908,9 +2951,13 @@
         <v>7</v>
       </c>
       <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
+      <c r="Q3" t="s">
+        <v>608</v>
+      </c>
+      <c r="R3" t="s">
+        <v>610</v>
+      </c>
       <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
@@ -2924,8 +2971,10 @@
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -2961,9 +3010,13 @@
         <v>2</v>
       </c>
       <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
+      <c r="Q4" t="s">
+        <v>611</v>
+      </c>
+      <c r="R4" t="s">
+        <v>612</v>
+      </c>
       <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
@@ -2977,8 +3030,10 @@
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -3012,9 +3067,13 @@
         <v>2</v>
       </c>
       <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
+      <c r="Q5" t="s">
+        <v>611</v>
+      </c>
+      <c r="R5" t="s">
+        <v>609</v>
+      </c>
       <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
@@ -3028,8 +3087,10 @@
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -3063,9 +3124,13 @@
         <v>6</v>
       </c>
       <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+      <c r="Q6" t="s">
+        <v>608</v>
+      </c>
+      <c r="R6" t="s">
+        <v>610</v>
+      </c>
       <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
@@ -3079,8 +3144,10 @@
       <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
       <c r="AG6" s="3"/>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>37</v>
       </c>
@@ -3114,11 +3181,15 @@
         <v>5</v>
       </c>
       <c r="P7" s="3"/>
-      <c r="Q7" s="3" t="s">
+      <c r="Q7" t="s">
+        <v>613</v>
+      </c>
+      <c r="R7" t="s">
+        <v>610</v>
+      </c>
+      <c r="S7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
@@ -3132,8 +3203,10 @@
       <c r="AE7" s="3"/>
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>41</v>
       </c>
@@ -3167,11 +3240,15 @@
         <v>5</v>
       </c>
       <c r="P8" s="3"/>
-      <c r="Q8" s="3" t="s">
+      <c r="Q8" t="s">
+        <v>613</v>
+      </c>
+      <c r="R8" t="s">
+        <v>610</v>
+      </c>
+      <c r="S8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
@@ -3185,8 +3262,10 @@
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
       <c r="AG8" s="3"/>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>44</v>
       </c>
@@ -3222,11 +3301,15 @@
         <v>3</v>
       </c>
       <c r="P9" s="3"/>
-      <c r="Q9" s="3" t="s">
+      <c r="Q9" t="s">
+        <v>608</v>
+      </c>
+      <c r="R9" t="s">
+        <v>610</v>
+      </c>
+      <c r="S9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
@@ -3240,8 +3323,10 @@
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>48</v>
       </c>
@@ -3275,11 +3360,15 @@
         <v>3</v>
       </c>
       <c r="P10" s="3"/>
-      <c r="Q10" s="3" t="s">
+      <c r="Q10" t="s">
+        <v>608</v>
+      </c>
+      <c r="R10" t="s">
+        <v>610</v>
+      </c>
+      <c r="S10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
@@ -3293,8 +3382,10 @@
       <c r="AE10" s="3"/>
       <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>51</v>
       </c>
@@ -3328,9 +3419,13 @@
         <v>3</v>
       </c>
       <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
+      <c r="Q11" t="s">
+        <v>608</v>
+      </c>
+      <c r="R11" t="s">
+        <v>610</v>
+      </c>
       <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
@@ -3344,8 +3439,10 @@
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
       <c r="AG11" s="3"/>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>53</v>
       </c>
@@ -3379,9 +3476,13 @@
         <v>7</v>
       </c>
       <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
+      <c r="Q12" t="s">
+        <v>608</v>
+      </c>
+      <c r="R12" t="s">
+        <v>610</v>
+      </c>
       <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
@@ -3395,8 +3496,10 @@
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
       <c r="AG12" s="3"/>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>56</v>
       </c>
@@ -3430,9 +3533,13 @@
         <v>7</v>
       </c>
       <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+      <c r="Q13" t="s">
+        <v>608</v>
+      </c>
+      <c r="R13" t="s">
+        <v>610</v>
+      </c>
       <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
@@ -3446,8 +3553,10 @@
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
       <c r="AG13" s="3"/>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>58</v>
       </c>
@@ -3483,9 +3592,13 @@
         <v>5</v>
       </c>
       <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="Q14" t="s">
+        <v>613</v>
+      </c>
+      <c r="R14" t="s">
+        <v>612</v>
+      </c>
       <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
@@ -3499,8 +3612,10 @@
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>61</v>
       </c>
@@ -3534,9 +3649,13 @@
         <v>5</v>
       </c>
       <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
+      <c r="Q15" t="s">
+        <v>613</v>
+      </c>
+      <c r="R15" t="s">
+        <v>612</v>
+      </c>
       <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
@@ -3550,8 +3669,10 @@
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
       <c r="AG15" s="3"/>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>63</v>
       </c>
@@ -3585,9 +3706,13 @@
         <v>2</v>
       </c>
       <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
+      <c r="Q16" t="s">
+        <v>608</v>
+      </c>
+      <c r="R16" t="s">
+        <v>609</v>
+      </c>
       <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
@@ -3601,8 +3726,10 @@
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>66</v>
       </c>
@@ -3636,9 +3763,13 @@
         <v>2</v>
       </c>
       <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
+      <c r="Q17" t="s">
+        <v>608</v>
+      </c>
+      <c r="R17" t="s">
+        <v>609</v>
+      </c>
       <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
@@ -3652,8 +3783,10 @@
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>68</v>
       </c>
@@ -3687,9 +3820,13 @@
         <v>2</v>
       </c>
       <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
+      <c r="Q18" t="s">
+        <v>608</v>
+      </c>
+      <c r="R18" t="s">
+        <v>609</v>
+      </c>
       <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
@@ -3703,8 +3840,10 @@
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>70</v>
       </c>
@@ -3736,9 +3875,13 @@
         <v>1</v>
       </c>
       <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
+      <c r="Q19" t="s">
+        <v>608</v>
+      </c>
+      <c r="R19" t="s">
+        <v>609</v>
+      </c>
       <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
@@ -3752,8 +3895,10 @@
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>73</v>
       </c>
@@ -3785,9 +3930,13 @@
         <v>7</v>
       </c>
       <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
+      <c r="Q20" t="s">
+        <v>608</v>
+      </c>
+      <c r="R20" t="s">
+        <v>610</v>
+      </c>
       <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
@@ -3801,8 +3950,10 @@
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>75</v>
       </c>
@@ -3834,9 +3985,13 @@
         <v>5</v>
       </c>
       <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
+      <c r="Q21" t="s">
+        <v>613</v>
+      </c>
+      <c r="R21" t="s">
+        <v>612</v>
+      </c>
       <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
@@ -3850,8 +4005,10 @@
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>78</v>
       </c>
@@ -3883,9 +4040,13 @@
         <v>5</v>
       </c>
       <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
+      <c r="Q22" t="s">
+        <v>613</v>
+      </c>
+      <c r="R22" t="s">
+        <v>612</v>
+      </c>
       <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
@@ -3899,8 +4060,10 @@
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>80</v>
       </c>
@@ -3932,9 +4095,13 @@
         <v>5</v>
       </c>
       <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
+      <c r="Q23" t="s">
+        <v>613</v>
+      </c>
+      <c r="R23" t="s">
+        <v>609</v>
+      </c>
       <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
@@ -3948,8 +4115,10 @@
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
       <c r="AG23" s="3"/>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>82</v>
       </c>
@@ -3981,9 +4150,13 @@
         <v>3</v>
       </c>
       <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
+      <c r="Q24" t="s">
+        <v>608</v>
+      </c>
+      <c r="R24" t="s">
+        <v>610</v>
+      </c>
       <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
@@ -3997,8 +4170,10 @@
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
       <c r="AG24" s="3"/>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>84</v>
       </c>
@@ -4030,9 +4205,13 @@
         <v>2</v>
       </c>
       <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
+      <c r="Q25" t="s">
+        <v>608</v>
+      </c>
+      <c r="R25" t="s">
+        <v>610</v>
+      </c>
       <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
@@ -4046,8 +4225,10 @@
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
       <c r="AG25" s="3"/>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>86</v>
       </c>
@@ -4079,9 +4260,13 @@
         <v>2</v>
       </c>
       <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
+      <c r="Q26" t="s">
+        <v>608</v>
+      </c>
+      <c r="R26" t="s">
+        <v>610</v>
+      </c>
       <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
@@ -4095,8 +4280,10 @@
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
       <c r="AG26" s="3"/>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>88</v>
       </c>
@@ -4128,9 +4315,13 @@
         <v>6</v>
       </c>
       <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
+      <c r="Q27" t="s">
+        <v>608</v>
+      </c>
+      <c r="R27" t="s">
+        <v>610</v>
+      </c>
       <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
@@ -4144,8 +4335,10 @@
       <c r="AE27" s="3"/>
       <c r="AF27" s="3"/>
       <c r="AG27" s="3"/>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>90</v>
       </c>
@@ -4181,9 +4374,13 @@
         <v>2</v>
       </c>
       <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
+      <c r="Q28" t="s">
+        <v>608</v>
+      </c>
+      <c r="R28" t="s">
+        <v>610</v>
+      </c>
       <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
@@ -4197,8 +4394,10 @@
       <c r="AE28" s="3"/>
       <c r="AF28" s="3"/>
       <c r="AG28" s="3"/>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>94</v>
       </c>
@@ -4228,9 +4427,13 @@
         <v>2</v>
       </c>
       <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
+      <c r="Q29" t="s">
+        <v>608</v>
+      </c>
+      <c r="R29" t="s">
+        <v>609</v>
+      </c>
       <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
@@ -4244,8 +4447,10 @@
       <c r="AE29" s="3"/>
       <c r="AF29" s="3"/>
       <c r="AG29" s="3"/>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>96</v>
       </c>
@@ -4277,9 +4482,13 @@
         <v>2</v>
       </c>
       <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
+      <c r="Q30" t="s">
+        <v>608</v>
+      </c>
+      <c r="R30" t="s">
+        <v>612</v>
+      </c>
       <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
@@ -4293,8 +4502,10 @@
       <c r="AE30" s="3"/>
       <c r="AF30" s="3"/>
       <c r="AG30" s="3"/>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>99</v>
       </c>
@@ -4326,9 +4537,13 @@
         <v>2</v>
       </c>
       <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
+      <c r="Q31" t="s">
+        <v>608</v>
+      </c>
+      <c r="R31" t="s">
+        <v>609</v>
+      </c>
       <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
@@ -4342,8 +4557,10 @@
       <c r="AE31" s="3"/>
       <c r="AF31" s="3"/>
       <c r="AG31" s="3"/>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>102</v>
       </c>
@@ -4375,9 +4592,13 @@
         <v>6</v>
       </c>
       <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
+      <c r="Q32" t="s">
+        <v>608</v>
+      </c>
+      <c r="R32" t="s">
+        <v>609</v>
+      </c>
       <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
@@ -4391,8 +4612,10 @@
       <c r="AE32" s="3"/>
       <c r="AF32" s="3"/>
       <c r="AG32" s="3"/>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3"/>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>105</v>
       </c>
@@ -4424,9 +4647,13 @@
         <v>2</v>
       </c>
       <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
+      <c r="Q33" t="s">
+        <v>608</v>
+      </c>
+      <c r="R33" t="s">
+        <v>609</v>
+      </c>
       <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
@@ -4440,8 +4667,10 @@
       <c r="AE33" s="3"/>
       <c r="AF33" s="3"/>
       <c r="AG33" s="3"/>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>107</v>
       </c>
@@ -4475,9 +4704,13 @@
         <v>2</v>
       </c>
       <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
+      <c r="Q34" t="s">
+        <v>608</v>
+      </c>
+      <c r="R34" t="s">
+        <v>609</v>
+      </c>
       <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
@@ -4491,8 +4724,10 @@
       <c r="AE34" s="3"/>
       <c r="AF34" s="3"/>
       <c r="AG34" s="3"/>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3"/>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>111</v>
       </c>
@@ -4524,9 +4759,13 @@
         <v>2</v>
       </c>
       <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
+      <c r="Q35" t="s">
+        <v>608</v>
+      </c>
+      <c r="R35" t="s">
+        <v>609</v>
+      </c>
       <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
@@ -4540,8 +4779,10 @@
       <c r="AE35" s="3"/>
       <c r="AF35" s="3"/>
       <c r="AG35" s="3"/>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH35" s="3"/>
+      <c r="AI35" s="3"/>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>113</v>
       </c>
@@ -4577,9 +4818,13 @@
         <v>2</v>
       </c>
       <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
+      <c r="Q36" t="s">
+        <v>608</v>
+      </c>
+      <c r="R36" t="s">
+        <v>609</v>
+      </c>
       <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
@@ -4593,8 +4838,10 @@
       <c r="AE36" s="3"/>
       <c r="AF36" s="3"/>
       <c r="AG36" s="3"/>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH36" s="3"/>
+      <c r="AI36" s="3"/>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>117</v>
       </c>
@@ -4626,9 +4873,13 @@
         <v>2</v>
       </c>
       <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
+      <c r="Q37" t="s">
+        <v>608</v>
+      </c>
+      <c r="R37" t="s">
+        <v>610</v>
+      </c>
       <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
@@ -4642,8 +4893,10 @@
       <c r="AE37" s="3"/>
       <c r="AF37" s="3"/>
       <c r="AG37" s="3"/>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH37" s="3"/>
+      <c r="AI37" s="3"/>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>119</v>
       </c>
@@ -4675,9 +4928,13 @@
         <v>6</v>
       </c>
       <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
+      <c r="Q38" t="s">
+        <v>613</v>
+      </c>
+      <c r="R38" t="s">
+        <v>609</v>
+      </c>
       <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
@@ -4691,8 +4948,10 @@
       <c r="AE38" s="3"/>
       <c r="AF38" s="3"/>
       <c r="AG38" s="3"/>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH38" s="3"/>
+      <c r="AI38" s="3"/>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>121</v>
       </c>
@@ -4724,9 +4983,13 @@
         <v>5</v>
       </c>
       <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
+      <c r="Q39" t="s">
+        <v>613</v>
+      </c>
+      <c r="R39" t="s">
+        <v>609</v>
+      </c>
       <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
@@ -4740,8 +5003,10 @@
       <c r="AE39" s="3"/>
       <c r="AF39" s="3"/>
       <c r="AG39" s="3"/>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH39" s="3"/>
+      <c r="AI39" s="3"/>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>124</v>
       </c>
@@ -4773,9 +5038,13 @@
         <v>5</v>
       </c>
       <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
+      <c r="Q40" t="s">
+        <v>613</v>
+      </c>
+      <c r="R40" t="s">
+        <v>612</v>
+      </c>
       <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
@@ -4789,8 +5058,10 @@
       <c r="AE40" s="3"/>
       <c r="AF40" s="3"/>
       <c r="AG40" s="3"/>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH40" s="3"/>
+      <c r="AI40" s="3"/>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>126</v>
       </c>
@@ -4822,9 +5093,13 @@
         <v>5</v>
       </c>
       <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
+      <c r="Q41" t="s">
+        <v>608</v>
+      </c>
+      <c r="R41" t="s">
+        <v>610</v>
+      </c>
       <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
@@ -4838,8 +5113,10 @@
       <c r="AE41" s="3"/>
       <c r="AF41" s="3"/>
       <c r="AG41" s="3"/>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH41" s="3"/>
+      <c r="AI41" s="3"/>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>128</v>
       </c>
@@ -4871,9 +5148,13 @@
         <v>2</v>
       </c>
       <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
+      <c r="Q42" t="s">
+        <v>608</v>
+      </c>
+      <c r="R42" t="s">
+        <v>610</v>
+      </c>
       <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
@@ -4887,8 +5168,10 @@
       <c r="AE42" s="3"/>
       <c r="AF42" s="3"/>
       <c r="AG42" s="3"/>
-    </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH42" s="3"/>
+      <c r="AI42" s="3"/>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>131</v>
       </c>
@@ -4920,9 +5203,13 @@
         <v>2</v>
       </c>
       <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
+      <c r="Q43" t="s">
+        <v>608</v>
+      </c>
+      <c r="R43" t="s">
+        <v>610</v>
+      </c>
       <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
@@ -4936,8 +5223,10 @@
       <c r="AE43" s="3"/>
       <c r="AF43" s="3"/>
       <c r="AG43" s="3"/>
-    </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH43" s="3"/>
+      <c r="AI43" s="3"/>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>133</v>
       </c>
@@ -4969,9 +5258,13 @@
         <v>2</v>
       </c>
       <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
+      <c r="Q44" t="s">
+        <v>608</v>
+      </c>
+      <c r="R44" t="s">
+        <v>610</v>
+      </c>
       <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
@@ -4985,8 +5278,10 @@
       <c r="AE44" s="3"/>
       <c r="AF44" s="3"/>
       <c r="AG44" s="3"/>
-    </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH44" s="3"/>
+      <c r="AI44" s="3"/>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>135</v>
       </c>
@@ -5018,9 +5313,13 @@
         <v>2</v>
       </c>
       <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
+      <c r="Q45" t="s">
+        <v>608</v>
+      </c>
+      <c r="R45" t="s">
+        <v>610</v>
+      </c>
       <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
@@ -5034,8 +5333,10 @@
       <c r="AE45" s="3"/>
       <c r="AF45" s="3"/>
       <c r="AG45" s="3"/>
-    </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH45" s="3"/>
+      <c r="AI45" s="3"/>
+    </row>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>137</v>
       </c>
@@ -5069,9 +5370,13 @@
         <v>1</v>
       </c>
       <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
+      <c r="Q46" t="s">
+        <v>608</v>
+      </c>
+      <c r="R46" t="s">
+        <v>610</v>
+      </c>
       <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
@@ -5085,8 +5390,10 @@
       <c r="AE46" s="3"/>
       <c r="AF46" s="3"/>
       <c r="AG46" s="3"/>
-    </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH46" s="3"/>
+      <c r="AI46" s="3"/>
+    </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>140</v>
       </c>
@@ -5120,9 +5427,13 @@
         <v>2</v>
       </c>
       <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
+      <c r="Q47" t="s">
+        <v>608</v>
+      </c>
+      <c r="R47" t="s">
+        <v>609</v>
+      </c>
       <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
@@ -5136,8 +5447,10 @@
       <c r="AE47" s="3"/>
       <c r="AF47" s="3"/>
       <c r="AG47" s="3"/>
-    </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH47" s="3"/>
+      <c r="AI47" s="3"/>
+    </row>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>143</v>
       </c>
@@ -5169,9 +5482,13 @@
         <v>0</v>
       </c>
       <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
+      <c r="Q48" t="s">
+        <v>608</v>
+      </c>
+      <c r="R48" t="s">
+        <v>610</v>
+      </c>
       <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
@@ -5185,8 +5502,10 @@
       <c r="AE48" s="3"/>
       <c r="AF48" s="3"/>
       <c r="AG48" s="3"/>
-    </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH48" s="3"/>
+      <c r="AI48" s="3"/>
+    </row>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>145</v>
       </c>
@@ -5218,9 +5537,13 @@
         <v>3</v>
       </c>
       <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
+      <c r="Q49" t="s">
+        <v>608</v>
+      </c>
+      <c r="R49" t="s">
+        <v>610</v>
+      </c>
       <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
@@ -5234,8 +5557,10 @@
       <c r="AE49" s="3"/>
       <c r="AF49" s="3"/>
       <c r="AG49" s="3"/>
-    </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH49" s="3"/>
+      <c r="AI49" s="3"/>
+    </row>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>147</v>
       </c>
@@ -5267,9 +5592,13 @@
         <v>3</v>
       </c>
       <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
+      <c r="Q50" t="s">
+        <v>608</v>
+      </c>
+      <c r="R50" t="s">
+        <v>610</v>
+      </c>
       <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
@@ -5283,8 +5612,10 @@
       <c r="AE50" s="3"/>
       <c r="AF50" s="3"/>
       <c r="AG50" s="3"/>
-    </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH50" s="3"/>
+      <c r="AI50" s="3"/>
+    </row>
+    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>149</v>
       </c>
@@ -5316,9 +5647,13 @@
         <v>3</v>
       </c>
       <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
+      <c r="Q51" t="s">
+        <v>613</v>
+      </c>
+      <c r="R51" t="s">
+        <v>612</v>
+      </c>
       <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
@@ -5332,8 +5667,10 @@
       <c r="AE51" s="3"/>
       <c r="AF51" s="3"/>
       <c r="AG51" s="3"/>
-    </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH51" s="3"/>
+      <c r="AI51" s="3"/>
+    </row>
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>150</v>
       </c>
@@ -5367,9 +5704,13 @@
         <v>1</v>
       </c>
       <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
+      <c r="Q52" t="s">
+        <v>608</v>
+      </c>
+      <c r="R52" t="s">
+        <v>612</v>
+      </c>
       <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
@@ -5383,8 +5724,10 @@
       <c r="AE52" s="3"/>
       <c r="AF52" s="3"/>
       <c r="AG52" s="3"/>
-    </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH52" s="3"/>
+      <c r="AI52" s="3"/>
+    </row>
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>154</v>
       </c>
@@ -5416,9 +5759,13 @@
         <v>2</v>
       </c>
       <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
+      <c r="Q53" t="s">
+        <v>608</v>
+      </c>
+      <c r="R53" t="s">
+        <v>609</v>
+      </c>
       <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
@@ -5432,8 +5779,10 @@
       <c r="AE53" s="3"/>
       <c r="AF53" s="3"/>
       <c r="AG53" s="3"/>
-    </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH53" s="3"/>
+      <c r="AI53" s="3"/>
+    </row>
+    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>156</v>
       </c>
@@ -5465,9 +5814,13 @@
         <v>2</v>
       </c>
       <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
+      <c r="Q54" t="s">
+        <v>608</v>
+      </c>
+      <c r="R54" t="s">
+        <v>610</v>
+      </c>
       <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
@@ -5481,8 +5834,10 @@
       <c r="AE54" s="3"/>
       <c r="AF54" s="3"/>
       <c r="AG54" s="3"/>
-    </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH54" s="3"/>
+      <c r="AI54" s="3"/>
+    </row>
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>158</v>
       </c>
@@ -5514,9 +5869,13 @@
         <v>2</v>
       </c>
       <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
+      <c r="Q55" t="s">
+        <v>608</v>
+      </c>
+      <c r="R55" t="s">
+        <v>610</v>
+      </c>
       <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
@@ -5530,8 +5889,10 @@
       <c r="AE55" s="3"/>
       <c r="AF55" s="3"/>
       <c r="AG55" s="3"/>
-    </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH55" s="3"/>
+      <c r="AI55" s="3"/>
+    </row>
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>161</v>
       </c>
@@ -5563,9 +5924,13 @@
         <v>2</v>
       </c>
       <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
+      <c r="Q56" t="s">
+        <v>608</v>
+      </c>
+      <c r="R56" t="s">
+        <v>610</v>
+      </c>
       <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
@@ -5579,8 +5944,10 @@
       <c r="AE56" s="3"/>
       <c r="AF56" s="3"/>
       <c r="AG56" s="3"/>
-    </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH56" s="3"/>
+      <c r="AI56" s="3"/>
+    </row>
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>163</v>
       </c>
@@ -5612,9 +5979,13 @@
         <v>2</v>
       </c>
       <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
+      <c r="Q57" t="s">
+        <v>608</v>
+      </c>
+      <c r="R57" t="s">
+        <v>610</v>
+      </c>
       <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
@@ -5628,8 +5999,10 @@
       <c r="AE57" s="3"/>
       <c r="AF57" s="3"/>
       <c r="AG57" s="3"/>
-    </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH57" s="3"/>
+      <c r="AI57" s="3"/>
+    </row>
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>165</v>
       </c>
@@ -5661,9 +6034,13 @@
         <v>2</v>
       </c>
       <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
+      <c r="Q58" t="s">
+        <v>608</v>
+      </c>
+      <c r="R58" t="s">
+        <v>609</v>
+      </c>
       <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
       <c r="W58" s="3"/>
@@ -5677,8 +6054,10 @@
       <c r="AE58" s="3"/>
       <c r="AF58" s="3"/>
       <c r="AG58" s="3"/>
-    </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH58" s="3"/>
+      <c r="AI58" s="3"/>
+    </row>
+    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>167</v>
       </c>
@@ -5710,9 +6089,13 @@
         <v>1</v>
       </c>
       <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
+      <c r="Q59" t="s">
+        <v>608</v>
+      </c>
+      <c r="R59" t="s">
+        <v>609</v>
+      </c>
       <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
       <c r="W59" s="3"/>
@@ -5726,8 +6109,10 @@
       <c r="AE59" s="3"/>
       <c r="AF59" s="3"/>
       <c r="AG59" s="3"/>
-    </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH59" s="3"/>
+      <c r="AI59" s="3"/>
+    </row>
+    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>170</v>
       </c>
@@ -5759,9 +6144,13 @@
         <v>2</v>
       </c>
       <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
+      <c r="Q60" t="s">
+        <v>608</v>
+      </c>
+      <c r="R60" t="s">
+        <v>610</v>
+      </c>
       <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
       <c r="W60" s="3"/>
@@ -5775,8 +6164,10 @@
       <c r="AE60" s="3"/>
       <c r="AF60" s="3"/>
       <c r="AG60" s="3"/>
-    </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH60" s="3"/>
+      <c r="AI60" s="3"/>
+    </row>
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>173</v>
       </c>
@@ -5808,9 +6199,13 @@
         <v>1</v>
       </c>
       <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
+      <c r="Q61" t="s">
+        <v>608</v>
+      </c>
+      <c r="R61" t="s">
+        <v>609</v>
+      </c>
       <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
@@ -5824,8 +6219,10 @@
       <c r="AE61" s="3"/>
       <c r="AF61" s="3"/>
       <c r="AG61" s="3"/>
-    </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH61" s="3"/>
+      <c r="AI61" s="3"/>
+    </row>
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>175</v>
       </c>
@@ -5857,9 +6254,13 @@
         <v>1</v>
       </c>
       <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
+      <c r="Q62" t="s">
+        <v>608</v>
+      </c>
+      <c r="R62" t="s">
+        <v>609</v>
+      </c>
       <c r="S62" s="3"/>
-      <c r="T62" s="3"/>
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
@@ -5873,8 +6274,10 @@
       <c r="AE62" s="3"/>
       <c r="AF62" s="3"/>
       <c r="AG62" s="3"/>
-    </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH62" s="3"/>
+      <c r="AI62" s="3"/>
+    </row>
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>177</v>
       </c>
@@ -5906,9 +6309,13 @@
         <v>2</v>
       </c>
       <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
+      <c r="Q63" t="s">
+        <v>608</v>
+      </c>
+      <c r="R63" t="s">
+        <v>612</v>
+      </c>
       <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
@@ -5922,8 +6329,10 @@
       <c r="AE63" s="3"/>
       <c r="AF63" s="3"/>
       <c r="AG63" s="3"/>
-    </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH63" s="3"/>
+      <c r="AI63" s="3"/>
+    </row>
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>180</v>
       </c>
@@ -5955,9 +6364,13 @@
         <v>1</v>
       </c>
       <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
+      <c r="Q64" t="s">
+        <v>608</v>
+      </c>
+      <c r="R64" t="s">
+        <v>609</v>
+      </c>
       <c r="S64" s="3"/>
-      <c r="T64" s="3"/>
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>
@@ -5971,8 +6384,10 @@
       <c r="AE64" s="3"/>
       <c r="AF64" s="3"/>
       <c r="AG64" s="3"/>
-    </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH64" s="3"/>
+      <c r="AI64" s="3"/>
+    </row>
+    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>182</v>
       </c>
@@ -6006,9 +6421,13 @@
         <v>5</v>
       </c>
       <c r="P65" s="3"/>
-      <c r="Q65" s="3"/>
+      <c r="Q65" t="s">
+        <v>613</v>
+      </c>
+      <c r="R65" t="s">
+        <v>612</v>
+      </c>
       <c r="S65" s="3"/>
-      <c r="T65" s="3"/>
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
       <c r="W65" s="3"/>
@@ -6022,8 +6441,10 @@
       <c r="AE65" s="3"/>
       <c r="AF65" s="3"/>
       <c r="AG65" s="3"/>
-    </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH65" s="3"/>
+      <c r="AI65" s="3"/>
+    </row>
+    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>186</v>
       </c>
@@ -6055,9 +6476,13 @@
         <v>5</v>
       </c>
       <c r="P66" s="3"/>
-      <c r="Q66" s="3"/>
+      <c r="Q66" t="s">
+        <v>613</v>
+      </c>
+      <c r="R66" t="s">
+        <v>610</v>
+      </c>
       <c r="S66" s="3"/>
-      <c r="T66" s="3"/>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
       <c r="W66" s="3"/>
@@ -6071,8 +6496,10 @@
       <c r="AE66" s="3"/>
       <c r="AF66" s="3"/>
       <c r="AG66" s="3"/>
-    </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH66" s="3"/>
+      <c r="AI66" s="3"/>
+    </row>
+    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>188</v>
       </c>
@@ -6106,9 +6533,13 @@
         <v>2</v>
       </c>
       <c r="P67" s="3"/>
-      <c r="Q67" s="3"/>
+      <c r="Q67" t="s">
+        <v>608</v>
+      </c>
+      <c r="R67" t="s">
+        <v>609</v>
+      </c>
       <c r="S67" s="3"/>
-      <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
@@ -6122,8 +6553,10 @@
       <c r="AE67" s="3"/>
       <c r="AF67" s="3"/>
       <c r="AG67" s="3"/>
-    </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH67" s="3"/>
+      <c r="AI67" s="3"/>
+    </row>
+    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>191</v>
       </c>
@@ -6155,9 +6588,13 @@
         <v>2</v>
       </c>
       <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
+      <c r="Q68" t="s">
+        <v>608</v>
+      </c>
+      <c r="R68" t="s">
+        <v>609</v>
+      </c>
       <c r="S68" s="3"/>
-      <c r="T68" s="3"/>
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
       <c r="W68" s="3"/>
@@ -6171,8 +6608,10 @@
       <c r="AE68" s="3"/>
       <c r="AF68" s="3"/>
       <c r="AG68" s="3"/>
-    </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH68" s="3"/>
+      <c r="AI68" s="3"/>
+    </row>
+    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>193</v>
       </c>
@@ -6206,9 +6645,13 @@
         <v>2</v>
       </c>
       <c r="P69" s="3"/>
-      <c r="Q69" s="3"/>
+      <c r="Q69" t="s">
+        <v>613</v>
+      </c>
+      <c r="R69" t="s">
+        <v>612</v>
+      </c>
       <c r="S69" s="3"/>
-      <c r="T69" s="3"/>
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
       <c r="W69" s="3"/>
@@ -6222,8 +6665,10 @@
       <c r="AE69" s="3"/>
       <c r="AF69" s="3"/>
       <c r="AG69" s="3"/>
-    </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH69" s="3"/>
+      <c r="AI69" s="3"/>
+    </row>
+    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>196</v>
       </c>
@@ -6255,9 +6700,13 @@
         <v>7</v>
       </c>
       <c r="P70" s="3"/>
-      <c r="Q70" s="3"/>
+      <c r="Q70" t="s">
+        <v>608</v>
+      </c>
+      <c r="R70" t="s">
+        <v>610</v>
+      </c>
       <c r="S70" s="3"/>
-      <c r="T70" s="3"/>
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
@@ -6271,8 +6720,10 @@
       <c r="AE70" s="3"/>
       <c r="AF70" s="3"/>
       <c r="AG70" s="3"/>
-    </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH70" s="3"/>
+      <c r="AI70" s="3"/>
+    </row>
+    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>198</v>
       </c>
@@ -6304,9 +6755,13 @@
         <v>2</v>
       </c>
       <c r="P71" s="3"/>
-      <c r="Q71" s="3"/>
+      <c r="Q71" t="s">
+        <v>608</v>
+      </c>
+      <c r="R71" t="s">
+        <v>610</v>
+      </c>
       <c r="S71" s="3"/>
-      <c r="T71" s="3"/>
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
       <c r="W71" s="3"/>
@@ -6320,8 +6775,10 @@
       <c r="AE71" s="3"/>
       <c r="AF71" s="3"/>
       <c r="AG71" s="3"/>
-    </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH71" s="3"/>
+      <c r="AI71" s="3"/>
+    </row>
+    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>201</v>
       </c>
@@ -6353,9 +6810,13 @@
         <v>2</v>
       </c>
       <c r="P72" s="3"/>
-      <c r="Q72" s="3"/>
+      <c r="Q72" t="s">
+        <v>608</v>
+      </c>
+      <c r="R72" t="s">
+        <v>610</v>
+      </c>
       <c r="S72" s="3"/>
-      <c r="T72" s="3"/>
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
       <c r="W72" s="3"/>
@@ -6369,8 +6830,10 @@
       <c r="AE72" s="3"/>
       <c r="AF72" s="3"/>
       <c r="AG72" s="3"/>
-    </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH72" s="3"/>
+      <c r="AI72" s="3"/>
+    </row>
+    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>203</v>
       </c>
@@ -6400,9 +6863,13 @@
         <v>2</v>
       </c>
       <c r="P73" s="3"/>
-      <c r="Q73" s="3"/>
+      <c r="Q73" t="s">
+        <v>608</v>
+      </c>
+      <c r="R73" t="s">
+        <v>612</v>
+      </c>
       <c r="S73" s="3"/>
-      <c r="T73" s="3"/>
       <c r="U73" s="3"/>
       <c r="V73" s="3"/>
       <c r="W73" s="3"/>
@@ -6416,8 +6883,10 @@
       <c r="AE73" s="3"/>
       <c r="AF73" s="3"/>
       <c r="AG73" s="3"/>
-    </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH73" s="3"/>
+      <c r="AI73" s="3"/>
+    </row>
+    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>205</v>
       </c>
@@ -6447,9 +6916,13 @@
         <v>1</v>
       </c>
       <c r="P74" s="3"/>
-      <c r="Q74" s="3"/>
+      <c r="Q74" t="s">
+        <v>608</v>
+      </c>
+      <c r="R74" t="s">
+        <v>609</v>
+      </c>
       <c r="S74" s="3"/>
-      <c r="T74" s="3"/>
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
       <c r="W74" s="3"/>
@@ -6463,8 +6936,10 @@
       <c r="AE74" s="3"/>
       <c r="AF74" s="3"/>
       <c r="AG74" s="3"/>
-    </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH74" s="3"/>
+      <c r="AI74" s="3"/>
+    </row>
+    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>207</v>
       </c>
@@ -6494,9 +6969,13 @@
         <v>2</v>
       </c>
       <c r="P75" s="3"/>
-      <c r="Q75" s="3"/>
+      <c r="Q75" t="s">
+        <v>608</v>
+      </c>
+      <c r="R75" t="s">
+        <v>609</v>
+      </c>
       <c r="S75" s="3"/>
-      <c r="T75" s="3"/>
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
       <c r="W75" s="3"/>
@@ -6510,8 +6989,10 @@
       <c r="AE75" s="3"/>
       <c r="AF75" s="3"/>
       <c r="AG75" s="3"/>
-    </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH75" s="3"/>
+      <c r="AI75" s="3"/>
+    </row>
+    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>209</v>
       </c>
@@ -6541,9 +7022,13 @@
         <v>2</v>
       </c>
       <c r="P76" s="3"/>
-      <c r="Q76" s="3"/>
+      <c r="Q76" t="s">
+        <v>608</v>
+      </c>
+      <c r="R76" t="s">
+        <v>609</v>
+      </c>
       <c r="S76" s="3"/>
-      <c r="T76" s="3"/>
       <c r="U76" s="3"/>
       <c r="V76" s="3"/>
       <c r="W76" s="3"/>
@@ -6557,8 +7042,10 @@
       <c r="AE76" s="3"/>
       <c r="AF76" s="3"/>
       <c r="AG76" s="3"/>
-    </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH76" s="3"/>
+      <c r="AI76" s="3"/>
+    </row>
+    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>211</v>
       </c>
@@ -6588,9 +7075,13 @@
         <v>2</v>
       </c>
       <c r="P77" s="3"/>
-      <c r="Q77" s="3"/>
+      <c r="Q77" t="s">
+        <v>608</v>
+      </c>
+      <c r="R77" t="s">
+        <v>609</v>
+      </c>
       <c r="S77" s="3"/>
-      <c r="T77" s="3"/>
       <c r="U77" s="3"/>
       <c r="V77" s="3"/>
       <c r="W77" s="3"/>
@@ -6604,8 +7095,10 @@
       <c r="AE77" s="3"/>
       <c r="AF77" s="3"/>
       <c r="AG77" s="3"/>
-    </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH77" s="3"/>
+      <c r="AI77" s="3"/>
+    </row>
+    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>213</v>
       </c>
@@ -6635,9 +7128,13 @@
         <v>2</v>
       </c>
       <c r="P78" s="3"/>
-      <c r="Q78" s="3"/>
+      <c r="Q78" t="s">
+        <v>608</v>
+      </c>
+      <c r="R78" t="s">
+        <v>609</v>
+      </c>
       <c r="S78" s="3"/>
-      <c r="T78" s="3"/>
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
       <c r="W78" s="3"/>
@@ -6651,8 +7148,10 @@
       <c r="AE78" s="3"/>
       <c r="AF78" s="3"/>
       <c r="AG78" s="3"/>
-    </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH78" s="3"/>
+      <c r="AI78" s="3"/>
+    </row>
+    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>215</v>
       </c>
@@ -6682,9 +7181,13 @@
         <v>1</v>
       </c>
       <c r="P79" s="3"/>
-      <c r="Q79" s="3"/>
+      <c r="Q79" t="s">
+        <v>608</v>
+      </c>
+      <c r="R79" t="s">
+        <v>612</v>
+      </c>
       <c r="S79" s="3"/>
-      <c r="T79" s="3"/>
       <c r="U79" s="3"/>
       <c r="V79" s="3"/>
       <c r="W79" s="3"/>
@@ -6698,8 +7201,10 @@
       <c r="AE79" s="3"/>
       <c r="AF79" s="3"/>
       <c r="AG79" s="3"/>
-    </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH79" s="3"/>
+      <c r="AI79" s="3"/>
+    </row>
+    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>217</v>
       </c>
@@ -6729,9 +7234,13 @@
         <v>0</v>
       </c>
       <c r="P80" s="3"/>
-      <c r="Q80" s="3"/>
+      <c r="Q80" t="s">
+        <v>608</v>
+      </c>
+      <c r="R80" t="s">
+        <v>609</v>
+      </c>
       <c r="S80" s="3"/>
-      <c r="T80" s="3"/>
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
       <c r="W80" s="3"/>
@@ -6745,8 +7254,10 @@
       <c r="AE80" s="3"/>
       <c r="AF80" s="3"/>
       <c r="AG80" s="3"/>
-    </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH80" s="3"/>
+      <c r="AI80" s="3"/>
+    </row>
+    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>219</v>
       </c>
@@ -6776,9 +7287,13 @@
         <v>1</v>
       </c>
       <c r="P81" s="3"/>
-      <c r="Q81" s="3"/>
+      <c r="Q81" t="s">
+        <v>608</v>
+      </c>
+      <c r="R81" t="s">
+        <v>609</v>
+      </c>
       <c r="S81" s="3"/>
-      <c r="T81" s="3"/>
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
       <c r="W81" s="3"/>
@@ -6792,8 +7307,10 @@
       <c r="AE81" s="3"/>
       <c r="AF81" s="3"/>
       <c r="AG81" s="3"/>
-    </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH81" s="3"/>
+      <c r="AI81" s="3"/>
+    </row>
+    <row r="82" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>221</v>
       </c>
@@ -6823,9 +7340,13 @@
         <v>2</v>
       </c>
       <c r="P82" s="3"/>
-      <c r="Q82" s="3"/>
+      <c r="Q82" t="s">
+        <v>608</v>
+      </c>
+      <c r="R82" t="s">
+        <v>609</v>
+      </c>
       <c r="S82" s="3"/>
-      <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
@@ -6839,8 +7360,10 @@
       <c r="AE82" s="3"/>
       <c r="AF82" s="3"/>
       <c r="AG82" s="3"/>
-    </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH82" s="3"/>
+      <c r="AI82" s="3"/>
+    </row>
+    <row r="83" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>223</v>
       </c>
@@ -6870,9 +7393,13 @@
         <v>1</v>
       </c>
       <c r="P83" s="3"/>
-      <c r="Q83" s="3"/>
+      <c r="Q83" t="s">
+        <v>608</v>
+      </c>
+      <c r="R83" t="s">
+        <v>612</v>
+      </c>
       <c r="S83" s="3"/>
-      <c r="T83" s="3"/>
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
       <c r="W83" s="3"/>
@@ -6886,8 +7413,10 @@
       <c r="AE83" s="3"/>
       <c r="AF83" s="3"/>
       <c r="AG83" s="3"/>
-    </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH83" s="3"/>
+      <c r="AI83" s="3"/>
+    </row>
+    <row r="84" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>225</v>
       </c>
@@ -6917,9 +7446,13 @@
         <v>1</v>
       </c>
       <c r="P84" s="3"/>
-      <c r="Q84" s="3"/>
+      <c r="Q84" t="s">
+        <v>608</v>
+      </c>
+      <c r="R84" t="s">
+        <v>610</v>
+      </c>
       <c r="S84" s="3"/>
-      <c r="T84" s="3"/>
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
       <c r="W84" s="3"/>
@@ -6933,8 +7466,10 @@
       <c r="AE84" s="3"/>
       <c r="AF84" s="3"/>
       <c r="AG84" s="3"/>
-    </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH84" s="3"/>
+      <c r="AI84" s="3"/>
+    </row>
+    <row r="85" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>227</v>
       </c>
@@ -6964,9 +7499,13 @@
         <v>1</v>
       </c>
       <c r="P85" s="3"/>
-      <c r="Q85" s="3"/>
+      <c r="Q85" t="s">
+        <v>608</v>
+      </c>
+      <c r="R85" t="s">
+        <v>610</v>
+      </c>
       <c r="S85" s="3"/>
-      <c r="T85" s="3"/>
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
       <c r="W85" s="3"/>
@@ -6980,8 +7519,10 @@
       <c r="AE85" s="3"/>
       <c r="AF85" s="3"/>
       <c r="AG85" s="3"/>
-    </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH85" s="3"/>
+      <c r="AI85" s="3"/>
+    </row>
+    <row r="86" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>229</v>
       </c>
@@ -7011,9 +7552,13 @@
         <v>7</v>
       </c>
       <c r="P86" s="3"/>
-      <c r="Q86" s="3"/>
+      <c r="Q86" t="s">
+        <v>608</v>
+      </c>
+      <c r="R86" t="s">
+        <v>610</v>
+      </c>
       <c r="S86" s="3"/>
-      <c r="T86" s="3"/>
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
       <c r="W86" s="3"/>
@@ -7027,8 +7572,10 @@
       <c r="AE86" s="3"/>
       <c r="AF86" s="3"/>
       <c r="AG86" s="3"/>
-    </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH86" s="3"/>
+      <c r="AI86" s="3"/>
+    </row>
+    <row r="87" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>231</v>
       </c>
@@ -7058,9 +7605,13 @@
         <v>2</v>
       </c>
       <c r="P87" s="3"/>
-      <c r="Q87" s="3"/>
+      <c r="Q87" t="s">
+        <v>608</v>
+      </c>
+      <c r="R87" t="s">
+        <v>612</v>
+      </c>
       <c r="S87" s="3"/>
-      <c r="T87" s="3"/>
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
       <c r="W87" s="3"/>
@@ -7074,8 +7625,10 @@
       <c r="AE87" s="3"/>
       <c r="AF87" s="3"/>
       <c r="AG87" s="3"/>
-    </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH87" s="3"/>
+      <c r="AI87" s="3"/>
+    </row>
+    <row r="88" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>234</v>
       </c>
@@ -7105,9 +7658,13 @@
         <v>2</v>
       </c>
       <c r="P88" s="3"/>
-      <c r="Q88" s="3"/>
+      <c r="Q88" t="s">
+        <v>608</v>
+      </c>
+      <c r="R88" t="s">
+        <v>612</v>
+      </c>
       <c r="S88" s="3"/>
-      <c r="T88" s="3"/>
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
       <c r="W88" s="3"/>
@@ -7121,8 +7678,10 @@
       <c r="AE88" s="3"/>
       <c r="AF88" s="3"/>
       <c r="AG88" s="3"/>
-    </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH88" s="3"/>
+      <c r="AI88" s="3"/>
+    </row>
+    <row r="89" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>236</v>
       </c>
@@ -7152,9 +7711,13 @@
         <v>2</v>
       </c>
       <c r="P89" s="3"/>
-      <c r="Q89" s="3"/>
+      <c r="Q89" t="s">
+        <v>613</v>
+      </c>
+      <c r="R89" t="s">
+        <v>609</v>
+      </c>
       <c r="S89" s="3"/>
-      <c r="T89" s="3"/>
       <c r="U89" s="3"/>
       <c r="V89" s="3"/>
       <c r="W89" s="3"/>
@@ -7168,8 +7731,10 @@
       <c r="AE89" s="3"/>
       <c r="AF89" s="3"/>
       <c r="AG89" s="3"/>
-    </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH89" s="3"/>
+      <c r="AI89" s="3"/>
+    </row>
+    <row r="90" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>238</v>
       </c>
@@ -7199,9 +7764,13 @@
         <v>5</v>
       </c>
       <c r="P90" s="3"/>
-      <c r="Q90" s="3"/>
+      <c r="Q90" t="s">
+        <v>613</v>
+      </c>
+      <c r="R90" t="s">
+        <v>609</v>
+      </c>
       <c r="S90" s="3"/>
-      <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
@@ -7215,8 +7784,10 @@
       <c r="AE90" s="3"/>
       <c r="AF90" s="3"/>
       <c r="AG90" s="3"/>
-    </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH90" s="3"/>
+      <c r="AI90" s="3"/>
+    </row>
+    <row r="91" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>240</v>
       </c>
@@ -7246,9 +7817,13 @@
         <v>5</v>
       </c>
       <c r="P91" s="3"/>
-      <c r="Q91" s="3"/>
+      <c r="Q91" t="s">
+        <v>613</v>
+      </c>
+      <c r="R91" t="s">
+        <v>609</v>
+      </c>
       <c r="S91" s="3"/>
-      <c r="T91" s="3"/>
       <c r="U91" s="3"/>
       <c r="V91" s="3"/>
       <c r="W91" s="3"/>
@@ -7262,8 +7837,10 @@
       <c r="AE91" s="3"/>
       <c r="AF91" s="3"/>
       <c r="AG91" s="3"/>
-    </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH91" s="3"/>
+      <c r="AI91" s="3"/>
+    </row>
+    <row r="92" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>242</v>
       </c>
@@ -7293,9 +7870,13 @@
         <v>5</v>
       </c>
       <c r="P92" s="3"/>
-      <c r="Q92" s="3"/>
+      <c r="Q92" t="s">
+        <v>613</v>
+      </c>
+      <c r="R92" t="s">
+        <v>610</v>
+      </c>
       <c r="S92" s="3"/>
-      <c r="T92" s="3"/>
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
       <c r="W92" s="3"/>
@@ -7309,8 +7890,10 @@
       <c r="AE92" s="3"/>
       <c r="AF92" s="3"/>
       <c r="AG92" s="3"/>
-    </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH92" s="3"/>
+      <c r="AI92" s="3"/>
+    </row>
+    <row r="93" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>244</v>
       </c>
@@ -7340,9 +7923,13 @@
         <v>5</v>
       </c>
       <c r="P93" s="3"/>
-      <c r="Q93" s="3"/>
+      <c r="Q93" t="s">
+        <v>613</v>
+      </c>
+      <c r="R93" t="s">
+        <v>610</v>
+      </c>
       <c r="S93" s="3"/>
-      <c r="T93" s="3"/>
       <c r="U93" s="3"/>
       <c r="V93" s="3"/>
       <c r="W93" s="3"/>
@@ -7356,8 +7943,10 @@
       <c r="AE93" s="3"/>
       <c r="AF93" s="3"/>
       <c r="AG93" s="3"/>
-    </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH93" s="3"/>
+      <c r="AI93" s="3"/>
+    </row>
+    <row r="94" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>246</v>
       </c>
@@ -7387,9 +7976,13 @@
         <v>5</v>
       </c>
       <c r="P94" s="3"/>
-      <c r="Q94" s="3"/>
+      <c r="Q94" t="s">
+        <v>613</v>
+      </c>
+      <c r="R94" t="s">
+        <v>610</v>
+      </c>
       <c r="S94" s="3"/>
-      <c r="T94" s="3"/>
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
       <c r="W94" s="3"/>
@@ -7403,8 +7996,10 @@
       <c r="AE94" s="3"/>
       <c r="AF94" s="3"/>
       <c r="AG94" s="3"/>
-    </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH94" s="3"/>
+      <c r="AI94" s="3"/>
+    </row>
+    <row r="95" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>248</v>
       </c>
@@ -7434,9 +8029,13 @@
         <v>1</v>
       </c>
       <c r="P95" s="3"/>
-      <c r="Q95" s="3"/>
+      <c r="Q95" t="s">
+        <v>608</v>
+      </c>
+      <c r="R95" t="s">
+        <v>609</v>
+      </c>
       <c r="S95" s="3"/>
-      <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
@@ -7450,8 +8049,10 @@
       <c r="AE95" s="3"/>
       <c r="AF95" s="3"/>
       <c r="AG95" s="3"/>
-    </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH95" s="3"/>
+      <c r="AI95" s="3"/>
+    </row>
+    <row r="96" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>250</v>
       </c>
@@ -7481,9 +8082,13 @@
         <v>3</v>
       </c>
       <c r="P96" s="3"/>
-      <c r="Q96" s="3"/>
+      <c r="Q96" t="s">
+        <v>608</v>
+      </c>
+      <c r="R96" t="s">
+        <v>610</v>
+      </c>
       <c r="S96" s="3"/>
-      <c r="T96" s="3"/>
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
       <c r="W96" s="3"/>
@@ -7497,8 +8102,10 @@
       <c r="AE96" s="3"/>
       <c r="AF96" s="3"/>
       <c r="AG96" s="3"/>
-    </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH96" s="3"/>
+      <c r="AI96" s="3"/>
+    </row>
+    <row r="97" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>252</v>
       </c>
@@ -7528,9 +8135,13 @@
         <v>3</v>
       </c>
       <c r="P97" s="3"/>
-      <c r="Q97" s="3"/>
+      <c r="Q97" t="s">
+        <v>608</v>
+      </c>
+      <c r="R97" t="s">
+        <v>610</v>
+      </c>
       <c r="S97" s="3"/>
-      <c r="T97" s="3"/>
       <c r="U97" s="3"/>
       <c r="V97" s="3"/>
       <c r="W97" s="3"/>
@@ -7544,8 +8155,10 @@
       <c r="AE97" s="3"/>
       <c r="AF97" s="3"/>
       <c r="AG97" s="3"/>
-    </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH97" s="3"/>
+      <c r="AI97" s="3"/>
+    </row>
+    <row r="98" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>254</v>
       </c>
@@ -7575,9 +8188,13 @@
         <v>3</v>
       </c>
       <c r="P98" s="3"/>
-      <c r="Q98" s="3"/>
+      <c r="Q98" t="s">
+        <v>608</v>
+      </c>
+      <c r="R98" t="s">
+        <v>610</v>
+      </c>
       <c r="S98" s="3"/>
-      <c r="T98" s="3"/>
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
       <c r="W98" s="3"/>
@@ -7591,8 +8208,10 @@
       <c r="AE98" s="3"/>
       <c r="AF98" s="3"/>
       <c r="AG98" s="3"/>
-    </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH98" s="3"/>
+      <c r="AI98" s="3"/>
+    </row>
+    <row r="99" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>255</v>
       </c>
@@ -7622,9 +8241,13 @@
         <v>0</v>
       </c>
       <c r="P99" s="3"/>
-      <c r="Q99" s="3"/>
+      <c r="Q99" t="s">
+        <v>611</v>
+      </c>
+      <c r="R99" t="s">
+        <v>612</v>
+      </c>
       <c r="S99" s="3"/>
-      <c r="T99" s="3"/>
       <c r="U99" s="3"/>
       <c r="V99" s="3"/>
       <c r="W99" s="3"/>
@@ -7638,8 +8261,10 @@
       <c r="AE99" s="3"/>
       <c r="AF99" s="3"/>
       <c r="AG99" s="3"/>
-    </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH99" s="3"/>
+      <c r="AI99" s="3"/>
+    </row>
+    <row r="100" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>257</v>
       </c>
@@ -7669,9 +8294,13 @@
         <v>6</v>
       </c>
       <c r="P100" s="3"/>
-      <c r="Q100" s="3"/>
+      <c r="Q100" t="s">
+        <v>608</v>
+      </c>
+      <c r="R100" t="s">
+        <v>609</v>
+      </c>
       <c r="S100" s="3"/>
-      <c r="T100" s="3"/>
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
       <c r="W100" s="3"/>
@@ -7685,8 +8314,10 @@
       <c r="AE100" s="3"/>
       <c r="AF100" s="3"/>
       <c r="AG100" s="3"/>
-    </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH100" s="3"/>
+      <c r="AI100" s="3"/>
+    </row>
+    <row r="101" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>259</v>
       </c>
@@ -7716,9 +8347,13 @@
         <v>3</v>
       </c>
       <c r="P101" s="3"/>
-      <c r="Q101" s="3"/>
+      <c r="Q101" t="s">
+        <v>608</v>
+      </c>
+      <c r="R101" t="s">
+        <v>610</v>
+      </c>
       <c r="S101" s="3"/>
-      <c r="T101" s="3"/>
       <c r="U101" s="3"/>
       <c r="V101" s="3"/>
       <c r="W101" s="3"/>
@@ -7732,8 +8367,10 @@
       <c r="AE101" s="3"/>
       <c r="AF101" s="3"/>
       <c r="AG101" s="3"/>
-    </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH101" s="3"/>
+      <c r="AI101" s="3"/>
+    </row>
+    <row r="102" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>261</v>
       </c>
@@ -7763,9 +8400,13 @@
         <v>2</v>
       </c>
       <c r="P102" s="3"/>
-      <c r="Q102" s="3"/>
+      <c r="Q102" t="s">
+        <v>608</v>
+      </c>
+      <c r="R102" t="s">
+        <v>609</v>
+      </c>
       <c r="S102" s="3"/>
-      <c r="T102" s="3"/>
       <c r="U102" s="3"/>
       <c r="V102" s="3"/>
       <c r="W102" s="3"/>
@@ -7779,8 +8420,10 @@
       <c r="AE102" s="3"/>
       <c r="AF102" s="3"/>
       <c r="AG102" s="3"/>
-    </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH102" s="3"/>
+      <c r="AI102" s="3"/>
+    </row>
+    <row r="103" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>263</v>
       </c>
@@ -7810,9 +8453,13 @@
         <v>2</v>
       </c>
       <c r="P103" s="3"/>
-      <c r="Q103" s="3"/>
+      <c r="Q103" t="s">
+        <v>608</v>
+      </c>
+      <c r="R103" t="s">
+        <v>609</v>
+      </c>
       <c r="S103" s="3"/>
-      <c r="T103" s="3"/>
       <c r="U103" s="3"/>
       <c r="V103" s="3"/>
       <c r="W103" s="3"/>
@@ -7826,8 +8473,10 @@
       <c r="AE103" s="3"/>
       <c r="AF103" s="3"/>
       <c r="AG103" s="3"/>
-    </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH103" s="3"/>
+      <c r="AI103" s="3"/>
+    </row>
+    <row r="104" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>265</v>
       </c>
@@ -7857,9 +8506,13 @@
         <v>2</v>
       </c>
       <c r="P104" s="3"/>
-      <c r="Q104" s="3"/>
+      <c r="Q104" t="s">
+        <v>608</v>
+      </c>
+      <c r="R104" t="s">
+        <v>609</v>
+      </c>
       <c r="S104" s="3"/>
-      <c r="T104" s="3"/>
       <c r="U104" s="3"/>
       <c r="V104" s="3"/>
       <c r="W104" s="3"/>
@@ -7873,8 +8526,10 @@
       <c r="AE104" s="3"/>
       <c r="AF104" s="3"/>
       <c r="AG104" s="3"/>
-    </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH104" s="3"/>
+      <c r="AI104" s="3"/>
+    </row>
+    <row r="105" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>267</v>
       </c>
@@ -7906,9 +8561,13 @@
         <v>2</v>
       </c>
       <c r="P105" s="3"/>
-      <c r="Q105" s="3"/>
+      <c r="Q105" t="s">
+        <v>608</v>
+      </c>
+      <c r="R105" t="s">
+        <v>609</v>
+      </c>
       <c r="S105" s="3"/>
-      <c r="T105" s="3"/>
       <c r="U105" s="3"/>
       <c r="V105" s="3"/>
       <c r="W105" s="3"/>
@@ -7922,8 +8581,10 @@
       <c r="AE105" s="3"/>
       <c r="AF105" s="3"/>
       <c r="AG105" s="3"/>
-    </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH105" s="3"/>
+      <c r="AI105" s="3"/>
+    </row>
+    <row r="106" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>270</v>
       </c>
@@ -7953,9 +8614,13 @@
         <v>2</v>
       </c>
       <c r="P106" s="3"/>
-      <c r="Q106" s="3"/>
+      <c r="Q106" t="s">
+        <v>608</v>
+      </c>
+      <c r="R106" t="s">
+        <v>612</v>
+      </c>
       <c r="S106" s="3"/>
-      <c r="T106" s="3"/>
       <c r="U106" s="3"/>
       <c r="V106" s="3"/>
       <c r="W106" s="3"/>
@@ -7969,8 +8634,10 @@
       <c r="AE106" s="3"/>
       <c r="AF106" s="3"/>
       <c r="AG106" s="3"/>
-    </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH106" s="3"/>
+      <c r="AI106" s="3"/>
+    </row>
+    <row r="107" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>272</v>
       </c>
@@ -8000,9 +8667,13 @@
         <v>2</v>
       </c>
       <c r="P107" s="3"/>
-      <c r="Q107" s="3"/>
+      <c r="Q107" t="s">
+        <v>608</v>
+      </c>
+      <c r="R107" t="s">
+        <v>612</v>
+      </c>
       <c r="S107" s="3"/>
-      <c r="T107" s="3"/>
       <c r="U107" s="3"/>
       <c r="V107" s="3"/>
       <c r="W107" s="3"/>
@@ -8016,8 +8687,10 @@
       <c r="AE107" s="3"/>
       <c r="AF107" s="3"/>
       <c r="AG107" s="3"/>
-    </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH107" s="3"/>
+      <c r="AI107" s="3"/>
+    </row>
+    <row r="108" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>274</v>
       </c>
@@ -8049,9 +8722,13 @@
         <v>2</v>
       </c>
       <c r="P108" s="3"/>
-      <c r="Q108" s="3"/>
+      <c r="Q108" t="s">
+        <v>608</v>
+      </c>
+      <c r="R108" t="s">
+        <v>612</v>
+      </c>
       <c r="S108" s="3"/>
-      <c r="T108" s="3"/>
       <c r="U108" s="3"/>
       <c r="V108" s="3"/>
       <c r="W108" s="3"/>
@@ -8065,8 +8742,10 @@
       <c r="AE108" s="3"/>
       <c r="AF108" s="3"/>
       <c r="AG108" s="3"/>
-    </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH108" s="3"/>
+      <c r="AI108" s="3"/>
+    </row>
+    <row r="109" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>277</v>
       </c>
@@ -8096,9 +8775,13 @@
         <v>2</v>
       </c>
       <c r="P109" s="3"/>
-      <c r="Q109" s="3"/>
+      <c r="Q109" t="s">
+        <v>608</v>
+      </c>
+      <c r="R109" t="s">
+        <v>612</v>
+      </c>
       <c r="S109" s="3"/>
-      <c r="T109" s="3"/>
       <c r="U109" s="3"/>
       <c r="V109" s="3"/>
       <c r="W109" s="3"/>
@@ -8112,8 +8795,10 @@
       <c r="AE109" s="3"/>
       <c r="AF109" s="3"/>
       <c r="AG109" s="3"/>
-    </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH109" s="3"/>
+      <c r="AI109" s="3"/>
+    </row>
+    <row r="110" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>279</v>
       </c>
@@ -8143,9 +8828,13 @@
         <v>2</v>
       </c>
       <c r="P110" s="3"/>
-      <c r="Q110" s="3"/>
+      <c r="Q110" t="s">
+        <v>608</v>
+      </c>
+      <c r="R110" t="s">
+        <v>609</v>
+      </c>
       <c r="S110" s="3"/>
-      <c r="T110" s="3"/>
       <c r="U110" s="3"/>
       <c r="V110" s="3"/>
       <c r="W110" s="3"/>
@@ -8159,8 +8848,10 @@
       <c r="AE110" s="3"/>
       <c r="AF110" s="3"/>
       <c r="AG110" s="3"/>
-    </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH110" s="3"/>
+      <c r="AI110" s="3"/>
+    </row>
+    <row r="111" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>281</v>
       </c>
@@ -8190,9 +8881,13 @@
         <v>2</v>
       </c>
       <c r="P111" s="3"/>
-      <c r="Q111" s="3"/>
+      <c r="Q111" t="s">
+        <v>613</v>
+      </c>
+      <c r="R111" t="s">
+        <v>609</v>
+      </c>
       <c r="S111" s="3"/>
-      <c r="T111" s="3"/>
       <c r="U111" s="3"/>
       <c r="V111" s="3"/>
       <c r="W111" s="3"/>
@@ -8206,8 +8901,10 @@
       <c r="AE111" s="3"/>
       <c r="AF111" s="3"/>
       <c r="AG111" s="3"/>
-    </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH111" s="3"/>
+      <c r="AI111" s="3"/>
+    </row>
+    <row r="112" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>284</v>
       </c>
@@ -8237,9 +8934,13 @@
         <v>3</v>
       </c>
       <c r="P112" s="3"/>
-      <c r="Q112" s="3"/>
+      <c r="Q112" t="s">
+        <v>613</v>
+      </c>
+      <c r="R112" t="s">
+        <v>609</v>
+      </c>
       <c r="S112" s="3"/>
-      <c r="T112" s="3"/>
       <c r="U112" s="3"/>
       <c r="V112" s="3"/>
       <c r="W112" s="3"/>
@@ -8253,8 +8954,10 @@
       <c r="AE112" s="3"/>
       <c r="AF112" s="3"/>
       <c r="AG112" s="3"/>
-    </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH112" s="3"/>
+      <c r="AI112" s="3"/>
+    </row>
+    <row r="113" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>286</v>
       </c>
@@ -8284,9 +8987,13 @@
         <v>5</v>
       </c>
       <c r="P113" s="3"/>
-      <c r="Q113" s="3"/>
+      <c r="Q113" t="s">
+        <v>613</v>
+      </c>
+      <c r="R113" t="s">
+        <v>610</v>
+      </c>
       <c r="S113" s="3"/>
-      <c r="T113" s="3"/>
       <c r="U113" s="3"/>
       <c r="V113" s="3"/>
       <c r="W113" s="3"/>
@@ -8300,8 +9007,10 @@
       <c r="AE113" s="3"/>
       <c r="AF113" s="3"/>
       <c r="AG113" s="3"/>
-    </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH113" s="3"/>
+      <c r="AI113" s="3"/>
+    </row>
+    <row r="114" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>288</v>
       </c>
@@ -8331,9 +9040,13 @@
         <v>5</v>
       </c>
       <c r="P114" s="3"/>
-      <c r="Q114" s="3"/>
+      <c r="Q114" t="s">
+        <v>613</v>
+      </c>
+      <c r="R114" t="s">
+        <v>610</v>
+      </c>
       <c r="S114" s="3"/>
-      <c r="T114" s="3"/>
       <c r="U114" s="3"/>
       <c r="V114" s="3"/>
       <c r="W114" s="3"/>
@@ -8347,8 +9060,10 @@
       <c r="AE114" s="3"/>
       <c r="AF114" s="3"/>
       <c r="AG114" s="3"/>
-    </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH114" s="3"/>
+      <c r="AI114" s="3"/>
+    </row>
+    <row r="115" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>290</v>
       </c>
@@ -8378,9 +9093,13 @@
         <v>5</v>
       </c>
       <c r="P115" s="3"/>
-      <c r="Q115" s="3"/>
+      <c r="Q115" t="s">
+        <v>613</v>
+      </c>
+      <c r="R115" t="s">
+        <v>612</v>
+      </c>
       <c r="S115" s="3"/>
-      <c r="T115" s="3"/>
       <c r="U115" s="3"/>
       <c r="V115" s="3"/>
       <c r="W115" s="3"/>
@@ -8394,8 +9113,10 @@
       <c r="AE115" s="3"/>
       <c r="AF115" s="3"/>
       <c r="AG115" s="3"/>
-    </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH115" s="3"/>
+      <c r="AI115" s="3"/>
+    </row>
+    <row r="116" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>292</v>
       </c>
@@ -8425,9 +9146,13 @@
         <v>4</v>
       </c>
       <c r="P116" s="3"/>
-      <c r="Q116" s="3"/>
+      <c r="Q116" t="s">
+        <v>608</v>
+      </c>
+      <c r="R116" t="s">
+        <v>610</v>
+      </c>
       <c r="S116" s="3"/>
-      <c r="T116" s="3"/>
       <c r="U116" s="3"/>
       <c r="V116" s="3"/>
       <c r="W116" s="3"/>
@@ -8441,8 +9166,10 @@
       <c r="AE116" s="3"/>
       <c r="AF116" s="3"/>
       <c r="AG116" s="3"/>
-    </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH116" s="3"/>
+      <c r="AI116" s="3"/>
+    </row>
+    <row r="117" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>294</v>
       </c>
@@ -8472,9 +9199,13 @@
         <v>1</v>
       </c>
       <c r="P117" s="3"/>
-      <c r="Q117" s="3"/>
+      <c r="Q117" t="s">
+        <v>608</v>
+      </c>
+      <c r="R117" t="s">
+        <v>610</v>
+      </c>
       <c r="S117" s="3"/>
-      <c r="T117" s="3"/>
       <c r="U117" s="3"/>
       <c r="V117" s="3"/>
       <c r="W117" s="3"/>
@@ -8488,8 +9219,10 @@
       <c r="AE117" s="3"/>
       <c r="AF117" s="3"/>
       <c r="AG117" s="3"/>
-    </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH117" s="3"/>
+      <c r="AI117" s="3"/>
+    </row>
+    <row r="118" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>296</v>
       </c>
@@ -8519,9 +9252,13 @@
         <v>2</v>
       </c>
       <c r="P118" s="3"/>
-      <c r="Q118" s="3"/>
+      <c r="Q118" t="s">
+        <v>608</v>
+      </c>
+      <c r="R118" t="s">
+        <v>610</v>
+      </c>
       <c r="S118" s="3"/>
-      <c r="T118" s="3"/>
       <c r="U118" s="3"/>
       <c r="V118" s="3"/>
       <c r="W118" s="3"/>
@@ -8535,8 +9272,10 @@
       <c r="AE118" s="3"/>
       <c r="AF118" s="3"/>
       <c r="AG118" s="3"/>
-    </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH118" s="3"/>
+      <c r="AI118" s="3"/>
+    </row>
+    <row r="119" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>298</v>
       </c>
@@ -8566,9 +9305,13 @@
         <v>2</v>
       </c>
       <c r="P119" s="3"/>
-      <c r="Q119" s="3"/>
+      <c r="Q119" t="s">
+        <v>608</v>
+      </c>
+      <c r="R119" t="s">
+        <v>610</v>
+      </c>
       <c r="S119" s="3"/>
-      <c r="T119" s="3"/>
       <c r="U119" s="3"/>
       <c r="V119" s="3"/>
       <c r="W119" s="3"/>
@@ -8582,8 +9325,10 @@
       <c r="AE119" s="3"/>
       <c r="AF119" s="3"/>
       <c r="AG119" s="3"/>
-    </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH119" s="3"/>
+      <c r="AI119" s="3"/>
+    </row>
+    <row r="120" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>300</v>
       </c>
@@ -8613,9 +9358,13 @@
         <v>7</v>
       </c>
       <c r="P120" s="3"/>
-      <c r="Q120" s="3"/>
+      <c r="Q120" t="s">
+        <v>608</v>
+      </c>
+      <c r="R120" t="s">
+        <v>610</v>
+      </c>
       <c r="S120" s="3"/>
-      <c r="T120" s="3"/>
       <c r="U120" s="3"/>
       <c r="V120" s="3"/>
       <c r="W120" s="3"/>
@@ -8629,8 +9378,10 @@
       <c r="AE120" s="3"/>
       <c r="AF120" s="3"/>
       <c r="AG120" s="3"/>
-    </row>
-    <row r="121" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH120" s="3"/>
+      <c r="AI120" s="3"/>
+    </row>
+    <row r="121" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>302</v>
       </c>
@@ -8660,9 +9411,13 @@
         <v>7</v>
       </c>
       <c r="P121" s="3"/>
-      <c r="Q121" s="3"/>
+      <c r="Q121" t="s">
+        <v>608</v>
+      </c>
+      <c r="R121" t="s">
+        <v>610</v>
+      </c>
       <c r="S121" s="3"/>
-      <c r="T121" s="3"/>
       <c r="U121" s="3"/>
       <c r="V121" s="3"/>
       <c r="W121" s="3"/>
@@ -8676,8 +9431,10 @@
       <c r="AE121" s="3"/>
       <c r="AF121" s="3"/>
       <c r="AG121" s="3"/>
-    </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH121" s="3"/>
+      <c r="AI121" s="3"/>
+    </row>
+    <row r="122" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>304</v>
       </c>
@@ -8707,9 +9464,13 @@
         <v>7</v>
       </c>
       <c r="P122" s="3"/>
-      <c r="Q122" s="3"/>
+      <c r="Q122" t="s">
+        <v>608</v>
+      </c>
+      <c r="R122" t="s">
+        <v>610</v>
+      </c>
       <c r="S122" s="3"/>
-      <c r="T122" s="3"/>
       <c r="U122" s="3"/>
       <c r="V122" s="3"/>
       <c r="W122" s="3"/>
@@ -8723,8 +9484,10 @@
       <c r="AE122" s="3"/>
       <c r="AF122" s="3"/>
       <c r="AG122" s="3"/>
-    </row>
-    <row r="123" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH122" s="3"/>
+      <c r="AI122" s="3"/>
+    </row>
+    <row r="123" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>306</v>
       </c>
@@ -8754,9 +9517,13 @@
         <v>5</v>
       </c>
       <c r="P123" s="3"/>
-      <c r="Q123" s="3"/>
+      <c r="Q123" t="s">
+        <v>613</v>
+      </c>
+      <c r="R123" t="s">
+        <v>612</v>
+      </c>
       <c r="S123" s="3"/>
-      <c r="T123" s="3"/>
       <c r="U123" s="3"/>
       <c r="V123" s="3"/>
       <c r="W123" s="3"/>
@@ -8770,8 +9537,10 @@
       <c r="AE123" s="3"/>
       <c r="AF123" s="3"/>
       <c r="AG123" s="3"/>
-    </row>
-    <row r="124" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH123" s="3"/>
+      <c r="AI123" s="3"/>
+    </row>
+    <row r="124" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>308</v>
       </c>
@@ -8801,9 +9570,13 @@
         <v>5</v>
       </c>
       <c r="P124" s="3"/>
-      <c r="Q124" s="3"/>
+      <c r="Q124" t="s">
+        <v>613</v>
+      </c>
+      <c r="R124" t="s">
+        <v>612</v>
+      </c>
       <c r="S124" s="3"/>
-      <c r="T124" s="3"/>
       <c r="U124" s="3"/>
       <c r="V124" s="3"/>
       <c r="W124" s="3"/>
@@ -8817,8 +9590,10 @@
       <c r="AE124" s="3"/>
       <c r="AF124" s="3"/>
       <c r="AG124" s="3"/>
-    </row>
-    <row r="125" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH124" s="3"/>
+      <c r="AI124" s="3"/>
+    </row>
+    <row r="125" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>310</v>
       </c>
@@ -8850,9 +9625,13 @@
         <v>5</v>
       </c>
       <c r="P125" s="3"/>
-      <c r="Q125" s="3"/>
+      <c r="Q125" t="s">
+        <v>613</v>
+      </c>
+      <c r="R125" t="s">
+        <v>609</v>
+      </c>
       <c r="S125" s="3"/>
-      <c r="T125" s="3"/>
       <c r="U125" s="3"/>
       <c r="V125" s="3"/>
       <c r="W125" s="3"/>
@@ -8866,8 +9645,10 @@
       <c r="AE125" s="3"/>
       <c r="AF125" s="3"/>
       <c r="AG125" s="3"/>
-    </row>
-    <row r="126" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH125" s="3"/>
+      <c r="AI125" s="3"/>
+    </row>
+    <row r="126" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>313</v>
       </c>
@@ -8897,9 +9678,13 @@
         <v>1</v>
       </c>
       <c r="P126" s="3"/>
-      <c r="Q126" s="3"/>
+      <c r="Q126" t="s">
+        <v>608</v>
+      </c>
+      <c r="R126" t="s">
+        <v>609</v>
+      </c>
       <c r="S126" s="3"/>
-      <c r="T126" s="3"/>
       <c r="U126" s="3"/>
       <c r="V126" s="3"/>
       <c r="W126" s="3"/>
@@ -8913,8 +9698,10 @@
       <c r="AE126" s="3"/>
       <c r="AF126" s="3"/>
       <c r="AG126" s="3"/>
-    </row>
-    <row r="127" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH126" s="3"/>
+      <c r="AI126" s="3"/>
+    </row>
+    <row r="127" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>315</v>
       </c>
@@ -8944,9 +9731,13 @@
         <v>1</v>
       </c>
       <c r="P127" s="3"/>
-      <c r="Q127" s="3"/>
+      <c r="Q127" t="s">
+        <v>613</v>
+      </c>
+      <c r="R127" t="s">
+        <v>612</v>
+      </c>
       <c r="S127" s="3"/>
-      <c r="T127" s="3"/>
       <c r="U127" s="3"/>
       <c r="V127" s="3"/>
       <c r="W127" s="3"/>
@@ -8960,8 +9751,10 @@
       <c r="AE127" s="3"/>
       <c r="AF127" s="3"/>
       <c r="AG127" s="3"/>
-    </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH127" s="3"/>
+      <c r="AI127" s="3"/>
+    </row>
+    <row r="128" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>317</v>
       </c>
@@ -8991,9 +9784,13 @@
         <v>2</v>
       </c>
       <c r="P128" s="3"/>
-      <c r="Q128" s="3"/>
+      <c r="Q128" t="s">
+        <v>608</v>
+      </c>
+      <c r="R128" t="s">
+        <v>609</v>
+      </c>
       <c r="S128" s="3"/>
-      <c r="T128" s="3"/>
       <c r="U128" s="3"/>
       <c r="V128" s="3"/>
       <c r="W128" s="3"/>
@@ -9007,8 +9804,10 @@
       <c r="AE128" s="3"/>
       <c r="AF128" s="3"/>
       <c r="AG128" s="3"/>
-    </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH128" s="3"/>
+      <c r="AI128" s="3"/>
+    </row>
+    <row r="129" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>319</v>
       </c>
@@ -9038,9 +9837,13 @@
         <v>2</v>
       </c>
       <c r="P129" s="3"/>
-      <c r="Q129" s="3"/>
+      <c r="Q129" t="s">
+        <v>608</v>
+      </c>
+      <c r="R129" t="s">
+        <v>609</v>
+      </c>
       <c r="S129" s="3"/>
-      <c r="T129" s="3"/>
       <c r="U129" s="3"/>
       <c r="V129" s="3"/>
       <c r="W129" s="3"/>
@@ -9054,8 +9857,10 @@
       <c r="AE129" s="3"/>
       <c r="AF129" s="3"/>
       <c r="AG129" s="3"/>
-    </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH129" s="3"/>
+      <c r="AI129" s="3"/>
+    </row>
+    <row r="130" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>321</v>
       </c>
@@ -9085,9 +9890,13 @@
         <v>2</v>
       </c>
       <c r="P130" s="3"/>
-      <c r="Q130" s="3"/>
+      <c r="Q130" t="s">
+        <v>608</v>
+      </c>
+      <c r="R130" t="s">
+        <v>612</v>
+      </c>
       <c r="S130" s="3"/>
-      <c r="T130" s="3"/>
       <c r="U130" s="3"/>
       <c r="V130" s="3"/>
       <c r="W130" s="3"/>
@@ -9101,8 +9910,10 @@
       <c r="AE130" s="3"/>
       <c r="AF130" s="3"/>
       <c r="AG130" s="3"/>
-    </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH130" s="3"/>
+      <c r="AI130" s="3"/>
+    </row>
+    <row r="131" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>323</v>
       </c>
@@ -9132,9 +9943,13 @@
         <v>2</v>
       </c>
       <c r="P131" s="3"/>
-      <c r="Q131" s="3"/>
+      <c r="Q131" t="s">
+        <v>608</v>
+      </c>
+      <c r="R131" t="s">
+        <v>609</v>
+      </c>
       <c r="S131" s="3"/>
-      <c r="T131" s="3"/>
       <c r="U131" s="3"/>
       <c r="V131" s="3"/>
       <c r="W131" s="3"/>
@@ -9148,8 +9963,10 @@
       <c r="AE131" s="3"/>
       <c r="AF131" s="3"/>
       <c r="AG131" s="3"/>
-    </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH131" s="3"/>
+      <c r="AI131" s="3"/>
+    </row>
+    <row r="132" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>325</v>
       </c>
@@ -9183,9 +10000,13 @@
         <v>2</v>
       </c>
       <c r="P132" s="3"/>
-      <c r="Q132" s="3"/>
+      <c r="Q132" t="s">
+        <v>608</v>
+      </c>
+      <c r="R132" t="s">
+        <v>612</v>
+      </c>
       <c r="S132" s="3"/>
-      <c r="T132" s="3"/>
       <c r="U132" s="3"/>
       <c r="V132" s="3"/>
       <c r="W132" s="3"/>
@@ -9199,8 +10020,10 @@
       <c r="AE132" s="3"/>
       <c r="AF132" s="3"/>
       <c r="AG132" s="3"/>
-    </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH132" s="3"/>
+      <c r="AI132" s="3"/>
+    </row>
+    <row r="133" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>331</v>
       </c>
@@ -9234,9 +10057,13 @@
         <v>2</v>
       </c>
       <c r="P133" s="3"/>
-      <c r="Q133" s="3"/>
+      <c r="Q133" t="s">
+        <v>608</v>
+      </c>
+      <c r="R133" t="s">
+        <v>612</v>
+      </c>
       <c r="S133" s="3"/>
-      <c r="T133" s="3"/>
       <c r="U133" s="3"/>
       <c r="V133" s="3"/>
       <c r="W133" s="3"/>
@@ -9250,8 +10077,10 @@
       <c r="AE133" s="3"/>
       <c r="AF133" s="3"/>
       <c r="AG133" s="3"/>
-    </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH133" s="3"/>
+      <c r="AI133" s="3"/>
+    </row>
+    <row r="134" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>337</v>
       </c>
@@ -9281,9 +10110,13 @@
         <v>2</v>
       </c>
       <c r="P134" s="3"/>
-      <c r="Q134" s="3"/>
+      <c r="Q134" t="s">
+        <v>608</v>
+      </c>
+      <c r="R134" t="s">
+        <v>610</v>
+      </c>
       <c r="S134" s="3"/>
-      <c r="T134" s="3"/>
       <c r="U134" s="3"/>
       <c r="V134" s="3"/>
       <c r="W134" s="3"/>
@@ -9297,8 +10130,10 @@
       <c r="AE134" s="3"/>
       <c r="AF134" s="3"/>
       <c r="AG134" s="3"/>
-    </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH134" s="3"/>
+      <c r="AI134" s="3"/>
+    </row>
+    <row r="135" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>339</v>
       </c>
@@ -9328,9 +10163,13 @@
         <v>2</v>
       </c>
       <c r="P135" s="3"/>
-      <c r="Q135" s="3"/>
+      <c r="Q135" t="s">
+        <v>608</v>
+      </c>
+      <c r="R135" t="s">
+        <v>612</v>
+      </c>
       <c r="S135" s="3"/>
-      <c r="T135" s="3"/>
       <c r="U135" s="3"/>
       <c r="V135" s="3"/>
       <c r="W135" s="3"/>
@@ -9344,8 +10183,10 @@
       <c r="AE135" s="3"/>
       <c r="AF135" s="3"/>
       <c r="AG135" s="3"/>
-    </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH135" s="3"/>
+      <c r="AI135" s="3"/>
+    </row>
+    <row r="136" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>341</v>
       </c>
@@ -9375,9 +10216,13 @@
         <v>2</v>
       </c>
       <c r="P136" s="3"/>
-      <c r="Q136" s="3"/>
+      <c r="Q136" t="s">
+        <v>608</v>
+      </c>
+      <c r="R136" t="s">
+        <v>609</v>
+      </c>
       <c r="S136" s="3"/>
-      <c r="T136" s="3"/>
       <c r="U136" s="3"/>
       <c r="V136" s="3"/>
       <c r="W136" s="3"/>
@@ -9391,8 +10236,10 @@
       <c r="AE136" s="3"/>
       <c r="AF136" s="3"/>
       <c r="AG136" s="3"/>
-    </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH136" s="3"/>
+      <c r="AI136" s="3"/>
+    </row>
+    <row r="137" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>343</v>
       </c>
@@ -9422,9 +10269,13 @@
         <v>2</v>
       </c>
       <c r="P137" s="3"/>
-      <c r="Q137" s="3"/>
+      <c r="Q137" t="s">
+        <v>608</v>
+      </c>
+      <c r="R137" t="s">
+        <v>609</v>
+      </c>
       <c r="S137" s="3"/>
-      <c r="T137" s="3"/>
       <c r="U137" s="3"/>
       <c r="V137" s="3"/>
       <c r="W137" s="3"/>
@@ -9438,8 +10289,10 @@
       <c r="AE137" s="3"/>
       <c r="AF137" s="3"/>
       <c r="AG137" s="3"/>
-    </row>
-    <row r="138" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH137" s="3"/>
+      <c r="AI137" s="3"/>
+    </row>
+    <row r="138" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>345</v>
       </c>
@@ -9469,9 +10322,13 @@
         <v>2</v>
       </c>
       <c r="P138" s="3"/>
-      <c r="Q138" s="3"/>
+      <c r="Q138" t="s">
+        <v>608</v>
+      </c>
+      <c r="R138" t="s">
+        <v>610</v>
+      </c>
       <c r="S138" s="3"/>
-      <c r="T138" s="3"/>
       <c r="U138" s="3"/>
       <c r="V138" s="3"/>
       <c r="W138" s="3"/>
@@ -9485,8 +10342,10 @@
       <c r="AE138" s="3"/>
       <c r="AF138" s="3"/>
       <c r="AG138" s="3"/>
-    </row>
-    <row r="139" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH138" s="3"/>
+      <c r="AI138" s="3"/>
+    </row>
+    <row r="139" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>347</v>
       </c>
@@ -9516,9 +10375,13 @@
         <v>2</v>
       </c>
       <c r="P139" s="3"/>
-      <c r="Q139" s="3"/>
+      <c r="Q139" t="s">
+        <v>608</v>
+      </c>
+      <c r="R139" t="s">
+        <v>610</v>
+      </c>
       <c r="S139" s="3"/>
-      <c r="T139" s="3"/>
       <c r="U139" s="3"/>
       <c r="V139" s="3"/>
       <c r="W139" s="3"/>
@@ -9532,8 +10395,10 @@
       <c r="AE139" s="3"/>
       <c r="AF139" s="3"/>
       <c r="AG139" s="3"/>
-    </row>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH139" s="3"/>
+      <c r="AI139" s="3"/>
+    </row>
+    <row r="140" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>349</v>
       </c>
@@ -9563,9 +10428,13 @@
         <v>1</v>
       </c>
       <c r="P140" s="3"/>
-      <c r="Q140" s="3"/>
+      <c r="Q140" t="s">
+        <v>608</v>
+      </c>
+      <c r="R140" t="s">
+        <v>609</v>
+      </c>
       <c r="S140" s="3"/>
-      <c r="T140" s="3"/>
       <c r="U140" s="3"/>
       <c r="V140" s="3"/>
       <c r="W140" s="3"/>
@@ -9579,8 +10448,10 @@
       <c r="AE140" s="3"/>
       <c r="AF140" s="3"/>
       <c r="AG140" s="3"/>
-    </row>
-    <row r="141" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH140" s="3"/>
+      <c r="AI140" s="3"/>
+    </row>
+    <row r="141" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>351</v>
       </c>
@@ -9610,9 +10481,13 @@
         <v>0</v>
       </c>
       <c r="P141" s="3"/>
-      <c r="Q141" s="3"/>
+      <c r="Q141" t="s">
+        <v>608</v>
+      </c>
+      <c r="R141" t="s">
+        <v>609</v>
+      </c>
       <c r="S141" s="3"/>
-      <c r="T141" s="3"/>
       <c r="U141" s="3"/>
       <c r="V141" s="3"/>
       <c r="W141" s="3"/>
@@ -9626,8 +10501,10 @@
       <c r="AE141" s="3"/>
       <c r="AF141" s="3"/>
       <c r="AG141" s="3"/>
-    </row>
-    <row r="142" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH141" s="3"/>
+      <c r="AI141" s="3"/>
+    </row>
+    <row r="142" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>353</v>
       </c>
@@ -9657,9 +10534,13 @@
         <v>5</v>
       </c>
       <c r="P142" s="3"/>
-      <c r="Q142" s="3"/>
+      <c r="Q142" t="s">
+        <v>613</v>
+      </c>
+      <c r="R142" t="s">
+        <v>609</v>
+      </c>
       <c r="S142" s="3"/>
-      <c r="T142" s="3"/>
       <c r="U142" s="3"/>
       <c r="V142" s="3"/>
       <c r="W142" s="3"/>
@@ -9673,8 +10554,10 @@
       <c r="AE142" s="3"/>
       <c r="AF142" s="3"/>
       <c r="AG142" s="3"/>
-    </row>
-    <row r="143" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH142" s="3"/>
+      <c r="AI142" s="3"/>
+    </row>
+    <row r="143" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>355</v>
       </c>
@@ -9704,9 +10587,13 @@
         <v>5</v>
       </c>
       <c r="P143" s="3"/>
-      <c r="Q143" s="3"/>
+      <c r="Q143" t="s">
+        <v>613</v>
+      </c>
+      <c r="R143" t="s">
+        <v>609</v>
+      </c>
       <c r="S143" s="3"/>
-      <c r="T143" s="3"/>
       <c r="U143" s="3"/>
       <c r="V143" s="3"/>
       <c r="W143" s="3"/>
@@ -9720,8 +10607,10 @@
       <c r="AE143" s="3"/>
       <c r="AF143" s="3"/>
       <c r="AG143" s="3"/>
-    </row>
-    <row r="144" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH143" s="3"/>
+      <c r="AI143" s="3"/>
+    </row>
+    <row r="144" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>357</v>
       </c>
@@ -9751,9 +10640,13 @@
         <v>3</v>
       </c>
       <c r="P144" s="3"/>
-      <c r="Q144" s="3"/>
+      <c r="Q144" t="s">
+        <v>608</v>
+      </c>
+      <c r="R144" t="s">
+        <v>610</v>
+      </c>
       <c r="S144" s="3"/>
-      <c r="T144" s="3"/>
       <c r="U144" s="3"/>
       <c r="V144" s="3"/>
       <c r="W144" s="3"/>
@@ -9767,8 +10660,10 @@
       <c r="AE144" s="3"/>
       <c r="AF144" s="3"/>
       <c r="AG144" s="3"/>
-    </row>
-    <row r="145" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH144" s="3"/>
+      <c r="AI144" s="3"/>
+    </row>
+    <row r="145" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>359</v>
       </c>
@@ -9798,9 +10693,13 @@
         <v>3</v>
       </c>
       <c r="P145" s="3"/>
-      <c r="Q145" s="3"/>
+      <c r="Q145" t="s">
+        <v>608</v>
+      </c>
+      <c r="R145" t="s">
+        <v>610</v>
+      </c>
       <c r="S145" s="3"/>
-      <c r="T145" s="3"/>
       <c r="U145" s="3"/>
       <c r="V145" s="3"/>
       <c r="W145" s="3"/>
@@ -9814,8 +10713,10 @@
       <c r="AE145" s="3"/>
       <c r="AF145" s="3"/>
       <c r="AG145" s="3"/>
-    </row>
-    <row r="146" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH145" s="3"/>
+      <c r="AI145" s="3"/>
+    </row>
+    <row r="146" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>361</v>
       </c>
@@ -9847,9 +10748,13 @@
         <v>2</v>
       </c>
       <c r="P146" s="3"/>
-      <c r="Q146" s="3"/>
+      <c r="Q146" t="s">
+        <v>608</v>
+      </c>
+      <c r="R146" t="s">
+        <v>609</v>
+      </c>
       <c r="S146" s="3"/>
-      <c r="T146" s="3"/>
       <c r="U146" s="3"/>
       <c r="V146" s="3"/>
       <c r="W146" s="3"/>
@@ -9863,8 +10768,10 @@
       <c r="AE146" s="3"/>
       <c r="AF146" s="3"/>
       <c r="AG146" s="3"/>
-    </row>
-    <row r="147" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH146" s="3"/>
+      <c r="AI146" s="3"/>
+    </row>
+    <row r="147" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>364</v>
       </c>
@@ -9894,9 +10801,13 @@
         <v>5</v>
       </c>
       <c r="P147" s="3"/>
-      <c r="Q147" s="3"/>
+      <c r="Q147" t="s">
+        <v>613</v>
+      </c>
+      <c r="R147" t="s">
+        <v>610</v>
+      </c>
       <c r="S147" s="3"/>
-      <c r="T147" s="3"/>
       <c r="U147" s="3"/>
       <c r="V147" s="3"/>
       <c r="W147" s="3"/>
@@ -9910,8 +10821,10 @@
       <c r="AE147" s="3"/>
       <c r="AF147" s="3"/>
       <c r="AG147" s="3"/>
-    </row>
-    <row r="148" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH147" s="3"/>
+      <c r="AI147" s="3"/>
+    </row>
+    <row r="148" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>366</v>
       </c>
@@ -9941,9 +10854,13 @@
         <v>5</v>
       </c>
       <c r="P148" s="3"/>
-      <c r="Q148" s="3"/>
+      <c r="Q148" t="s">
+        <v>613</v>
+      </c>
+      <c r="R148" t="s">
+        <v>610</v>
+      </c>
       <c r="S148" s="3"/>
-      <c r="T148" s="3"/>
       <c r="U148" s="3"/>
       <c r="V148" s="3"/>
       <c r="W148" s="3"/>
@@ -9957,8 +10874,10 @@
       <c r="AE148" s="3"/>
       <c r="AF148" s="3"/>
       <c r="AG148" s="3"/>
-    </row>
-    <row r="149" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH148" s="3"/>
+      <c r="AI148" s="3"/>
+    </row>
+    <row r="149" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>368</v>
       </c>
@@ -9988,9 +10907,13 @@
         <v>5</v>
       </c>
       <c r="P149" s="3"/>
-      <c r="Q149" s="3"/>
+      <c r="Q149" t="s">
+        <v>613</v>
+      </c>
+      <c r="R149" t="s">
+        <v>610</v>
+      </c>
       <c r="S149" s="3"/>
-      <c r="T149" s="3"/>
       <c r="U149" s="3"/>
       <c r="V149" s="3"/>
       <c r="W149" s="3"/>
@@ -10004,8 +10927,10 @@
       <c r="AE149" s="3"/>
       <c r="AF149" s="3"/>
       <c r="AG149" s="3"/>
-    </row>
-    <row r="150" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH149" s="3"/>
+      <c r="AI149" s="3"/>
+    </row>
+    <row r="150" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>370</v>
       </c>
@@ -10035,9 +10960,13 @@
         <v>5</v>
       </c>
       <c r="P150" s="3"/>
-      <c r="Q150" s="3"/>
+      <c r="Q150" t="s">
+        <v>613</v>
+      </c>
+      <c r="R150" t="s">
+        <v>610</v>
+      </c>
       <c r="S150" s="3"/>
-      <c r="T150" s="3"/>
       <c r="U150" s="3"/>
       <c r="V150" s="3"/>
       <c r="W150" s="3"/>
@@ -10051,8 +10980,10 @@
       <c r="AE150" s="3"/>
       <c r="AF150" s="3"/>
       <c r="AG150" s="3"/>
-    </row>
-    <row r="151" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH150" s="3"/>
+      <c r="AI150" s="3"/>
+    </row>
+    <row r="151" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>372</v>
       </c>
@@ -10082,9 +11013,13 @@
         <v>1</v>
       </c>
       <c r="P151" s="3"/>
-      <c r="Q151" s="3"/>
+      <c r="Q151" t="s">
+        <v>608</v>
+      </c>
+      <c r="R151" t="s">
+        <v>609</v>
+      </c>
       <c r="S151" s="3"/>
-      <c r="T151" s="3"/>
       <c r="U151" s="3"/>
       <c r="V151" s="3"/>
       <c r="W151" s="3"/>
@@ -10098,8 +11033,10 @@
       <c r="AE151" s="3"/>
       <c r="AF151" s="3"/>
       <c r="AG151" s="3"/>
-    </row>
-    <row r="152" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH151" s="3"/>
+      <c r="AI151" s="3"/>
+    </row>
+    <row r="152" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>374</v>
       </c>
@@ -10129,9 +11066,13 @@
         <v>1</v>
       </c>
       <c r="P152" s="3"/>
-      <c r="Q152" s="3"/>
+      <c r="Q152" t="s">
+        <v>608</v>
+      </c>
+      <c r="R152" t="s">
+        <v>609</v>
+      </c>
       <c r="S152" s="3"/>
-      <c r="T152" s="3"/>
       <c r="U152" s="3"/>
       <c r="V152" s="3"/>
       <c r="W152" s="3"/>
@@ -10145,8 +11086,10 @@
       <c r="AE152" s="3"/>
       <c r="AF152" s="3"/>
       <c r="AG152" s="3"/>
-    </row>
-    <row r="153" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH152" s="3"/>
+      <c r="AI152" s="3"/>
+    </row>
+    <row r="153" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>376</v>
       </c>
@@ -10176,9 +11119,13 @@
         <v>2</v>
       </c>
       <c r="P153" s="3"/>
-      <c r="Q153" s="3"/>
+      <c r="Q153" t="s">
+        <v>608</v>
+      </c>
+      <c r="R153" t="s">
+        <v>610</v>
+      </c>
       <c r="S153" s="3"/>
-      <c r="T153" s="3"/>
       <c r="U153" s="3"/>
       <c r="V153" s="3"/>
       <c r="W153" s="3"/>
@@ -10192,8 +11139,10 @@
       <c r="AE153" s="3"/>
       <c r="AF153" s="3"/>
       <c r="AG153" s="3"/>
-    </row>
-    <row r="154" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH153" s="3"/>
+      <c r="AI153" s="3"/>
+    </row>
+    <row r="154" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>378</v>
       </c>
@@ -10223,9 +11172,13 @@
         <v>1</v>
       </c>
       <c r="P154" s="3"/>
-      <c r="Q154" s="3"/>
+      <c r="Q154" t="s">
+        <v>608</v>
+      </c>
+      <c r="R154" t="s">
+        <v>612</v>
+      </c>
       <c r="S154" s="3"/>
-      <c r="T154" s="3"/>
       <c r="U154" s="3"/>
       <c r="V154" s="3"/>
       <c r="W154" s="3"/>
@@ -10239,8 +11192,10 @@
       <c r="AE154" s="3"/>
       <c r="AF154" s="3"/>
       <c r="AG154" s="3"/>
-    </row>
-    <row r="155" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH154" s="3"/>
+      <c r="AI154" s="3"/>
+    </row>
+    <row r="155" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>380</v>
       </c>
@@ -10270,9 +11225,13 @@
         <v>1</v>
       </c>
       <c r="P155" s="3"/>
-      <c r="Q155" s="3"/>
+      <c r="Q155" t="s">
+        <v>608</v>
+      </c>
+      <c r="R155" t="s">
+        <v>609</v>
+      </c>
       <c r="S155" s="3"/>
-      <c r="T155" s="3"/>
       <c r="U155" s="3"/>
       <c r="V155" s="3"/>
       <c r="W155" s="3"/>
@@ -10286,8 +11245,10 @@
       <c r="AE155" s="3"/>
       <c r="AF155" s="3"/>
       <c r="AG155" s="3"/>
-    </row>
-    <row r="156" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH155" s="3"/>
+      <c r="AI155" s="3"/>
+    </row>
+    <row r="156" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>382</v>
       </c>
@@ -10317,9 +11278,13 @@
         <v>2</v>
       </c>
       <c r="P156" s="3"/>
-      <c r="Q156" s="3"/>
+      <c r="Q156" t="s">
+        <v>608</v>
+      </c>
+      <c r="R156" t="s">
+        <v>612</v>
+      </c>
       <c r="S156" s="3"/>
-      <c r="T156" s="3"/>
       <c r="U156" s="3"/>
       <c r="V156" s="3"/>
       <c r="W156" s="3"/>
@@ -10333,8 +11298,10 @@
       <c r="AE156" s="3"/>
       <c r="AF156" s="3"/>
       <c r="AG156" s="3"/>
-    </row>
-    <row r="157" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH156" s="3"/>
+      <c r="AI156" s="3"/>
+    </row>
+    <row r="157" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>384</v>
       </c>
@@ -10364,9 +11331,13 @@
         <v>2</v>
       </c>
       <c r="P157" s="3"/>
-      <c r="Q157" s="3"/>
+      <c r="Q157" t="s">
+        <v>608</v>
+      </c>
+      <c r="R157" t="s">
+        <v>612</v>
+      </c>
       <c r="S157" s="3"/>
-      <c r="T157" s="3"/>
       <c r="U157" s="3"/>
       <c r="V157" s="3"/>
       <c r="W157" s="3"/>
@@ -10380,8 +11351,10 @@
       <c r="AE157" s="3"/>
       <c r="AF157" s="3"/>
       <c r="AG157" s="3"/>
-    </row>
-    <row r="158" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH157" s="3"/>
+      <c r="AI157" s="3"/>
+    </row>
+    <row r="158" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>386</v>
       </c>
@@ -10411,9 +11384,13 @@
         <v>2</v>
       </c>
       <c r="P158" s="3"/>
-      <c r="Q158" s="3"/>
+      <c r="Q158" t="s">
+        <v>608</v>
+      </c>
+      <c r="R158" t="s">
+        <v>609</v>
+      </c>
       <c r="S158" s="3"/>
-      <c r="T158" s="3"/>
       <c r="U158" s="3"/>
       <c r="V158" s="3"/>
       <c r="W158" s="3"/>
@@ -10427,8 +11404,10 @@
       <c r="AE158" s="3"/>
       <c r="AF158" s="3"/>
       <c r="AG158" s="3"/>
-    </row>
-    <row r="159" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH158" s="3"/>
+      <c r="AI158" s="3"/>
+    </row>
+    <row r="159" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>388</v>
       </c>
@@ -10458,9 +11437,13 @@
         <v>2</v>
       </c>
       <c r="P159" s="3"/>
-      <c r="Q159" s="3"/>
+      <c r="Q159" t="s">
+        <v>608</v>
+      </c>
+      <c r="R159" t="s">
+        <v>609</v>
+      </c>
       <c r="S159" s="3"/>
-      <c r="T159" s="3"/>
       <c r="U159" s="3"/>
       <c r="V159" s="3"/>
       <c r="W159" s="3"/>
@@ -10474,8 +11457,10 @@
       <c r="AE159" s="3"/>
       <c r="AF159" s="3"/>
       <c r="AG159" s="3"/>
-    </row>
-    <row r="160" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH159" s="3"/>
+      <c r="AI159" s="3"/>
+    </row>
+    <row r="160" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>390</v>
       </c>
@@ -10505,9 +11490,13 @@
         <v>1</v>
       </c>
       <c r="P160" s="3"/>
-      <c r="Q160" s="3"/>
+      <c r="Q160" t="s">
+        <v>608</v>
+      </c>
+      <c r="R160" t="s">
+        <v>609</v>
+      </c>
       <c r="S160" s="3"/>
-      <c r="T160" s="3"/>
       <c r="U160" s="3"/>
       <c r="V160" s="3"/>
       <c r="W160" s="3"/>
@@ -10521,8 +11510,10 @@
       <c r="AE160" s="3"/>
       <c r="AF160" s="3"/>
       <c r="AG160" s="3"/>
-    </row>
-    <row r="161" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH160" s="3"/>
+      <c r="AI160" s="3"/>
+    </row>
+    <row r="161" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>392</v>
       </c>
@@ -10546,9 +11537,13 @@
         <v>0</v>
       </c>
       <c r="P161" s="3"/>
-      <c r="Q161" s="3"/>
+      <c r="Q161" t="s">
+        <v>608</v>
+      </c>
+      <c r="R161" t="s">
+        <v>612</v>
+      </c>
       <c r="S161" s="3"/>
-      <c r="T161" s="3"/>
       <c r="U161" s="3"/>
       <c r="V161" s="3"/>
       <c r="W161" s="3"/>
@@ -10562,8 +11557,10 @@
       <c r="AE161" s="3"/>
       <c r="AF161" s="3"/>
       <c r="AG161" s="3"/>
-    </row>
-    <row r="162" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH161" s="3"/>
+      <c r="AI161" s="3"/>
+    </row>
+    <row r="162" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>394</v>
       </c>
@@ -10593,9 +11590,13 @@
         <v>1</v>
       </c>
       <c r="P162" s="3"/>
-      <c r="Q162" s="3"/>
+      <c r="Q162" t="s">
+        <v>608</v>
+      </c>
+      <c r="R162" t="s">
+        <v>610</v>
+      </c>
       <c r="S162" s="3"/>
-      <c r="T162" s="3"/>
       <c r="U162" s="3"/>
       <c r="V162" s="3"/>
       <c r="W162" s="3"/>
@@ -10609,8 +11610,10 @@
       <c r="AE162" s="3"/>
       <c r="AF162" s="3"/>
       <c r="AG162" s="3"/>
-    </row>
-    <row r="163" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH162" s="3"/>
+      <c r="AI162" s="3"/>
+    </row>
+    <row r="163" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>396</v>
       </c>
@@ -10640,9 +11643,13 @@
         <v>1</v>
       </c>
       <c r="P163" s="3"/>
-      <c r="Q163" s="3"/>
+      <c r="Q163" t="s">
+        <v>608</v>
+      </c>
+      <c r="R163" t="s">
+        <v>609</v>
+      </c>
       <c r="S163" s="3"/>
-      <c r="T163" s="3"/>
       <c r="U163" s="3"/>
       <c r="V163" s="3"/>
       <c r="W163" s="3"/>
@@ -10656,8 +11663,10 @@
       <c r="AE163" s="3"/>
       <c r="AF163" s="3"/>
       <c r="AG163" s="3"/>
-    </row>
-    <row r="164" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH163" s="3"/>
+      <c r="AI163" s="3"/>
+    </row>
+    <row r="164" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>398</v>
       </c>
@@ -10687,9 +11696,13 @@
         <v>1</v>
       </c>
       <c r="P164" s="3"/>
-      <c r="Q164" s="3"/>
+      <c r="Q164" t="s">
+        <v>608</v>
+      </c>
+      <c r="R164" t="s">
+        <v>609</v>
+      </c>
       <c r="S164" s="3"/>
-      <c r="T164" s="3"/>
       <c r="U164" s="3"/>
       <c r="V164" s="3"/>
       <c r="W164" s="3"/>
@@ -10703,8 +11716,10 @@
       <c r="AE164" s="3"/>
       <c r="AF164" s="3"/>
       <c r="AG164" s="3"/>
-    </row>
-    <row r="165" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH164" s="3"/>
+      <c r="AI164" s="3"/>
+    </row>
+    <row r="165" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>400</v>
       </c>
@@ -10734,9 +11749,13 @@
         <v>1</v>
       </c>
       <c r="P165" s="3"/>
-      <c r="Q165" s="3"/>
+      <c r="Q165" t="s">
+        <v>608</v>
+      </c>
+      <c r="R165" t="s">
+        <v>610</v>
+      </c>
       <c r="S165" s="3"/>
-      <c r="T165" s="3"/>
       <c r="U165" s="3"/>
       <c r="V165" s="3"/>
       <c r="W165" s="3"/>
@@ -10750,8 +11769,10 @@
       <c r="AE165" s="3"/>
       <c r="AF165" s="3"/>
       <c r="AG165" s="3"/>
-    </row>
-    <row r="166" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH165" s="3"/>
+      <c r="AI165" s="3"/>
+    </row>
+    <row r="166" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>402</v>
       </c>
@@ -10781,9 +11802,13 @@
         <v>1</v>
       </c>
       <c r="P166" s="3"/>
-      <c r="Q166" s="3"/>
+      <c r="Q166" t="s">
+        <v>613</v>
+      </c>
+      <c r="R166" t="s">
+        <v>609</v>
+      </c>
       <c r="S166" s="3"/>
-      <c r="T166" s="3"/>
       <c r="U166" s="3"/>
       <c r="V166" s="3"/>
       <c r="W166" s="3"/>
@@ -10797,8 +11822,10 @@
       <c r="AE166" s="3"/>
       <c r="AF166" s="3"/>
       <c r="AG166" s="3"/>
-    </row>
-    <row r="167" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH166" s="3"/>
+      <c r="AI166" s="3"/>
+    </row>
+    <row r="167" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>404</v>
       </c>
@@ -10828,9 +11855,13 @@
         <v>5</v>
       </c>
       <c r="P167" s="3"/>
-      <c r="Q167" s="3"/>
+      <c r="Q167" t="s">
+        <v>613</v>
+      </c>
+      <c r="R167" t="s">
+        <v>609</v>
+      </c>
       <c r="S167" s="3"/>
-      <c r="T167" s="3"/>
       <c r="U167" s="3"/>
       <c r="V167" s="3"/>
       <c r="W167" s="3"/>
@@ -10844,8 +11875,10 @@
       <c r="AE167" s="3"/>
       <c r="AF167" s="3"/>
       <c r="AG167" s="3"/>
-    </row>
-    <row r="168" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH167" s="3"/>
+      <c r="AI167" s="3"/>
+    </row>
+    <row r="168" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>406</v>
       </c>
@@ -10875,9 +11908,13 @@
         <v>5</v>
       </c>
       <c r="P168" s="3"/>
-      <c r="Q168" s="3"/>
+      <c r="Q168" t="s">
+        <v>613</v>
+      </c>
+      <c r="R168" t="s">
+        <v>609</v>
+      </c>
       <c r="S168" s="3"/>
-      <c r="T168" s="3"/>
       <c r="U168" s="3"/>
       <c r="V168" s="3"/>
       <c r="W168" s="3"/>
@@ -10891,8 +11928,10 @@
       <c r="AE168" s="3"/>
       <c r="AF168" s="3"/>
       <c r="AG168" s="3"/>
-    </row>
-    <row r="169" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH168" s="3"/>
+      <c r="AI168" s="3"/>
+    </row>
+    <row r="169" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>408</v>
       </c>
@@ -10922,9 +11961,13 @@
         <v>1</v>
       </c>
       <c r="P169" s="3"/>
-      <c r="Q169" s="3"/>
+      <c r="Q169" t="s">
+        <v>608</v>
+      </c>
+      <c r="R169" t="s">
+        <v>612</v>
+      </c>
       <c r="S169" s="3"/>
-      <c r="T169" s="3"/>
       <c r="U169" s="3"/>
       <c r="V169" s="3"/>
       <c r="W169" s="3"/>
@@ -10938,8 +11981,10 @@
       <c r="AE169" s="3"/>
       <c r="AF169" s="3"/>
       <c r="AG169" s="3"/>
-    </row>
-    <row r="170" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH169" s="3"/>
+      <c r="AI169" s="3"/>
+    </row>
+    <row r="170" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>410</v>
       </c>
@@ -10969,9 +12014,13 @@
         <v>5</v>
       </c>
       <c r="P170" s="3"/>
-      <c r="Q170" s="3"/>
+      <c r="Q170" t="s">
+        <v>613</v>
+      </c>
+      <c r="R170" t="s">
+        <v>609</v>
+      </c>
       <c r="S170" s="3"/>
-      <c r="T170" s="3"/>
       <c r="U170" s="3"/>
       <c r="V170" s="3"/>
       <c r="W170" s="3"/>
@@ -10985,8 +12034,10 @@
       <c r="AE170" s="3"/>
       <c r="AF170" s="3"/>
       <c r="AG170" s="3"/>
-    </row>
-    <row r="171" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH170" s="3"/>
+      <c r="AI170" s="3"/>
+    </row>
+    <row r="171" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>412</v>
       </c>
@@ -11016,9 +12067,13 @@
         <v>1</v>
       </c>
       <c r="P171" s="3"/>
-      <c r="Q171" s="3"/>
+      <c r="Q171" t="s">
+        <v>608</v>
+      </c>
+      <c r="R171" t="s">
+        <v>609</v>
+      </c>
       <c r="S171" s="3"/>
-      <c r="T171" s="3"/>
       <c r="U171" s="3"/>
       <c r="V171" s="3"/>
       <c r="W171" s="3"/>
@@ -11032,8 +12087,10 @@
       <c r="AE171" s="3"/>
       <c r="AF171" s="3"/>
       <c r="AG171" s="3"/>
-    </row>
-    <row r="172" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH171" s="3"/>
+      <c r="AI171" s="3"/>
+    </row>
+    <row r="172" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>414</v>
       </c>
@@ -11063,9 +12120,13 @@
         <v>2</v>
       </c>
       <c r="P172" s="3"/>
-      <c r="Q172" s="3"/>
+      <c r="Q172" t="s">
+        <v>608</v>
+      </c>
+      <c r="R172" t="s">
+        <v>610</v>
+      </c>
       <c r="S172" s="3"/>
-      <c r="T172" s="3"/>
       <c r="U172" s="3"/>
       <c r="V172" s="3"/>
       <c r="W172" s="3"/>
@@ -11079,8 +12140,10 @@
       <c r="AE172" s="3"/>
       <c r="AF172" s="3"/>
       <c r="AG172" s="3"/>
-    </row>
-    <row r="173" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH172" s="3"/>
+      <c r="AI172" s="3"/>
+    </row>
+    <row r="173" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>416</v>
       </c>
@@ -11112,9 +12175,13 @@
         <v>2</v>
       </c>
       <c r="P173" s="3"/>
-      <c r="Q173" s="3"/>
+      <c r="Q173" t="s">
+        <v>608</v>
+      </c>
+      <c r="R173" t="s">
+        <v>610</v>
+      </c>
       <c r="S173" s="3"/>
-      <c r="T173" s="3"/>
       <c r="U173" s="3"/>
       <c r="V173" s="3"/>
       <c r="W173" s="3"/>
@@ -11128,8 +12195,10 @@
       <c r="AE173" s="3"/>
       <c r="AF173" s="3"/>
       <c r="AG173" s="3"/>
-    </row>
-    <row r="174" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH173" s="3"/>
+      <c r="AI173" s="3"/>
+    </row>
+    <row r="174" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>419</v>
       </c>
@@ -11159,9 +12228,13 @@
         <v>2</v>
       </c>
       <c r="P174" s="3"/>
-      <c r="Q174" s="3"/>
+      <c r="Q174" t="s">
+        <v>608</v>
+      </c>
+      <c r="R174" t="s">
+        <v>610</v>
+      </c>
       <c r="S174" s="3"/>
-      <c r="T174" s="3"/>
       <c r="U174" s="3"/>
       <c r="V174" s="3"/>
       <c r="W174" s="3"/>
@@ -11175,8 +12248,10 @@
       <c r="AE174" s="3"/>
       <c r="AF174" s="3"/>
       <c r="AG174" s="3"/>
-    </row>
-    <row r="175" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH174" s="3"/>
+      <c r="AI174" s="3"/>
+    </row>
+    <row r="175" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>421</v>
       </c>
@@ -11206,9 +12281,13 @@
         <v>2</v>
       </c>
       <c r="P175" s="3"/>
-      <c r="Q175" s="3"/>
+      <c r="Q175" t="s">
+        <v>608</v>
+      </c>
+      <c r="R175" t="s">
+        <v>609</v>
+      </c>
       <c r="S175" s="3"/>
-      <c r="T175" s="3"/>
       <c r="U175" s="3"/>
       <c r="V175" s="3"/>
       <c r="W175" s="3"/>
@@ -11222,8 +12301,10 @@
       <c r="AE175" s="3"/>
       <c r="AF175" s="3"/>
       <c r="AG175" s="3"/>
-    </row>
-    <row r="176" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH175" s="3"/>
+      <c r="AI175" s="3"/>
+    </row>
+    <row r="176" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>423</v>
       </c>
@@ -11253,9 +12334,13 @@
         <v>2</v>
       </c>
       <c r="P176" s="3"/>
-      <c r="Q176" s="3"/>
+      <c r="Q176" t="s">
+        <v>608</v>
+      </c>
+      <c r="R176" t="s">
+        <v>612</v>
+      </c>
       <c r="S176" s="3"/>
-      <c r="T176" s="3"/>
       <c r="U176" s="3"/>
       <c r="V176" s="3"/>
       <c r="W176" s="3"/>
@@ -11269,8 +12354,10 @@
       <c r="AE176" s="3"/>
       <c r="AF176" s="3"/>
       <c r="AG176" s="3"/>
-    </row>
-    <row r="177" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH176" s="3"/>
+      <c r="AI176" s="3"/>
+    </row>
+    <row r="177" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>425</v>
       </c>
@@ -11300,11 +12387,15 @@
       </c>
       <c r="O177" s="3"/>
       <c r="P177" s="3"/>
-      <c r="Q177" s="3" t="s">
+      <c r="Q177" t="s">
+        <v>608</v>
+      </c>
+      <c r="R177" t="s">
+        <v>612</v>
+      </c>
+      <c r="S177" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="S177" s="3"/>
-      <c r="T177" s="3"/>
       <c r="U177" s="3"/>
       <c r="V177" s="3"/>
       <c r="W177" s="3"/>
@@ -11318,8 +12409,10 @@
       <c r="AE177" s="3"/>
       <c r="AF177" s="3"/>
       <c r="AG177" s="3"/>
-    </row>
-    <row r="178" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH177" s="3"/>
+      <c r="AI177" s="3"/>
+    </row>
+    <row r="178" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>431</v>
       </c>
@@ -11349,9 +12442,13 @@
         <v>2</v>
       </c>
       <c r="P178" s="3"/>
-      <c r="Q178" s="3"/>
+      <c r="Q178" t="s">
+        <v>608</v>
+      </c>
+      <c r="R178" t="s">
+        <v>612</v>
+      </c>
       <c r="S178" s="3"/>
-      <c r="T178" s="3"/>
       <c r="U178" s="3"/>
       <c r="V178" s="3"/>
       <c r="W178" s="3"/>
@@ -11365,8 +12462,10 @@
       <c r="AE178" s="3"/>
       <c r="AF178" s="3"/>
       <c r="AG178" s="3"/>
-    </row>
-    <row r="179" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH178" s="3"/>
+      <c r="AI178" s="3"/>
+    </row>
+    <row r="179" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>433</v>
       </c>
@@ -11396,9 +12495,13 @@
         <v>2</v>
       </c>
       <c r="P179" s="3"/>
-      <c r="Q179" s="3"/>
+      <c r="Q179" t="s">
+        <v>608</v>
+      </c>
+      <c r="R179" t="s">
+        <v>612</v>
+      </c>
       <c r="S179" s="3"/>
-      <c r="T179" s="3"/>
       <c r="U179" s="3"/>
       <c r="V179" s="3"/>
       <c r="W179" s="3"/>
@@ -11412,8 +12515,10 @@
       <c r="AE179" s="3"/>
       <c r="AF179" s="3"/>
       <c r="AG179" s="3"/>
-    </row>
-    <row r="180" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH179" s="3"/>
+      <c r="AI179" s="3"/>
+    </row>
+    <row r="180" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>435</v>
       </c>
@@ -11443,9 +12548,13 @@
         <v>7</v>
       </c>
       <c r="P180" s="3"/>
-      <c r="Q180" s="3"/>
+      <c r="Q180" t="s">
+        <v>608</v>
+      </c>
+      <c r="R180" t="s">
+        <v>610</v>
+      </c>
       <c r="S180" s="3"/>
-      <c r="T180" s="3"/>
       <c r="U180" s="3"/>
       <c r="V180" s="3"/>
       <c r="W180" s="3"/>
@@ -11459,8 +12568,10 @@
       <c r="AE180" s="3"/>
       <c r="AF180" s="3"/>
       <c r="AG180" s="3"/>
-    </row>
-    <row r="181" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH180" s="3"/>
+      <c r="AI180" s="3"/>
+    </row>
+    <row r="181" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>437</v>
       </c>
@@ -11490,9 +12601,13 @@
         <v>3</v>
       </c>
       <c r="P181" s="3"/>
-      <c r="Q181" s="3"/>
+      <c r="Q181" t="s">
+        <v>608</v>
+      </c>
+      <c r="R181" t="s">
+        <v>610</v>
+      </c>
       <c r="S181" s="3"/>
-      <c r="T181" s="3"/>
       <c r="U181" s="3"/>
       <c r="V181" s="3"/>
       <c r="W181" s="3"/>
@@ -11506,8 +12621,10 @@
       <c r="AE181" s="3"/>
       <c r="AF181" s="3"/>
       <c r="AG181" s="3"/>
-    </row>
-    <row r="182" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH181" s="3"/>
+      <c r="AI181" s="3"/>
+    </row>
+    <row r="182" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>439</v>
       </c>
@@ -11537,9 +12654,13 @@
         <v>3</v>
       </c>
       <c r="P182" s="3"/>
-      <c r="Q182" s="3"/>
+      <c r="Q182" t="s">
+        <v>608</v>
+      </c>
+      <c r="R182" t="s">
+        <v>610</v>
+      </c>
       <c r="S182" s="3"/>
-      <c r="T182" s="3"/>
       <c r="U182" s="3"/>
       <c r="V182" s="3"/>
       <c r="W182" s="3"/>
@@ -11553,8 +12674,10 @@
       <c r="AE182" s="3"/>
       <c r="AF182" s="3"/>
       <c r="AG182" s="3"/>
-    </row>
-    <row r="183" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH182" s="3"/>
+      <c r="AI182" s="3"/>
+    </row>
+    <row r="183" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>441</v>
       </c>
@@ -11584,9 +12707,13 @@
         <v>3</v>
       </c>
       <c r="P183" s="3"/>
-      <c r="Q183" s="3"/>
+      <c r="Q183" t="s">
+        <v>608</v>
+      </c>
+      <c r="R183" t="s">
+        <v>610</v>
+      </c>
       <c r="S183" s="3"/>
-      <c r="T183" s="3"/>
       <c r="U183" s="3"/>
       <c r="V183" s="3"/>
       <c r="W183" s="3"/>
@@ -11600,8 +12727,10 @@
       <c r="AE183" s="3"/>
       <c r="AF183" s="3"/>
       <c r="AG183" s="3"/>
-    </row>
-    <row r="184" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH183" s="3"/>
+      <c r="AI183" s="3"/>
+    </row>
+    <row r="184" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>443</v>
       </c>
@@ -11633,9 +12762,13 @@
         <v>6</v>
       </c>
       <c r="P184" s="3"/>
-      <c r="Q184" s="3"/>
+      <c r="Q184" t="s">
+        <v>608</v>
+      </c>
+      <c r="R184" t="s">
+        <v>610</v>
+      </c>
       <c r="S184" s="3"/>
-      <c r="T184" s="3"/>
       <c r="U184" s="3"/>
       <c r="V184" s="3"/>
       <c r="W184" s="3"/>
@@ -11649,8 +12782,10 @@
       <c r="AE184" s="3"/>
       <c r="AF184" s="3"/>
       <c r="AG184" s="3"/>
-    </row>
-    <row r="185" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH184" s="3"/>
+      <c r="AI184" s="3"/>
+    </row>
+    <row r="185" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>446</v>
       </c>
@@ -11680,9 +12815,13 @@
         <v>6</v>
       </c>
       <c r="P185" s="3"/>
-      <c r="Q185" s="3"/>
+      <c r="Q185" t="s">
+        <v>608</v>
+      </c>
+      <c r="R185" t="s">
+        <v>610</v>
+      </c>
       <c r="S185" s="3"/>
-      <c r="T185" s="3"/>
       <c r="U185" s="3"/>
       <c r="V185" s="3"/>
       <c r="W185" s="3"/>
@@ -11696,8 +12835,10 @@
       <c r="AE185" s="3"/>
       <c r="AF185" s="3"/>
       <c r="AG185" s="3"/>
-    </row>
-    <row r="186" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH185" s="3"/>
+      <c r="AI185" s="3"/>
+    </row>
+    <row r="186" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>448</v>
       </c>
@@ -11727,9 +12868,13 @@
         <v>3</v>
       </c>
       <c r="P186" s="3"/>
-      <c r="Q186" s="3"/>
+      <c r="Q186" t="s">
+        <v>608</v>
+      </c>
+      <c r="R186" t="s">
+        <v>610</v>
+      </c>
       <c r="S186" s="3"/>
-      <c r="T186" s="3"/>
       <c r="U186" s="3"/>
       <c r="V186" s="3"/>
       <c r="W186" s="3"/>
@@ -11743,8 +12888,10 @@
       <c r="AE186" s="3"/>
       <c r="AF186" s="3"/>
       <c r="AG186" s="3"/>
-    </row>
-    <row r="187" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH186" s="3"/>
+      <c r="AI186" s="3"/>
+    </row>
+    <row r="187" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>450</v>
       </c>
@@ -11774,9 +12921,13 @@
         <v>5</v>
       </c>
       <c r="P187" s="3"/>
-      <c r="Q187" s="3"/>
+      <c r="Q187" t="s">
+        <v>613</v>
+      </c>
+      <c r="R187" t="s">
+        <v>609</v>
+      </c>
       <c r="S187" s="3"/>
-      <c r="T187" s="3"/>
       <c r="U187" s="3"/>
       <c r="V187" s="3"/>
       <c r="W187" s="3"/>
@@ -11790,8 +12941,10 @@
       <c r="AE187" s="3"/>
       <c r="AF187" s="3"/>
       <c r="AG187" s="3"/>
-    </row>
-    <row r="188" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH187" s="3"/>
+      <c r="AI187" s="3"/>
+    </row>
+    <row r="188" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>452</v>
       </c>
@@ -11821,9 +12974,13 @@
         <v>5</v>
       </c>
       <c r="P188" s="3"/>
-      <c r="Q188" s="3"/>
+      <c r="Q188" t="s">
+        <v>613</v>
+      </c>
+      <c r="R188" t="s">
+        <v>609</v>
+      </c>
       <c r="S188" s="3"/>
-      <c r="T188" s="3"/>
       <c r="U188" s="3"/>
       <c r="V188" s="3"/>
       <c r="W188" s="3"/>
@@ -11837,8 +12994,10 @@
       <c r="AE188" s="3"/>
       <c r="AF188" s="3"/>
       <c r="AG188" s="3"/>
-    </row>
-    <row r="189" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH188" s="3"/>
+      <c r="AI188" s="3"/>
+    </row>
+    <row r="189" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
         <v>454</v>
       </c>
@@ -11868,9 +13027,13 @@
         <v>1</v>
       </c>
       <c r="P189" s="3"/>
-      <c r="Q189" s="3"/>
+      <c r="Q189" t="s">
+        <v>608</v>
+      </c>
+      <c r="R189" t="s">
+        <v>610</v>
+      </c>
       <c r="S189" s="3"/>
-      <c r="T189" s="3"/>
       <c r="U189" s="3"/>
       <c r="V189" s="3"/>
       <c r="W189" s="3"/>
@@ -11884,8 +13047,10 @@
       <c r="AE189" s="3"/>
       <c r="AF189" s="3"/>
       <c r="AG189" s="3"/>
-    </row>
-    <row r="190" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH189" s="3"/>
+      <c r="AI189" s="3"/>
+    </row>
+    <row r="190" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>456</v>
       </c>
@@ -11915,9 +13080,13 @@
         <v>1</v>
       </c>
       <c r="P190" s="3"/>
-      <c r="Q190" s="3"/>
+      <c r="Q190" t="s">
+        <v>608</v>
+      </c>
+      <c r="R190" t="s">
+        <v>610</v>
+      </c>
       <c r="S190" s="3"/>
-      <c r="T190" s="3"/>
       <c r="U190" s="3"/>
       <c r="V190" s="3"/>
       <c r="W190" s="3"/>
@@ -11931,8 +13100,10 @@
       <c r="AE190" s="3"/>
       <c r="AF190" s="3"/>
       <c r="AG190" s="3"/>
-    </row>
-    <row r="191" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH190" s="3"/>
+      <c r="AI190" s="3"/>
+    </row>
+    <row r="191" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>458</v>
       </c>
@@ -11956,9 +13127,13 @@
       </c>
       <c r="O191" s="3"/>
       <c r="P191" s="3"/>
-      <c r="Q191" s="3"/>
+      <c r="Q191" t="s">
+        <v>608</v>
+      </c>
+      <c r="R191" t="s">
+        <v>612</v>
+      </c>
       <c r="S191" s="3"/>
-      <c r="T191" s="3"/>
       <c r="U191" s="3"/>
       <c r="V191" s="3"/>
       <c r="W191" s="3"/>
@@ -11972,8 +13147,10 @@
       <c r="AE191" s="3"/>
       <c r="AF191" s="3"/>
       <c r="AG191" s="3"/>
-    </row>
-    <row r="192" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH191" s="3"/>
+      <c r="AI191" s="3"/>
+    </row>
+    <row r="192" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>462</v>
       </c>
@@ -12003,9 +13180,13 @@
         <v>5</v>
       </c>
       <c r="P192" s="3"/>
-      <c r="Q192" s="3"/>
+      <c r="Q192" t="s">
+        <v>613</v>
+      </c>
+      <c r="R192" t="s">
+        <v>609</v>
+      </c>
       <c r="S192" s="3"/>
-      <c r="T192" s="3"/>
       <c r="U192" s="3"/>
       <c r="V192" s="3"/>
       <c r="W192" s="3"/>
@@ -12019,8 +13200,10 @@
       <c r="AE192" s="3"/>
       <c r="AF192" s="3"/>
       <c r="AG192" s="3"/>
-    </row>
-    <row r="193" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH192" s="3"/>
+      <c r="AI192" s="3"/>
+    </row>
+    <row r="193" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>464</v>
       </c>
@@ -12050,9 +13233,13 @@
         <v>1</v>
       </c>
       <c r="P193" s="3"/>
-      <c r="Q193" s="3"/>
+      <c r="Q193" t="s">
+        <v>608</v>
+      </c>
+      <c r="R193" t="s">
+        <v>609</v>
+      </c>
       <c r="S193" s="3"/>
-      <c r="T193" s="3"/>
       <c r="U193" s="3"/>
       <c r="V193" s="3"/>
       <c r="W193" s="3"/>
@@ -12066,8 +13253,10 @@
       <c r="AE193" s="3"/>
       <c r="AF193" s="3"/>
       <c r="AG193" s="3"/>
-    </row>
-    <row r="194" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH193" s="3"/>
+      <c r="AI193" s="3"/>
+    </row>
+    <row r="194" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>466</v>
       </c>
@@ -12097,9 +13286,13 @@
         <v>4</v>
       </c>
       <c r="P194" s="3"/>
-      <c r="Q194" s="3"/>
+      <c r="Q194" t="s">
+        <v>608</v>
+      </c>
+      <c r="R194" t="s">
+        <v>610</v>
+      </c>
       <c r="S194" s="3"/>
-      <c r="T194" s="3"/>
       <c r="U194" s="3"/>
       <c r="V194" s="3"/>
       <c r="W194" s="3"/>
@@ -12113,8 +13306,10 @@
       <c r="AE194" s="3"/>
       <c r="AF194" s="3"/>
       <c r="AG194" s="3"/>
-    </row>
-    <row r="195" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH194" s="3"/>
+      <c r="AI194" s="3"/>
+    </row>
+    <row r="195" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>468</v>
       </c>
@@ -12144,9 +13339,13 @@
         <v>1</v>
       </c>
       <c r="P195" s="3"/>
-      <c r="Q195" s="3"/>
+      <c r="Q195" t="s">
+        <v>608</v>
+      </c>
+      <c r="R195" t="s">
+        <v>609</v>
+      </c>
       <c r="S195" s="3"/>
-      <c r="T195" s="3"/>
       <c r="U195" s="3"/>
       <c r="V195" s="3"/>
       <c r="W195" s="3"/>
@@ -12160,8 +13359,10 @@
       <c r="AE195" s="3"/>
       <c r="AF195" s="3"/>
       <c r="AG195" s="3"/>
-    </row>
-    <row r="196" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH195" s="3"/>
+      <c r="AI195" s="3"/>
+    </row>
+    <row r="196" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>470</v>
       </c>
@@ -12191,9 +13392,13 @@
         <v>1</v>
       </c>
       <c r="P196" s="3"/>
-      <c r="Q196" s="3"/>
+      <c r="Q196" t="s">
+        <v>608</v>
+      </c>
+      <c r="R196" t="s">
+        <v>609</v>
+      </c>
       <c r="S196" s="3"/>
-      <c r="T196" s="3"/>
       <c r="U196" s="3"/>
       <c r="V196" s="3"/>
       <c r="W196" s="3"/>
@@ -12207,8 +13412,10 @@
       <c r="AE196" s="3"/>
       <c r="AF196" s="3"/>
       <c r="AG196" s="3"/>
-    </row>
-    <row r="197" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH196" s="3"/>
+      <c r="AI196" s="3"/>
+    </row>
+    <row r="197" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>472</v>
       </c>
@@ -12238,9 +13445,13 @@
         <v>6</v>
       </c>
       <c r="P197" s="3"/>
-      <c r="Q197" s="3"/>
+      <c r="Q197" t="s">
+        <v>608</v>
+      </c>
+      <c r="R197" t="s">
+        <v>609</v>
+      </c>
       <c r="S197" s="3"/>
-      <c r="T197" s="3"/>
       <c r="U197" s="3"/>
       <c r="V197" s="3"/>
       <c r="W197" s="3"/>
@@ -12254,8 +13465,10 @@
       <c r="AE197" s="3"/>
       <c r="AF197" s="3"/>
       <c r="AG197" s="3"/>
-    </row>
-    <row r="198" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH197" s="3"/>
+      <c r="AI197" s="3"/>
+    </row>
+    <row r="198" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>474</v>
       </c>
@@ -12285,9 +13498,13 @@
         <v>2</v>
       </c>
       <c r="P198" s="3"/>
-      <c r="Q198" s="3"/>
+      <c r="Q198" t="s">
+        <v>608</v>
+      </c>
+      <c r="R198" t="s">
+        <v>610</v>
+      </c>
       <c r="S198" s="3"/>
-      <c r="T198" s="3"/>
       <c r="U198" s="3"/>
       <c r="V198" s="3"/>
       <c r="W198" s="3"/>
@@ -12301,8 +13518,10 @@
       <c r="AE198" s="3"/>
       <c r="AF198" s="3"/>
       <c r="AG198" s="3"/>
-    </row>
-    <row r="199" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH198" s="3"/>
+      <c r="AI198" s="3"/>
+    </row>
+    <row r="199" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>476</v>
       </c>
@@ -12332,9 +13551,13 @@
         <v>1</v>
       </c>
       <c r="P199" s="3"/>
-      <c r="Q199" s="3"/>
+      <c r="Q199" t="s">
+        <v>608</v>
+      </c>
+      <c r="R199" t="s">
+        <v>609</v>
+      </c>
       <c r="S199" s="3"/>
-      <c r="T199" s="3"/>
       <c r="U199" s="3"/>
       <c r="V199" s="3"/>
       <c r="W199" s="3"/>
@@ -12348,8 +13571,10 @@
       <c r="AE199" s="3"/>
       <c r="AF199" s="3"/>
       <c r="AG199" s="3"/>
-    </row>
-    <row r="200" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH199" s="3"/>
+      <c r="AI199" s="3"/>
+    </row>
+    <row r="200" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
         <v>478</v>
       </c>
@@ -12381,9 +13606,13 @@
         <v>2</v>
       </c>
       <c r="P200" s="3"/>
-      <c r="Q200" s="3"/>
+      <c r="Q200" t="s">
+        <v>608</v>
+      </c>
+      <c r="R200" t="s">
+        <v>610</v>
+      </c>
       <c r="S200" s="3"/>
-      <c r="T200" s="3"/>
       <c r="U200" s="3"/>
       <c r="V200" s="3"/>
       <c r="W200" s="3"/>
@@ -12397,8 +13626,10 @@
       <c r="AE200" s="3"/>
       <c r="AF200" s="3"/>
       <c r="AG200" s="3"/>
-    </row>
-    <row r="201" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH200" s="3"/>
+      <c r="AI200" s="3"/>
+    </row>
+    <row r="201" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>481</v>
       </c>
@@ -12428,9 +13659,13 @@
         <v>2</v>
       </c>
       <c r="P201" s="3"/>
-      <c r="Q201" s="3"/>
+      <c r="Q201" t="s">
+        <v>608</v>
+      </c>
+      <c r="R201" t="s">
+        <v>610</v>
+      </c>
       <c r="S201" s="3"/>
-      <c r="T201" s="3"/>
       <c r="U201" s="3"/>
       <c r="V201" s="3"/>
       <c r="W201" s="3"/>
@@ -12444,8 +13679,10 @@
       <c r="AE201" s="3"/>
       <c r="AF201" s="3"/>
       <c r="AG201" s="3"/>
-    </row>
-    <row r="202" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH201" s="3"/>
+      <c r="AI201" s="3"/>
+    </row>
+    <row r="202" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>483</v>
       </c>
@@ -12475,9 +13712,13 @@
         <v>2</v>
       </c>
       <c r="P202" s="3"/>
-      <c r="Q202" s="3"/>
+      <c r="Q202" t="s">
+        <v>608</v>
+      </c>
+      <c r="R202" t="s">
+        <v>610</v>
+      </c>
       <c r="S202" s="3"/>
-      <c r="T202" s="3"/>
       <c r="U202" s="3"/>
       <c r="V202" s="3"/>
       <c r="W202" s="3"/>
@@ -12491,8 +13732,10 @@
       <c r="AE202" s="3"/>
       <c r="AF202" s="3"/>
       <c r="AG202" s="3"/>
-    </row>
-    <row r="203" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH202" s="3"/>
+      <c r="AI202" s="3"/>
+    </row>
+    <row r="203" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>485</v>
       </c>
@@ -12522,9 +13765,13 @@
         <v>2</v>
       </c>
       <c r="P203" s="3"/>
-      <c r="Q203" s="3"/>
+      <c r="Q203" t="s">
+        <v>608</v>
+      </c>
+      <c r="R203" t="s">
+        <v>612</v>
+      </c>
       <c r="S203" s="3"/>
-      <c r="T203" s="3"/>
       <c r="U203" s="3"/>
       <c r="V203" s="3"/>
       <c r="W203" s="3"/>
@@ -12538,8 +13785,10 @@
       <c r="AE203" s="3"/>
       <c r="AF203" s="3"/>
       <c r="AG203" s="3"/>
-    </row>
-    <row r="204" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH203" s="3"/>
+      <c r="AI203" s="3"/>
+    </row>
+    <row r="204" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
         <v>487</v>
       </c>
@@ -12563,9 +13812,13 @@
         <v>0</v>
       </c>
       <c r="P204" s="3"/>
-      <c r="Q204" s="3"/>
+      <c r="Q204" t="s">
+        <v>608</v>
+      </c>
+      <c r="R204" t="s">
+        <v>609</v>
+      </c>
       <c r="S204" s="3"/>
-      <c r="T204" s="3"/>
       <c r="U204" s="3"/>
       <c r="V204" s="3"/>
       <c r="W204" s="3"/>
@@ -12579,8 +13832,10 @@
       <c r="AE204" s="3"/>
       <c r="AF204" s="3"/>
       <c r="AG204" s="3"/>
-    </row>
-    <row r="205" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH204" s="3"/>
+      <c r="AI204" s="3"/>
+    </row>
+    <row r="205" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
         <v>489</v>
       </c>
@@ -12610,9 +13865,13 @@
         <v>2</v>
       </c>
       <c r="P205" s="3"/>
-      <c r="Q205" s="3"/>
+      <c r="Q205" t="s">
+        <v>608</v>
+      </c>
+      <c r="R205" t="s">
+        <v>609</v>
+      </c>
       <c r="S205" s="3"/>
-      <c r="T205" s="3"/>
       <c r="U205" s="3"/>
       <c r="V205" s="3"/>
       <c r="W205" s="3"/>
@@ -12626,8 +13885,10 @@
       <c r="AE205" s="3"/>
       <c r="AF205" s="3"/>
       <c r="AG205" s="3"/>
-    </row>
-    <row r="206" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH205" s="3"/>
+      <c r="AI205" s="3"/>
+    </row>
+    <row r="206" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
         <v>491</v>
       </c>
@@ -12657,9 +13918,13 @@
         <v>2</v>
       </c>
       <c r="P206" s="3"/>
-      <c r="Q206" s="3"/>
+      <c r="Q206" t="s">
+        <v>608</v>
+      </c>
+      <c r="R206" t="s">
+        <v>612</v>
+      </c>
       <c r="S206" s="3"/>
-      <c r="T206" s="3"/>
       <c r="U206" s="3"/>
       <c r="V206" s="3"/>
       <c r="W206" s="3"/>
@@ -12673,8 +13938,10 @@
       <c r="AE206" s="3"/>
       <c r="AF206" s="3"/>
       <c r="AG206" s="3"/>
-    </row>
-    <row r="207" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH206" s="3"/>
+      <c r="AI206" s="3"/>
+    </row>
+    <row r="207" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>493</v>
       </c>
@@ -12704,9 +13971,13 @@
         <v>2</v>
       </c>
       <c r="P207" s="3"/>
-      <c r="Q207" s="3"/>
+      <c r="Q207" t="s">
+        <v>608</v>
+      </c>
+      <c r="R207" t="s">
+        <v>612</v>
+      </c>
       <c r="S207" s="3"/>
-      <c r="T207" s="3"/>
       <c r="U207" s="3"/>
       <c r="V207" s="3"/>
       <c r="W207" s="3"/>
@@ -12720,8 +13991,10 @@
       <c r="AE207" s="3"/>
       <c r="AF207" s="3"/>
       <c r="AG207" s="3"/>
-    </row>
-    <row r="208" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH207" s="3"/>
+      <c r="AI207" s="3"/>
+    </row>
+    <row r="208" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>495</v>
       </c>
@@ -12751,9 +14024,13 @@
         <v>2</v>
       </c>
       <c r="P208" s="3"/>
-      <c r="Q208" s="3"/>
+      <c r="Q208" t="s">
+        <v>608</v>
+      </c>
+      <c r="R208" t="s">
+        <v>612</v>
+      </c>
       <c r="S208" s="3"/>
-      <c r="T208" s="3"/>
       <c r="U208" s="3"/>
       <c r="V208" s="3"/>
       <c r="W208" s="3"/>
@@ -12767,8 +14044,10 @@
       <c r="AE208" s="3"/>
       <c r="AF208" s="3"/>
       <c r="AG208" s="3"/>
-    </row>
-    <row r="209" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH208" s="3"/>
+      <c r="AI208" s="3"/>
+    </row>
+    <row r="209" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>497</v>
       </c>
@@ -12798,9 +14077,13 @@
         <v>2</v>
       </c>
       <c r="P209" s="3"/>
-      <c r="Q209" s="3"/>
+      <c r="Q209" t="s">
+        <v>613</v>
+      </c>
+      <c r="R209" t="s">
+        <v>612</v>
+      </c>
       <c r="S209" s="3"/>
-      <c r="T209" s="3"/>
       <c r="U209" s="3"/>
       <c r="V209" s="3"/>
       <c r="W209" s="3"/>
@@ -12814,8 +14097,10 @@
       <c r="AE209" s="3"/>
       <c r="AF209" s="3"/>
       <c r="AG209" s="3"/>
-    </row>
-    <row r="210" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH209" s="3"/>
+      <c r="AI209" s="3"/>
+    </row>
+    <row r="210" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
         <v>499</v>
       </c>
@@ -12847,9 +14132,13 @@
         <v>2</v>
       </c>
       <c r="P210" s="3"/>
-      <c r="Q210" s="3"/>
+      <c r="Q210" t="s">
+        <v>608</v>
+      </c>
+      <c r="R210" t="s">
+        <v>610</v>
+      </c>
       <c r="S210" s="3"/>
-      <c r="T210" s="3"/>
       <c r="U210" s="3"/>
       <c r="V210" s="3"/>
       <c r="W210" s="3"/>
@@ -12863,8 +14152,10 @@
       <c r="AE210" s="3"/>
       <c r="AF210" s="3"/>
       <c r="AG210" s="3"/>
-    </row>
-    <row r="211" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH210" s="3"/>
+      <c r="AI210" s="3"/>
+    </row>
+    <row r="211" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
         <v>502</v>
       </c>
@@ -12894,9 +14185,13 @@
         <v>2</v>
       </c>
       <c r="P211" s="3"/>
-      <c r="Q211" s="3"/>
+      <c r="Q211" t="s">
+        <v>608</v>
+      </c>
+      <c r="R211" t="s">
+        <v>610</v>
+      </c>
       <c r="S211" s="3"/>
-      <c r="T211" s="3"/>
       <c r="U211" s="3"/>
       <c r="V211" s="3"/>
       <c r="W211" s="3"/>
@@ -12910,8 +14205,10 @@
       <c r="AE211" s="3"/>
       <c r="AF211" s="3"/>
       <c r="AG211" s="3"/>
-    </row>
-    <row r="212" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH211" s="3"/>
+      <c r="AI211" s="3"/>
+    </row>
+    <row r="212" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
         <v>504</v>
       </c>
@@ -12941,9 +14238,13 @@
         <v>6</v>
       </c>
       <c r="P212" s="3"/>
-      <c r="Q212" s="3"/>
+      <c r="Q212" t="s">
+        <v>608</v>
+      </c>
+      <c r="R212" t="s">
+        <v>609</v>
+      </c>
       <c r="S212" s="3"/>
-      <c r="T212" s="3"/>
       <c r="U212" s="3"/>
       <c r="V212" s="3"/>
       <c r="W212" s="3"/>
@@ -12957,8 +14258,10 @@
       <c r="AE212" s="3"/>
       <c r="AF212" s="3"/>
       <c r="AG212" s="3"/>
-    </row>
-    <row r="213" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH212" s="3"/>
+      <c r="AI212" s="3"/>
+    </row>
+    <row r="213" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
         <v>506</v>
       </c>
@@ -12988,9 +14291,13 @@
         <v>2</v>
       </c>
       <c r="P213" s="3"/>
-      <c r="Q213" s="3"/>
+      <c r="Q213" t="s">
+        <v>608</v>
+      </c>
+      <c r="R213" t="s">
+        <v>610</v>
+      </c>
       <c r="S213" s="3"/>
-      <c r="T213" s="3"/>
       <c r="U213" s="3"/>
       <c r="V213" s="3"/>
       <c r="W213" s="3"/>
@@ -13004,8 +14311,10 @@
       <c r="AE213" s="3"/>
       <c r="AF213" s="3"/>
       <c r="AG213" s="3"/>
-    </row>
-    <row r="214" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH213" s="3"/>
+      <c r="AI213" s="3"/>
+    </row>
+    <row r="214" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
         <v>506</v>
       </c>
@@ -13035,9 +14344,13 @@
         <v>2</v>
       </c>
       <c r="P214" s="3"/>
-      <c r="Q214" s="3"/>
+      <c r="Q214" t="s">
+        <v>608</v>
+      </c>
+      <c r="R214" t="s">
+        <v>610</v>
+      </c>
       <c r="S214" s="3"/>
-      <c r="T214" s="3"/>
       <c r="U214" s="3"/>
       <c r="V214" s="3"/>
       <c r="W214" s="3"/>
@@ -13051,8 +14364,10 @@
       <c r="AE214" s="3"/>
       <c r="AF214" s="3"/>
       <c r="AG214" s="3"/>
-    </row>
-    <row r="215" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH214" s="3"/>
+      <c r="AI214" s="3"/>
+    </row>
+    <row r="215" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
         <v>509</v>
       </c>
@@ -13082,9 +14397,13 @@
         <v>2</v>
       </c>
       <c r="P215" s="3"/>
-      <c r="Q215" s="3"/>
+      <c r="Q215" t="s">
+        <v>608</v>
+      </c>
+      <c r="R215" t="s">
+        <v>612</v>
+      </c>
       <c r="S215" s="3"/>
-      <c r="T215" s="3"/>
       <c r="U215" s="3"/>
       <c r="V215" s="3"/>
       <c r="W215" s="3"/>
@@ -13098,8 +14417,10 @@
       <c r="AE215" s="3"/>
       <c r="AF215" s="3"/>
       <c r="AG215" s="3"/>
-    </row>
-    <row r="216" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH215" s="3"/>
+      <c r="AI215" s="3"/>
+    </row>
+    <row r="216" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
         <v>511</v>
       </c>
@@ -13129,9 +14450,13 @@
         <v>2</v>
       </c>
       <c r="P216" s="3"/>
-      <c r="Q216" s="3"/>
+      <c r="Q216" t="s">
+        <v>608</v>
+      </c>
+      <c r="R216" t="s">
+        <v>609</v>
+      </c>
       <c r="S216" s="3"/>
-      <c r="T216" s="3"/>
       <c r="U216" s="3"/>
       <c r="V216" s="3"/>
       <c r="W216" s="3"/>
@@ -13145,8 +14470,10 @@
       <c r="AE216" s="3"/>
       <c r="AF216" s="3"/>
       <c r="AG216" s="3"/>
-    </row>
-    <row r="217" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH216" s="3"/>
+      <c r="AI216" s="3"/>
+    </row>
+    <row r="217" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
         <v>513</v>
       </c>
@@ -13176,9 +14503,13 @@
         <v>2</v>
       </c>
       <c r="P217" s="3"/>
-      <c r="Q217" s="3"/>
+      <c r="Q217" t="s">
+        <v>608</v>
+      </c>
+      <c r="R217" t="s">
+        <v>609</v>
+      </c>
       <c r="S217" s="3"/>
-      <c r="T217" s="3"/>
       <c r="U217" s="3"/>
       <c r="V217" s="3"/>
       <c r="W217" s="3"/>
@@ -13192,8 +14523,10 @@
       <c r="AE217" s="3"/>
       <c r="AF217" s="3"/>
       <c r="AG217" s="3"/>
-    </row>
-    <row r="218" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH217" s="3"/>
+      <c r="AI217" s="3"/>
+    </row>
+    <row r="218" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
         <v>515</v>
       </c>
@@ -13223,9 +14556,13 @@
         <v>2</v>
       </c>
       <c r="P218" s="3"/>
-      <c r="Q218" s="3"/>
+      <c r="Q218" t="s">
+        <v>608</v>
+      </c>
+      <c r="R218" t="s">
+        <v>612</v>
+      </c>
       <c r="S218" s="3"/>
-      <c r="T218" s="3"/>
       <c r="U218" s="3"/>
       <c r="V218" s="3"/>
       <c r="W218" s="3"/>
@@ -13239,8 +14576,10 @@
       <c r="AE218" s="3"/>
       <c r="AF218" s="3"/>
       <c r="AG218" s="3"/>
-    </row>
-    <row r="219" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH218" s="3"/>
+      <c r="AI218" s="3"/>
+    </row>
+    <row r="219" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
         <v>517</v>
       </c>
@@ -13270,9 +14609,13 @@
         <v>2</v>
       </c>
       <c r="P219" s="3"/>
-      <c r="Q219" s="3"/>
+      <c r="Q219" t="s">
+        <v>608</v>
+      </c>
+      <c r="R219" t="s">
+        <v>612</v>
+      </c>
       <c r="S219" s="3"/>
-      <c r="T219" s="3"/>
       <c r="U219" s="3"/>
       <c r="V219" s="3"/>
       <c r="W219" s="3"/>
@@ -13286,8 +14629,10 @@
       <c r="AE219" s="3"/>
       <c r="AF219" s="3"/>
       <c r="AG219" s="3"/>
-    </row>
-    <row r="220" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH219" s="3"/>
+      <c r="AI219" s="3"/>
+    </row>
+    <row r="220" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
         <v>519</v>
       </c>
@@ -13317,9 +14662,13 @@
         <v>1</v>
       </c>
       <c r="P220" s="3"/>
-      <c r="Q220" s="3"/>
+      <c r="Q220" t="s">
+        <v>608</v>
+      </c>
+      <c r="R220" t="s">
+        <v>609</v>
+      </c>
       <c r="S220" s="3"/>
-      <c r="T220" s="3"/>
       <c r="U220" s="3"/>
       <c r="V220" s="3"/>
       <c r="W220" s="3"/>
@@ -13333,8 +14682,10 @@
       <c r="AE220" s="3"/>
       <c r="AF220" s="3"/>
       <c r="AG220" s="3"/>
-    </row>
-    <row r="221" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH220" s="3"/>
+      <c r="AI220" s="3"/>
+    </row>
+    <row r="221" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
         <v>521</v>
       </c>
@@ -13364,9 +14715,13 @@
         <v>7</v>
       </c>
       <c r="P221" s="3"/>
-      <c r="Q221" s="3"/>
+      <c r="Q221" t="s">
+        <v>608</v>
+      </c>
+      <c r="R221" t="s">
+        <v>610</v>
+      </c>
       <c r="S221" s="3"/>
-      <c r="T221" s="3"/>
       <c r="U221" s="3"/>
       <c r="V221" s="3"/>
       <c r="W221" s="3"/>
@@ -13380,8 +14735,10 @@
       <c r="AE221" s="3"/>
       <c r="AF221" s="3"/>
       <c r="AG221" s="3"/>
-    </row>
-    <row r="222" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH221" s="3"/>
+      <c r="AI221" s="3"/>
+    </row>
+    <row r="222" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
         <v>523</v>
       </c>
@@ -13411,9 +14768,13 @@
         <v>5</v>
       </c>
       <c r="P222" s="3"/>
-      <c r="Q222" s="3"/>
+      <c r="Q222" t="s">
+        <v>613</v>
+      </c>
+      <c r="R222" t="s">
+        <v>612</v>
+      </c>
       <c r="S222" s="3"/>
-      <c r="T222" s="3"/>
       <c r="U222" s="3"/>
       <c r="V222" s="3"/>
       <c r="W222" s="3"/>
@@ -13427,8 +14788,10 @@
       <c r="AE222" s="3"/>
       <c r="AF222" s="3"/>
       <c r="AG222" s="3"/>
-    </row>
-    <row r="223" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH222" s="3"/>
+      <c r="AI222" s="3"/>
+    </row>
+    <row r="223" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
         <v>525</v>
       </c>
@@ -13458,9 +14821,13 @@
         <v>5</v>
       </c>
       <c r="P223" s="3"/>
-      <c r="Q223" s="3"/>
+      <c r="Q223" t="s">
+        <v>613</v>
+      </c>
+      <c r="R223" t="s">
+        <v>612</v>
+      </c>
       <c r="S223" s="3"/>
-      <c r="T223" s="3"/>
       <c r="U223" s="3"/>
       <c r="V223" s="3"/>
       <c r="W223" s="3"/>
@@ -13474,8 +14841,10 @@
       <c r="AE223" s="3"/>
       <c r="AF223" s="3"/>
       <c r="AG223" s="3"/>
-    </row>
-    <row r="224" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH223" s="3"/>
+      <c r="AI223" s="3"/>
+    </row>
+    <row r="224" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
         <v>527</v>
       </c>
@@ -13507,9 +14876,13 @@
         <v>5</v>
       </c>
       <c r="P224" s="3"/>
-      <c r="Q224" s="3"/>
+      <c r="Q224" t="s">
+        <v>613</v>
+      </c>
+      <c r="R224" t="s">
+        <v>612</v>
+      </c>
       <c r="S224" s="3"/>
-      <c r="T224" s="3"/>
       <c r="U224" s="3"/>
       <c r="V224" s="3"/>
       <c r="W224" s="3"/>
@@ -13523,8 +14896,10 @@
       <c r="AE224" s="3"/>
       <c r="AF224" s="3"/>
       <c r="AG224" s="3"/>
-    </row>
-    <row r="225" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH224" s="3"/>
+      <c r="AI224" s="3"/>
+    </row>
+    <row r="225" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
         <v>530</v>
       </c>
@@ -13554,9 +14929,13 @@
         <v>2</v>
       </c>
       <c r="P225" s="3"/>
-      <c r="Q225" s="3"/>
+      <c r="Q225" t="s">
+        <v>608</v>
+      </c>
+      <c r="R225" t="s">
+        <v>610</v>
+      </c>
       <c r="S225" s="3"/>
-      <c r="T225" s="3"/>
       <c r="U225" s="3"/>
       <c r="V225" s="3"/>
       <c r="W225" s="3"/>
@@ -13570,8 +14949,10 @@
       <c r="AE225" s="3"/>
       <c r="AF225" s="3"/>
       <c r="AG225" s="3"/>
-    </row>
-    <row r="226" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH225" s="3"/>
+      <c r="AI225" s="3"/>
+    </row>
+    <row r="226" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
         <v>532</v>
       </c>
@@ -13601,9 +14982,13 @@
         <v>2</v>
       </c>
       <c r="P226" s="3"/>
-      <c r="Q226" s="3"/>
+      <c r="Q226" t="s">
+        <v>608</v>
+      </c>
+      <c r="R226" t="s">
+        <v>612</v>
+      </c>
       <c r="S226" s="3"/>
-      <c r="T226" s="3"/>
       <c r="U226" s="3"/>
       <c r="V226" s="3"/>
       <c r="W226" s="3"/>
@@ -13617,8 +15002,10 @@
       <c r="AE226" s="3"/>
       <c r="AF226" s="3"/>
       <c r="AG226" s="3"/>
-    </row>
-    <row r="227" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH226" s="3"/>
+      <c r="AI226" s="3"/>
+    </row>
+    <row r="227" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
         <v>535</v>
       </c>
@@ -13648,9 +15035,13 @@
         <v>2</v>
       </c>
       <c r="P227" s="3"/>
-      <c r="Q227" s="3"/>
+      <c r="Q227" t="s">
+        <v>608</v>
+      </c>
+      <c r="R227" t="s">
+        <v>610</v>
+      </c>
       <c r="S227" s="3"/>
-      <c r="T227" s="3"/>
       <c r="U227" s="3"/>
       <c r="V227" s="3"/>
       <c r="W227" s="3"/>
@@ -13664,8 +15055,10 @@
       <c r="AE227" s="3"/>
       <c r="AF227" s="3"/>
       <c r="AG227" s="3"/>
-    </row>
-    <row r="228" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH227" s="3"/>
+      <c r="AI227" s="3"/>
+    </row>
+    <row r="228" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
         <v>537</v>
       </c>
@@ -13695,9 +15088,13 @@
         <v>2</v>
       </c>
       <c r="P228" s="3"/>
-      <c r="Q228" s="3"/>
+      <c r="Q228" t="s">
+        <v>608</v>
+      </c>
+      <c r="R228" t="s">
+        <v>610</v>
+      </c>
       <c r="S228" s="3"/>
-      <c r="T228" s="3"/>
       <c r="U228" s="3"/>
       <c r="V228" s="3"/>
       <c r="W228" s="3"/>
@@ -13711,8 +15108,10 @@
       <c r="AE228" s="3"/>
       <c r="AF228" s="3"/>
       <c r="AG228" s="3"/>
-    </row>
-    <row r="229" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH228" s="3"/>
+      <c r="AI228" s="3"/>
+    </row>
+    <row r="229" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
         <v>538</v>
       </c>
@@ -13742,9 +15141,13 @@
         <v>0</v>
       </c>
       <c r="P229" s="3"/>
-      <c r="Q229" s="3"/>
+      <c r="Q229" t="s">
+        <v>608</v>
+      </c>
+      <c r="R229" t="s">
+        <v>609</v>
+      </c>
       <c r="S229" s="3"/>
-      <c r="T229" s="3"/>
       <c r="U229" s="3"/>
       <c r="V229" s="3"/>
       <c r="W229" s="3"/>
@@ -13758,8 +15161,10 @@
       <c r="AE229" s="3"/>
       <c r="AF229" s="3"/>
       <c r="AG229" s="3"/>
-    </row>
-    <row r="230" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH229" s="3"/>
+      <c r="AI229" s="3"/>
+    </row>
+    <row r="230" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
         <v>540</v>
       </c>
@@ -13789,9 +15194,13 @@
         <v>2</v>
       </c>
       <c r="P230" s="3"/>
-      <c r="Q230" s="3"/>
+      <c r="Q230" t="s">
+        <v>608</v>
+      </c>
+      <c r="R230" t="s">
+        <v>609</v>
+      </c>
       <c r="S230" s="3"/>
-      <c r="T230" s="3"/>
       <c r="U230" s="3"/>
       <c r="V230" s="3"/>
       <c r="W230" s="3"/>
@@ -13805,8 +15214,10 @@
       <c r="AE230" s="3"/>
       <c r="AF230" s="3"/>
       <c r="AG230" s="3"/>
-    </row>
-    <row r="231" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH230" s="3"/>
+      <c r="AI230" s="3"/>
+    </row>
+    <row r="231" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
         <v>542</v>
       </c>
@@ -13836,9 +15247,13 @@
         <v>5</v>
       </c>
       <c r="P231" s="3"/>
-      <c r="Q231" s="3"/>
+      <c r="Q231" t="s">
+        <v>613</v>
+      </c>
+      <c r="R231" t="s">
+        <v>609</v>
+      </c>
       <c r="S231" s="3"/>
-      <c r="T231" s="3"/>
       <c r="U231" s="3"/>
       <c r="V231" s="3"/>
       <c r="W231" s="3"/>
@@ -13852,8 +15267,10 @@
       <c r="AE231" s="3"/>
       <c r="AF231" s="3"/>
       <c r="AG231" s="3"/>
-    </row>
-    <row r="232" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH231" s="3"/>
+      <c r="AI231" s="3"/>
+    </row>
+    <row r="232" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
         <v>544</v>
       </c>
@@ -13883,9 +15300,13 @@
         <v>5</v>
       </c>
       <c r="P232" s="3"/>
-      <c r="Q232" s="3"/>
+      <c r="Q232" t="s">
+        <v>613</v>
+      </c>
+      <c r="R232" t="s">
+        <v>609</v>
+      </c>
       <c r="S232" s="3"/>
-      <c r="T232" s="3"/>
       <c r="U232" s="3"/>
       <c r="V232" s="3"/>
       <c r="W232" s="3"/>
@@ -13899,8 +15320,10 @@
       <c r="AE232" s="3"/>
       <c r="AF232" s="3"/>
       <c r="AG232" s="3"/>
-    </row>
-    <row r="233" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH232" s="3"/>
+      <c r="AI232" s="3"/>
+    </row>
+    <row r="233" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
         <v>546</v>
       </c>
@@ -13932,9 +15355,13 @@
       <c r="P233" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="Q233" s="3"/>
+      <c r="Q233" t="s">
+        <v>608</v>
+      </c>
+      <c r="R233" t="s">
+        <v>610</v>
+      </c>
       <c r="S233" s="3"/>
-      <c r="T233" s="3"/>
       <c r="U233" s="3"/>
       <c r="V233" s="3"/>
       <c r="W233" s="3"/>
@@ -13948,8 +15375,10 @@
       <c r="AE233" s="3"/>
       <c r="AF233" s="3"/>
       <c r="AG233" s="3"/>
-    </row>
-    <row r="234" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH233" s="3"/>
+      <c r="AI233" s="3"/>
+    </row>
+    <row r="234" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
         <v>549</v>
       </c>
@@ -13979,9 +15408,13 @@
         <v>7</v>
       </c>
       <c r="P234" s="3"/>
-      <c r="Q234" s="3"/>
+      <c r="Q234" t="s">
+        <v>608</v>
+      </c>
+      <c r="R234" t="s">
+        <v>610</v>
+      </c>
       <c r="S234" s="3"/>
-      <c r="T234" s="3"/>
       <c r="U234" s="3"/>
       <c r="V234" s="3"/>
       <c r="W234" s="3"/>
@@ -13995,8 +15428,10 @@
       <c r="AE234" s="3"/>
       <c r="AF234" s="3"/>
       <c r="AG234" s="3"/>
-    </row>
-    <row r="235" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH234" s="3"/>
+      <c r="AI234" s="3"/>
+    </row>
+    <row r="235" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
         <v>551</v>
       </c>
@@ -14026,9 +15461,13 @@
         <v>2</v>
       </c>
       <c r="P235" s="3"/>
-      <c r="Q235" s="3"/>
+      <c r="Q235" t="s">
+        <v>608</v>
+      </c>
+      <c r="R235" t="s">
+        <v>610</v>
+      </c>
       <c r="S235" s="3"/>
-      <c r="T235" s="3"/>
       <c r="U235" s="3"/>
       <c r="V235" s="3"/>
       <c r="W235" s="3"/>
@@ -14042,8 +15481,10 @@
       <c r="AE235" s="3"/>
       <c r="AF235" s="3"/>
       <c r="AG235" s="3"/>
-    </row>
-    <row r="236" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH235" s="3"/>
+      <c r="AI235" s="3"/>
+    </row>
+    <row r="236" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
         <v>553</v>
       </c>
@@ -14073,9 +15514,13 @@
         <v>2</v>
       </c>
       <c r="P236" s="3"/>
-      <c r="Q236" s="3"/>
+      <c r="Q236" t="s">
+        <v>608</v>
+      </c>
+      <c r="R236" t="s">
+        <v>609</v>
+      </c>
       <c r="S236" s="3"/>
-      <c r="T236" s="3"/>
       <c r="U236" s="3"/>
       <c r="V236" s="3"/>
       <c r="W236" s="3"/>
@@ -14089,8 +15534,10 @@
       <c r="AE236" s="3"/>
       <c r="AF236" s="3"/>
       <c r="AG236" s="3"/>
-    </row>
-    <row r="237" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH236" s="3"/>
+      <c r="AI236" s="3"/>
+    </row>
+    <row r="237" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
         <v>555</v>
       </c>
@@ -14120,9 +15567,13 @@
         <v>2</v>
       </c>
       <c r="P237" s="3"/>
-      <c r="Q237" s="3"/>
+      <c r="Q237" t="s">
+        <v>608</v>
+      </c>
+      <c r="R237" t="s">
+        <v>609</v>
+      </c>
       <c r="S237" s="3"/>
-      <c r="T237" s="3"/>
       <c r="U237" s="3"/>
       <c r="V237" s="3"/>
       <c r="W237" s="3"/>
@@ -14136,8 +15587,10 @@
       <c r="AE237" s="3"/>
       <c r="AF237" s="3"/>
       <c r="AG237" s="3"/>
-    </row>
-    <row r="238" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH237" s="3"/>
+      <c r="AI237" s="3"/>
+    </row>
+    <row r="238" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
         <v>557</v>
       </c>
@@ -14167,9 +15620,13 @@
         <v>5</v>
       </c>
       <c r="P238" s="3"/>
-      <c r="Q238" s="3"/>
+      <c r="Q238" t="s">
+        <v>613</v>
+      </c>
+      <c r="R238" t="s">
+        <v>609</v>
+      </c>
       <c r="S238" s="3"/>
-      <c r="T238" s="3"/>
       <c r="U238" s="3"/>
       <c r="V238" s="3"/>
       <c r="W238" s="3"/>
@@ -14183,8 +15640,10 @@
       <c r="AE238" s="3"/>
       <c r="AF238" s="3"/>
       <c r="AG238" s="3"/>
-    </row>
-    <row r="239" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH238" s="3"/>
+      <c r="AI238" s="3"/>
+    </row>
+    <row r="239" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
         <v>559</v>
       </c>
@@ -14214,9 +15673,13 @@
         <v>0</v>
       </c>
       <c r="P239" s="3"/>
-      <c r="Q239" s="3"/>
+      <c r="Q239" t="s">
+        <v>608</v>
+      </c>
+      <c r="R239" t="s">
+        <v>612</v>
+      </c>
       <c r="S239" s="3"/>
-      <c r="T239" s="3"/>
       <c r="U239" s="3"/>
       <c r="V239" s="3"/>
       <c r="W239" s="3"/>
@@ -14230,8 +15693,10 @@
       <c r="AE239" s="3"/>
       <c r="AF239" s="3"/>
       <c r="AG239" s="3"/>
-    </row>
-    <row r="240" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH239" s="3"/>
+      <c r="AI239" s="3"/>
+    </row>
+    <row r="240" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
         <v>561</v>
       </c>
@@ -14261,9 +15726,13 @@
         <v>7</v>
       </c>
       <c r="P240" s="3"/>
-      <c r="Q240" s="3"/>
+      <c r="Q240" t="s">
+        <v>608</v>
+      </c>
+      <c r="R240" t="s">
+        <v>610</v>
+      </c>
       <c r="S240" s="3"/>
-      <c r="T240" s="3"/>
       <c r="U240" s="3"/>
       <c r="V240" s="3"/>
       <c r="W240" s="3"/>
@@ -14277,8 +15746,10 @@
       <c r="AE240" s="3"/>
       <c r="AF240" s="3"/>
       <c r="AG240" s="3"/>
-    </row>
-    <row r="241" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH240" s="3"/>
+      <c r="AI240" s="3"/>
+    </row>
+    <row r="241" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
         <v>563</v>
       </c>
@@ -14308,9 +15779,13 @@
         <v>2</v>
       </c>
       <c r="P241" s="3"/>
-      <c r="Q241" s="3"/>
+      <c r="Q241" t="s">
+        <v>608</v>
+      </c>
+      <c r="R241" t="s">
+        <v>609</v>
+      </c>
       <c r="S241" s="3"/>
-      <c r="T241" s="3"/>
       <c r="U241" s="3"/>
       <c r="V241" s="3"/>
       <c r="W241" s="3"/>
@@ -14324,8 +15799,10 @@
       <c r="AE241" s="3"/>
       <c r="AF241" s="3"/>
       <c r="AG241" s="3"/>
-    </row>
-    <row r="242" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH241" s="3"/>
+      <c r="AI241" s="3"/>
+    </row>
+    <row r="242" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
         <v>565</v>
       </c>
@@ -14357,9 +15834,13 @@
         <v>2</v>
       </c>
       <c r="P242" s="3"/>
-      <c r="Q242" s="3"/>
+      <c r="Q242" t="s">
+        <v>608</v>
+      </c>
+      <c r="R242" t="s">
+        <v>609</v>
+      </c>
       <c r="S242" s="3"/>
-      <c r="T242" s="3"/>
       <c r="U242" s="3"/>
       <c r="V242" s="3"/>
       <c r="W242" s="3"/>
@@ -14373,8 +15854,10 @@
       <c r="AE242" s="3"/>
       <c r="AF242" s="3"/>
       <c r="AG242" s="3"/>
-    </row>
-    <row r="243" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH242" s="3"/>
+      <c r="AI242" s="3"/>
+    </row>
+    <row r="243" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
         <v>568</v>
       </c>
@@ -14404,9 +15887,13 @@
         <v>3</v>
       </c>
       <c r="P243" s="3"/>
-      <c r="Q243" s="3"/>
+      <c r="Q243" t="s">
+        <v>608</v>
+      </c>
+      <c r="R243" t="s">
+        <v>610</v>
+      </c>
       <c r="S243" s="3"/>
-      <c r="T243" s="3"/>
       <c r="U243" s="3"/>
       <c r="V243" s="3"/>
       <c r="W243" s="3"/>
@@ -14420,8 +15907,10 @@
       <c r="AE243" s="3"/>
       <c r="AF243" s="3"/>
       <c r="AG243" s="3"/>
-    </row>
-    <row r="244" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH243" s="3"/>
+      <c r="AI243" s="3"/>
+    </row>
+    <row r="244" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
         <v>570</v>
       </c>
@@ -14451,9 +15940,13 @@
         <v>2</v>
       </c>
       <c r="P244" s="3"/>
-      <c r="Q244" s="3"/>
+      <c r="Q244" t="s">
+        <v>608</v>
+      </c>
+      <c r="R244" t="s">
+        <v>610</v>
+      </c>
       <c r="S244" s="3"/>
-      <c r="T244" s="3"/>
       <c r="U244" s="3"/>
       <c r="V244" s="3"/>
       <c r="W244" s="3"/>
@@ -14467,8 +15960,10 @@
       <c r="AE244" s="3"/>
       <c r="AF244" s="3"/>
       <c r="AG244" s="3"/>
-    </row>
-    <row r="245" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH244" s="3"/>
+      <c r="AI244" s="3"/>
+    </row>
+    <row r="245" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
         <v>572</v>
       </c>
@@ -14500,9 +15995,13 @@
         <v>2</v>
       </c>
       <c r="P245" s="3"/>
-      <c r="Q245" s="3"/>
+      <c r="Q245" t="s">
+        <v>608</v>
+      </c>
+      <c r="R245" t="s">
+        <v>610</v>
+      </c>
       <c r="S245" s="3"/>
-      <c r="T245" s="3"/>
       <c r="U245" s="3"/>
       <c r="V245" s="3"/>
       <c r="W245" s="3"/>
@@ -14516,8 +16015,10 @@
       <c r="AE245" s="3"/>
       <c r="AF245" s="3"/>
       <c r="AG245" s="3"/>
-    </row>
-    <row r="246" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH245" s="3"/>
+      <c r="AI245" s="3"/>
+    </row>
+    <row r="246" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
         <v>575</v>
       </c>
@@ -14547,9 +16048,13 @@
         <v>2</v>
       </c>
       <c r="P246" s="3"/>
-      <c r="Q246" s="3"/>
+      <c r="Q246" t="s">
+        <v>608</v>
+      </c>
+      <c r="R246" t="s">
+        <v>610</v>
+      </c>
       <c r="S246" s="3"/>
-      <c r="T246" s="3"/>
       <c r="U246" s="3"/>
       <c r="V246" s="3"/>
       <c r="W246" s="3"/>
@@ -14563,8 +16068,10 @@
       <c r="AE246" s="3"/>
       <c r="AF246" s="3"/>
       <c r="AG246" s="3"/>
-    </row>
-    <row r="247" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH246" s="3"/>
+      <c r="AI246" s="3"/>
+    </row>
+    <row r="247" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
         <v>577</v>
       </c>
@@ -14594,9 +16101,13 @@
         <v>3</v>
       </c>
       <c r="P247" s="3"/>
-      <c r="Q247" s="3"/>
+      <c r="Q247" t="s">
+        <v>608</v>
+      </c>
+      <c r="R247" t="s">
+        <v>610</v>
+      </c>
       <c r="S247" s="3"/>
-      <c r="T247" s="3"/>
       <c r="U247" s="3"/>
       <c r="V247" s="3"/>
       <c r="W247" s="3"/>
@@ -14610,8 +16121,10 @@
       <c r="AE247" s="3"/>
       <c r="AF247" s="3"/>
       <c r="AG247" s="3"/>
-    </row>
-    <row r="248" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH247" s="3"/>
+      <c r="AI247" s="3"/>
+    </row>
+    <row r="248" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
         <v>579</v>
       </c>
@@ -14641,9 +16154,13 @@
         <v>3</v>
       </c>
       <c r="P248" s="3"/>
-      <c r="Q248" s="3"/>
+      <c r="Q248" t="s">
+        <v>608</v>
+      </c>
+      <c r="R248" t="s">
+        <v>610</v>
+      </c>
       <c r="S248" s="3"/>
-      <c r="T248" s="3"/>
       <c r="U248" s="3"/>
       <c r="V248" s="3"/>
       <c r="W248" s="3"/>
@@ -14657,8 +16174,10 @@
       <c r="AE248" s="3"/>
       <c r="AF248" s="3"/>
       <c r="AG248" s="3"/>
-    </row>
-    <row r="249" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH248" s="3"/>
+      <c r="AI248" s="3"/>
+    </row>
+    <row r="249" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
         <v>581</v>
       </c>
@@ -14688,9 +16207,13 @@
         <v>2</v>
       </c>
       <c r="P249" s="3"/>
-      <c r="Q249" s="3"/>
+      <c r="Q249" t="s">
+        <v>613</v>
+      </c>
+      <c r="R249" t="s">
+        <v>612</v>
+      </c>
       <c r="S249" s="3"/>
-      <c r="T249" s="3"/>
       <c r="U249" s="3"/>
       <c r="V249" s="3"/>
       <c r="W249" s="3"/>
@@ -14704,8 +16227,10 @@
       <c r="AE249" s="3"/>
       <c r="AF249" s="3"/>
       <c r="AG249" s="3"/>
-    </row>
-    <row r="250" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH249" s="3"/>
+      <c r="AI249" s="3"/>
+    </row>
+    <row r="250" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
         <v>583</v>
       </c>
@@ -14735,9 +16260,13 @@
         <v>2</v>
       </c>
       <c r="P250" s="3"/>
-      <c r="Q250" s="3"/>
+      <c r="Q250" t="s">
+        <v>608</v>
+      </c>
+      <c r="R250" t="s">
+        <v>610</v>
+      </c>
       <c r="S250" s="3"/>
-      <c r="T250" s="3"/>
       <c r="U250" s="3"/>
       <c r="V250" s="3"/>
       <c r="W250" s="3"/>
@@ -14751,8 +16280,10 @@
       <c r="AE250" s="3"/>
       <c r="AF250" s="3"/>
       <c r="AG250" s="3"/>
-    </row>
-    <row r="251" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH250" s="3"/>
+      <c r="AI250" s="3"/>
+    </row>
+    <row r="251" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
         <v>585</v>
       </c>
@@ -14782,9 +16313,13 @@
         <v>2</v>
       </c>
       <c r="P251" s="3"/>
-      <c r="Q251" s="3"/>
+      <c r="Q251" t="s">
+        <v>608</v>
+      </c>
+      <c r="R251" t="s">
+        <v>610</v>
+      </c>
       <c r="S251" s="3"/>
-      <c r="T251" s="3"/>
       <c r="U251" s="3"/>
       <c r="V251" s="3"/>
       <c r="W251" s="3"/>
@@ -14798,8 +16333,10 @@
       <c r="AE251" s="3"/>
       <c r="AF251" s="3"/>
       <c r="AG251" s="3"/>
-    </row>
-    <row r="252" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH251" s="3"/>
+      <c r="AI251" s="3"/>
+    </row>
+    <row r="252" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A252" s="3"/>
       <c r="B252" s="6"/>
       <c r="C252" s="3"/>
@@ -14816,8 +16353,8 @@
       <c r="O252" s="3"/>
       <c r="P252" s="3"/>
       <c r="Q252" s="3"/>
+      <c r="R252" s="3"/>
       <c r="S252" s="3"/>
-      <c r="T252" s="3"/>
       <c r="U252" s="3"/>
       <c r="V252" s="3"/>
       <c r="W252" s="3"/>
@@ -14831,8 +16368,10 @@
       <c r="AE252" s="3"/>
       <c r="AF252" s="3"/>
       <c r="AG252" s="3"/>
-    </row>
-    <row r="253" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH252" s="3"/>
+      <c r="AI252" s="3"/>
+    </row>
+    <row r="253" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A253" s="3"/>
       <c r="B253" s="6"/>
       <c r="C253" s="3"/>
@@ -14849,8 +16388,8 @@
       <c r="O253" s="3"/>
       <c r="P253" s="3"/>
       <c r="Q253" s="3"/>
+      <c r="R253" s="3"/>
       <c r="S253" s="3"/>
-      <c r="T253" s="3"/>
       <c r="U253" s="3"/>
       <c r="V253" s="3"/>
       <c r="W253" s="3"/>
@@ -14864,8 +16403,10 @@
       <c r="AE253" s="3"/>
       <c r="AF253" s="3"/>
       <c r="AG253" s="3"/>
-    </row>
-    <row r="254" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH253" s="3"/>
+      <c r="AI253" s="3"/>
+    </row>
+    <row r="254" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A254" s="3"/>
       <c r="B254" s="6"/>
       <c r="C254" s="3"/>
@@ -14882,8 +16423,8 @@
       <c r="O254" s="3"/>
       <c r="P254" s="3"/>
       <c r="Q254" s="3"/>
+      <c r="R254" s="3"/>
       <c r="S254" s="3"/>
-      <c r="T254" s="3"/>
       <c r="U254" s="3"/>
       <c r="V254" s="3"/>
       <c r="W254" s="3"/>
@@ -14897,8 +16438,10 @@
       <c r="AE254" s="3"/>
       <c r="AF254" s="3"/>
       <c r="AG254" s="3"/>
-    </row>
-    <row r="255" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH254" s="3"/>
+      <c r="AI254" s="3"/>
+    </row>
+    <row r="255" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A255" s="3"/>
       <c r="B255" s="6"/>
       <c r="C255" s="3"/>
@@ -14915,8 +16458,8 @@
       <c r="O255" s="3"/>
       <c r="P255" s="3"/>
       <c r="Q255" s="3"/>
+      <c r="R255" s="3"/>
       <c r="S255" s="3"/>
-      <c r="T255" s="3"/>
       <c r="U255" s="3"/>
       <c r="V255" s="3"/>
       <c r="W255" s="3"/>
@@ -14930,8 +16473,10 @@
       <c r="AE255" s="3"/>
       <c r="AF255" s="3"/>
       <c r="AG255" s="3"/>
-    </row>
-    <row r="256" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH255" s="3"/>
+      <c r="AI255" s="3"/>
+    </row>
+    <row r="256" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A256" s="3"/>
       <c r="B256" s="6"/>
       <c r="C256" s="3"/>
@@ -14948,8 +16493,8 @@
       <c r="O256" s="3"/>
       <c r="P256" s="3"/>
       <c r="Q256" s="3"/>
+      <c r="R256" s="3"/>
       <c r="S256" s="3"/>
-      <c r="T256" s="3"/>
       <c r="U256" s="3"/>
       <c r="V256" s="3"/>
       <c r="W256" s="3"/>
@@ -14963,8 +16508,10 @@
       <c r="AE256" s="3"/>
       <c r="AF256" s="3"/>
       <c r="AG256" s="3"/>
-    </row>
-    <row r="257" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH256" s="3"/>
+      <c r="AI256" s="3"/>
+    </row>
+    <row r="257" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A257" s="3"/>
       <c r="B257" s="6"/>
       <c r="C257" s="3"/>
@@ -14981,8 +16528,8 @@
       <c r="O257" s="3"/>
       <c r="P257" s="3"/>
       <c r="Q257" s="3"/>
+      <c r="R257" s="3"/>
       <c r="S257" s="3"/>
-      <c r="T257" s="3"/>
       <c r="U257" s="3"/>
       <c r="V257" s="3"/>
       <c r="W257" s="3"/>
@@ -14996,8 +16543,10 @@
       <c r="AE257" s="3"/>
       <c r="AF257" s="3"/>
       <c r="AG257" s="3"/>
-    </row>
-    <row r="258" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH257" s="3"/>
+      <c r="AI257" s="3"/>
+    </row>
+    <row r="258" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A258" s="3"/>
       <c r="B258" s="6"/>
       <c r="C258" s="3"/>
@@ -15014,8 +16563,8 @@
       <c r="O258" s="3"/>
       <c r="P258" s="3"/>
       <c r="Q258" s="3"/>
+      <c r="R258" s="3"/>
       <c r="S258" s="3"/>
-      <c r="T258" s="3"/>
       <c r="U258" s="3"/>
       <c r="V258" s="3"/>
       <c r="W258" s="3"/>
@@ -15029,8 +16578,10 @@
       <c r="AE258" s="3"/>
       <c r="AF258" s="3"/>
       <c r="AG258" s="3"/>
-    </row>
-    <row r="259" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH258" s="3"/>
+      <c r="AI258" s="3"/>
+    </row>
+    <row r="259" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A259" s="3"/>
       <c r="B259" s="6"/>
       <c r="C259" s="3"/>
@@ -15047,8 +16598,8 @@
       <c r="O259" s="3"/>
       <c r="P259" s="3"/>
       <c r="Q259" s="3"/>
+      <c r="R259" s="3"/>
       <c r="S259" s="3"/>
-      <c r="T259" s="3"/>
       <c r="U259" s="3"/>
       <c r="V259" s="3"/>
       <c r="W259" s="3"/>
@@ -15062,8 +16613,10 @@
       <c r="AE259" s="3"/>
       <c r="AF259" s="3"/>
       <c r="AG259" s="3"/>
-    </row>
-    <row r="260" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH259" s="3"/>
+      <c r="AI259" s="3"/>
+    </row>
+    <row r="260" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A260" s="3"/>
       <c r="B260" s="6"/>
       <c r="C260" s="3"/>
@@ -15080,8 +16633,8 @@
       <c r="O260" s="3"/>
       <c r="P260" s="3"/>
       <c r="Q260" s="3"/>
+      <c r="R260" s="3"/>
       <c r="S260" s="3"/>
-      <c r="T260" s="3"/>
       <c r="U260" s="3"/>
       <c r="V260" s="3"/>
       <c r="W260" s="3"/>
@@ -15095,8 +16648,10 @@
       <c r="AE260" s="3"/>
       <c r="AF260" s="3"/>
       <c r="AG260" s="3"/>
-    </row>
-    <row r="261" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH260" s="3"/>
+      <c r="AI260" s="3"/>
+    </row>
+    <row r="261" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A261" s="3"/>
       <c r="B261" s="6"/>
       <c r="C261" s="3"/>
@@ -15113,8 +16668,8 @@
       <c r="O261" s="3"/>
       <c r="P261" s="3"/>
       <c r="Q261" s="3"/>
+      <c r="R261" s="3"/>
       <c r="S261" s="3"/>
-      <c r="T261" s="3"/>
       <c r="U261" s="3"/>
       <c r="V261" s="3"/>
       <c r="W261" s="3"/>
@@ -15128,8 +16683,10 @@
       <c r="AE261" s="3"/>
       <c r="AF261" s="3"/>
       <c r="AG261" s="3"/>
-    </row>
-    <row r="262" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH261" s="3"/>
+      <c r="AI261" s="3"/>
+    </row>
+    <row r="262" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A262" s="3"/>
       <c r="B262" s="6"/>
       <c r="C262" s="3"/>
@@ -15146,8 +16703,8 @@
       <c r="O262" s="3"/>
       <c r="P262" s="3"/>
       <c r="Q262" s="3"/>
+      <c r="R262" s="3"/>
       <c r="S262" s="3"/>
-      <c r="T262" s="3"/>
       <c r="U262" s="3"/>
       <c r="V262" s="3"/>
       <c r="W262" s="3"/>
@@ -15161,8 +16718,10 @@
       <c r="AE262" s="3"/>
       <c r="AF262" s="3"/>
       <c r="AG262" s="3"/>
-    </row>
-    <row r="263" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH262" s="3"/>
+      <c r="AI262" s="3"/>
+    </row>
+    <row r="263" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A263" s="3"/>
       <c r="B263" s="6"/>
       <c r="C263" s="3"/>
@@ -15179,8 +16738,8 @@
       <c r="O263" s="3"/>
       <c r="P263" s="3"/>
       <c r="Q263" s="3"/>
+      <c r="R263" s="3"/>
       <c r="S263" s="3"/>
-      <c r="T263" s="3"/>
       <c r="U263" s="3"/>
       <c r="V263" s="3"/>
       <c r="W263" s="3"/>
@@ -15194,8 +16753,10 @@
       <c r="AE263" s="3"/>
       <c r="AF263" s="3"/>
       <c r="AG263" s="3"/>
-    </row>
-    <row r="264" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH263" s="3"/>
+      <c r="AI263" s="3"/>
+    </row>
+    <row r="264" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A264" s="3"/>
       <c r="B264" s="6"/>
       <c r="C264" s="3"/>
@@ -15212,8 +16773,8 @@
       <c r="O264" s="3"/>
       <c r="P264" s="3"/>
       <c r="Q264" s="3"/>
+      <c r="R264" s="3"/>
       <c r="S264" s="3"/>
-      <c r="T264" s="3"/>
       <c r="U264" s="3"/>
       <c r="V264" s="3"/>
       <c r="W264" s="3"/>
@@ -15227,8 +16788,10 @@
       <c r="AE264" s="3"/>
       <c r="AF264" s="3"/>
       <c r="AG264" s="3"/>
-    </row>
-    <row r="265" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH264" s="3"/>
+      <c r="AI264" s="3"/>
+    </row>
+    <row r="265" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A265" s="3"/>
       <c r="B265" s="6"/>
       <c r="C265" s="3"/>
@@ -15245,8 +16808,8 @@
       <c r="O265" s="3"/>
       <c r="P265" s="3"/>
       <c r="Q265" s="3"/>
+      <c r="R265" s="3"/>
       <c r="S265" s="3"/>
-      <c r="T265" s="3"/>
       <c r="U265" s="3"/>
       <c r="V265" s="3"/>
       <c r="W265" s="3"/>
@@ -15260,8 +16823,10 @@
       <c r="AE265" s="3"/>
       <c r="AF265" s="3"/>
       <c r="AG265" s="3"/>
-    </row>
-    <row r="266" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH265" s="3"/>
+      <c r="AI265" s="3"/>
+    </row>
+    <row r="266" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A266" s="3"/>
       <c r="B266" s="6"/>
       <c r="C266" s="3"/>
@@ -15278,8 +16843,8 @@
       <c r="O266" s="3"/>
       <c r="P266" s="3"/>
       <c r="Q266" s="3"/>
+      <c r="R266" s="3"/>
       <c r="S266" s="3"/>
-      <c r="T266" s="3"/>
       <c r="U266" s="3"/>
       <c r="V266" s="3"/>
       <c r="W266" s="3"/>
@@ -15293,8 +16858,10 @@
       <c r="AE266" s="3"/>
       <c r="AF266" s="3"/>
       <c r="AG266" s="3"/>
-    </row>
-    <row r="267" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH266" s="3"/>
+      <c r="AI266" s="3"/>
+    </row>
+    <row r="267" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A267" s="3"/>
       <c r="B267" s="6"/>
       <c r="C267" s="3"/>
@@ -15311,8 +16878,8 @@
       <c r="O267" s="3"/>
       <c r="P267" s="3"/>
       <c r="Q267" s="3"/>
+      <c r="R267" s="3"/>
       <c r="S267" s="3"/>
-      <c r="T267" s="3"/>
       <c r="U267" s="3"/>
       <c r="V267" s="3"/>
       <c r="W267" s="3"/>
@@ -15326,8 +16893,10 @@
       <c r="AE267" s="3"/>
       <c r="AF267" s="3"/>
       <c r="AG267" s="3"/>
-    </row>
-    <row r="268" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH267" s="3"/>
+      <c r="AI267" s="3"/>
+    </row>
+    <row r="268" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A268" s="3"/>
       <c r="B268" s="6"/>
       <c r="C268" s="3"/>
@@ -15344,8 +16913,8 @@
       <c r="O268" s="3"/>
       <c r="P268" s="3"/>
       <c r="Q268" s="3"/>
+      <c r="R268" s="3"/>
       <c r="S268" s="3"/>
-      <c r="T268" s="3"/>
       <c r="U268" s="3"/>
       <c r="V268" s="3"/>
       <c r="W268" s="3"/>
@@ -15359,8 +16928,10 @@
       <c r="AE268" s="3"/>
       <c r="AF268" s="3"/>
       <c r="AG268" s="3"/>
-    </row>
-    <row r="269" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH268" s="3"/>
+      <c r="AI268" s="3"/>
+    </row>
+    <row r="269" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A269" s="3"/>
       <c r="B269" s="6"/>
       <c r="C269" s="3"/>
@@ -15377,8 +16948,8 @@
       <c r="O269" s="3"/>
       <c r="P269" s="3"/>
       <c r="Q269" s="3"/>
+      <c r="R269" s="3"/>
       <c r="S269" s="3"/>
-      <c r="T269" s="3"/>
       <c r="U269" s="3"/>
       <c r="V269" s="3"/>
       <c r="W269" s="3"/>
@@ -15392,8 +16963,10 @@
       <c r="AE269" s="3"/>
       <c r="AF269" s="3"/>
       <c r="AG269" s="3"/>
-    </row>
-    <row r="270" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH269" s="3"/>
+      <c r="AI269" s="3"/>
+    </row>
+    <row r="270" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A270" s="3"/>
       <c r="B270" s="6"/>
       <c r="C270" s="3"/>
@@ -15410,8 +16983,8 @@
       <c r="O270" s="3"/>
       <c r="P270" s="3"/>
       <c r="Q270" s="3"/>
+      <c r="R270" s="3"/>
       <c r="S270" s="3"/>
-      <c r="T270" s="3"/>
       <c r="U270" s="3"/>
       <c r="V270" s="3"/>
       <c r="W270" s="3"/>
@@ -15425,8 +16998,10 @@
       <c r="AE270" s="3"/>
       <c r="AF270" s="3"/>
       <c r="AG270" s="3"/>
-    </row>
-    <row r="271" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH270" s="3"/>
+      <c r="AI270" s="3"/>
+    </row>
+    <row r="271" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A271" s="3"/>
       <c r="B271" s="6"/>
       <c r="C271" s="3"/>
@@ -15443,8 +17018,8 @@
       <c r="O271" s="3"/>
       <c r="P271" s="3"/>
       <c r="Q271" s="3"/>
+      <c r="R271" s="3"/>
       <c r="S271" s="3"/>
-      <c r="T271" s="3"/>
       <c r="U271" s="3"/>
       <c r="V271" s="3"/>
       <c r="W271" s="3"/>
@@ -15458,8 +17033,10 @@
       <c r="AE271" s="3"/>
       <c r="AF271" s="3"/>
       <c r="AG271" s="3"/>
-    </row>
-    <row r="272" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH271" s="3"/>
+      <c r="AI271" s="3"/>
+    </row>
+    <row r="272" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A272" s="3"/>
       <c r="B272" s="6"/>
       <c r="C272" s="3"/>
@@ -15476,8 +17053,8 @@
       <c r="O272" s="3"/>
       <c r="P272" s="3"/>
       <c r="Q272" s="3"/>
+      <c r="R272" s="3"/>
       <c r="S272" s="3"/>
-      <c r="T272" s="3"/>
       <c r="U272" s="3"/>
       <c r="V272" s="3"/>
       <c r="W272" s="3"/>
@@ -15491,8 +17068,10 @@
       <c r="AE272" s="3"/>
       <c r="AF272" s="3"/>
       <c r="AG272" s="3"/>
-    </row>
-    <row r="273" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH272" s="3"/>
+      <c r="AI272" s="3"/>
+    </row>
+    <row r="273" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A273" s="3"/>
       <c r="B273" s="6"/>
       <c r="C273" s="3"/>
@@ -15509,8 +17088,8 @@
       <c r="O273" s="3"/>
       <c r="P273" s="3"/>
       <c r="Q273" s="3"/>
+      <c r="R273" s="3"/>
       <c r="S273" s="3"/>
-      <c r="T273" s="3"/>
       <c r="U273" s="3"/>
       <c r="V273" s="3"/>
       <c r="W273" s="3"/>
@@ -15524,8 +17103,10 @@
       <c r="AE273" s="3"/>
       <c r="AF273" s="3"/>
       <c r="AG273" s="3"/>
-    </row>
-    <row r="274" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH273" s="3"/>
+      <c r="AI273" s="3"/>
+    </row>
+    <row r="274" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A274" s="3"/>
       <c r="B274" s="6"/>
       <c r="C274" s="3"/>
@@ -15542,8 +17123,8 @@
       <c r="O274" s="3"/>
       <c r="P274" s="3"/>
       <c r="Q274" s="3"/>
+      <c r="R274" s="3"/>
       <c r="S274" s="3"/>
-      <c r="T274" s="3"/>
       <c r="U274" s="3"/>
       <c r="V274" s="3"/>
       <c r="W274" s="3"/>
@@ -15557,8 +17138,10 @@
       <c r="AE274" s="3"/>
       <c r="AF274" s="3"/>
       <c r="AG274" s="3"/>
-    </row>
-    <row r="275" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH274" s="3"/>
+      <c r="AI274" s="3"/>
+    </row>
+    <row r="275" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A275" s="3"/>
       <c r="B275" s="6"/>
       <c r="C275" s="3"/>
@@ -15575,8 +17158,8 @@
       <c r="O275" s="3"/>
       <c r="P275" s="3"/>
       <c r="Q275" s="3"/>
+      <c r="R275" s="3"/>
       <c r="S275" s="3"/>
-      <c r="T275" s="3"/>
       <c r="U275" s="3"/>
       <c r="V275" s="3"/>
       <c r="W275" s="3"/>
@@ -15590,8 +17173,10 @@
       <c r="AE275" s="3"/>
       <c r="AF275" s="3"/>
       <c r="AG275" s="3"/>
-    </row>
-    <row r="276" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH275" s="3"/>
+      <c r="AI275" s="3"/>
+    </row>
+    <row r="276" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A276" s="3"/>
       <c r="B276" s="6"/>
       <c r="C276" s="3"/>
@@ -15608,8 +17193,8 @@
       <c r="O276" s="3"/>
       <c r="P276" s="3"/>
       <c r="Q276" s="3"/>
+      <c r="R276" s="3"/>
       <c r="S276" s="3"/>
-      <c r="T276" s="3"/>
       <c r="U276" s="3"/>
       <c r="V276" s="3"/>
       <c r="W276" s="3"/>
@@ -15623,8 +17208,10 @@
       <c r="AE276" s="3"/>
       <c r="AF276" s="3"/>
       <c r="AG276" s="3"/>
-    </row>
-    <row r="277" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH276" s="3"/>
+      <c r="AI276" s="3"/>
+    </row>
+    <row r="277" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A277" s="3"/>
       <c r="B277" s="6"/>
       <c r="C277" s="3"/>
@@ -15641,8 +17228,8 @@
       <c r="O277" s="3"/>
       <c r="P277" s="3"/>
       <c r="Q277" s="3"/>
+      <c r="R277" s="3"/>
       <c r="S277" s="3"/>
-      <c r="T277" s="3"/>
       <c r="U277" s="3"/>
       <c r="V277" s="3"/>
       <c r="W277" s="3"/>
@@ -15656,8 +17243,10 @@
       <c r="AE277" s="3"/>
       <c r="AF277" s="3"/>
       <c r="AG277" s="3"/>
-    </row>
-    <row r="278" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH277" s="3"/>
+      <c r="AI277" s="3"/>
+    </row>
+    <row r="278" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A278" s="3"/>
       <c r="B278" s="6"/>
       <c r="C278" s="3"/>
@@ -15674,8 +17263,8 @@
       <c r="O278" s="3"/>
       <c r="P278" s="3"/>
       <c r="Q278" s="3"/>
+      <c r="R278" s="3"/>
       <c r="S278" s="3"/>
-      <c r="T278" s="3"/>
       <c r="U278" s="3"/>
       <c r="V278" s="3"/>
       <c r="W278" s="3"/>
@@ -15689,8 +17278,10 @@
       <c r="AE278" s="3"/>
       <c r="AF278" s="3"/>
       <c r="AG278" s="3"/>
-    </row>
-    <row r="279" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH278" s="3"/>
+      <c r="AI278" s="3"/>
+    </row>
+    <row r="279" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A279" s="3"/>
       <c r="B279" s="6"/>
       <c r="C279" s="3"/>
@@ -15707,8 +17298,8 @@
       <c r="O279" s="3"/>
       <c r="P279" s="3"/>
       <c r="Q279" s="3"/>
+      <c r="R279" s="3"/>
       <c r="S279" s="3"/>
-      <c r="T279" s="3"/>
       <c r="U279" s="3"/>
       <c r="V279" s="3"/>
       <c r="W279" s="3"/>
@@ -15722,8 +17313,10 @@
       <c r="AE279" s="3"/>
       <c r="AF279" s="3"/>
       <c r="AG279" s="3"/>
-    </row>
-    <row r="280" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH279" s="3"/>
+      <c r="AI279" s="3"/>
+    </row>
+    <row r="280" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A280" s="3"/>
       <c r="B280" s="6"/>
       <c r="C280" s="3"/>
@@ -15740,8 +17333,8 @@
       <c r="O280" s="3"/>
       <c r="P280" s="3"/>
       <c r="Q280" s="3"/>
+      <c r="R280" s="3"/>
       <c r="S280" s="3"/>
-      <c r="T280" s="3"/>
       <c r="U280" s="3"/>
       <c r="V280" s="3"/>
       <c r="W280" s="3"/>
@@ -15755,8 +17348,10 @@
       <c r="AE280" s="3"/>
       <c r="AF280" s="3"/>
       <c r="AG280" s="3"/>
-    </row>
-    <row r="281" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH280" s="3"/>
+      <c r="AI280" s="3"/>
+    </row>
+    <row r="281" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -15773,8 +17368,8 @@
       <c r="O281" s="3"/>
       <c r="P281" s="3"/>
       <c r="Q281" s="3"/>
+      <c r="R281" s="3"/>
       <c r="S281" s="3"/>
-      <c r="T281" s="3"/>
       <c r="U281" s="3"/>
       <c r="V281" s="3"/>
       <c r="W281" s="3"/>
@@ -15788,8 +17383,10 @@
       <c r="AE281" s="3"/>
       <c r="AF281" s="3"/>
       <c r="AG281" s="3"/>
-    </row>
-    <row r="282" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH281" s="3"/>
+      <c r="AI281" s="3"/>
+    </row>
+    <row r="282" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -15806,8 +17403,8 @@
       <c r="O282" s="3"/>
       <c r="P282" s="3"/>
       <c r="Q282" s="3"/>
+      <c r="R282" s="3"/>
       <c r="S282" s="3"/>
-      <c r="T282" s="3"/>
       <c r="U282" s="3"/>
       <c r="V282" s="3"/>
       <c r="W282" s="3"/>
@@ -15821,8 +17418,10 @@
       <c r="AE282" s="3"/>
       <c r="AF282" s="3"/>
       <c r="AG282" s="3"/>
-    </row>
-    <row r="283" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH282" s="3"/>
+      <c r="AI282" s="3"/>
+    </row>
+    <row r="283" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -15839,8 +17438,8 @@
       <c r="O283" s="3"/>
       <c r="P283" s="3"/>
       <c r="Q283" s="3"/>
+      <c r="R283" s="3"/>
       <c r="S283" s="3"/>
-      <c r="T283" s="3"/>
       <c r="U283" s="3"/>
       <c r="V283" s="3"/>
       <c r="W283" s="3"/>
@@ -15854,8 +17453,10 @@
       <c r="AE283" s="3"/>
       <c r="AF283" s="3"/>
       <c r="AG283" s="3"/>
-    </row>
-    <row r="284" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH283" s="3"/>
+      <c r="AI283" s="3"/>
+    </row>
+    <row r="284" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
@@ -15872,8 +17473,8 @@
       <c r="O284" s="3"/>
       <c r="P284" s="3"/>
       <c r="Q284" s="3"/>
+      <c r="R284" s="3"/>
       <c r="S284" s="3"/>
-      <c r="T284" s="3"/>
       <c r="U284" s="3"/>
       <c r="V284" s="3"/>
       <c r="W284" s="3"/>
@@ -15887,8 +17488,10 @@
       <c r="AE284" s="3"/>
       <c r="AF284" s="3"/>
       <c r="AG284" s="3"/>
-    </row>
-    <row r="285" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH284" s="3"/>
+      <c r="AI284" s="3"/>
+    </row>
+    <row r="285" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -15905,8 +17508,8 @@
       <c r="O285" s="3"/>
       <c r="P285" s="3"/>
       <c r="Q285" s="3"/>
+      <c r="R285" s="3"/>
       <c r="S285" s="3"/>
-      <c r="T285" s="3"/>
       <c r="U285" s="3"/>
       <c r="V285" s="3"/>
       <c r="W285" s="3"/>
@@ -15920,8 +17523,10 @@
       <c r="AE285" s="3"/>
       <c r="AF285" s="3"/>
       <c r="AG285" s="3"/>
-    </row>
-    <row r="286" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH285" s="3"/>
+      <c r="AI285" s="3"/>
+    </row>
+    <row r="286" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
@@ -15938,8 +17543,8 @@
       <c r="O286" s="3"/>
       <c r="P286" s="3"/>
       <c r="Q286" s="3"/>
+      <c r="R286" s="3"/>
       <c r="S286" s="3"/>
-      <c r="T286" s="3"/>
       <c r="U286" s="3"/>
       <c r="V286" s="3"/>
       <c r="W286" s="3"/>
@@ -15953,8 +17558,10 @@
       <c r="AE286" s="3"/>
       <c r="AF286" s="3"/>
       <c r="AG286" s="3"/>
-    </row>
-    <row r="287" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH286" s="3"/>
+      <c r="AI286" s="3"/>
+    </row>
+    <row r="287" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -15971,8 +17578,8 @@
       <c r="O287" s="3"/>
       <c r="P287" s="3"/>
       <c r="Q287" s="3"/>
+      <c r="R287" s="3"/>
       <c r="S287" s="3"/>
-      <c r="T287" s="3"/>
       <c r="U287" s="3"/>
       <c r="V287" s="3"/>
       <c r="W287" s="3"/>
@@ -15986,8 +17593,10 @@
       <c r="AE287" s="3"/>
       <c r="AF287" s="3"/>
       <c r="AG287" s="3"/>
-    </row>
-    <row r="288" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH287" s="3"/>
+      <c r="AI287" s="3"/>
+    </row>
+    <row r="288" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -16004,8 +17613,8 @@
       <c r="O288" s="3"/>
       <c r="P288" s="3"/>
       <c r="Q288" s="3"/>
+      <c r="R288" s="3"/>
       <c r="S288" s="3"/>
-      <c r="T288" s="3"/>
       <c r="U288" s="3"/>
       <c r="V288" s="3"/>
       <c r="W288" s="3"/>
@@ -16019,8 +17628,10 @@
       <c r="AE288" s="3"/>
       <c r="AF288" s="3"/>
       <c r="AG288" s="3"/>
-    </row>
-    <row r="289" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH288" s="3"/>
+      <c r="AI288" s="3"/>
+    </row>
+    <row r="289" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -16037,8 +17648,8 @@
       <c r="O289" s="3"/>
       <c r="P289" s="3"/>
       <c r="Q289" s="3"/>
+      <c r="R289" s="3"/>
       <c r="S289" s="3"/>
-      <c r="T289" s="3"/>
       <c r="U289" s="3"/>
       <c r="V289" s="3"/>
       <c r="W289" s="3"/>
@@ -16052,8 +17663,10 @@
       <c r="AE289" s="3"/>
       <c r="AF289" s="3"/>
       <c r="AG289" s="3"/>
-    </row>
-    <row r="290" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH289" s="3"/>
+      <c r="AI289" s="3"/>
+    </row>
+    <row r="290" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -16070,8 +17683,8 @@
       <c r="O290" s="3"/>
       <c r="P290" s="3"/>
       <c r="Q290" s="3"/>
+      <c r="R290" s="3"/>
       <c r="S290" s="3"/>
-      <c r="T290" s="3"/>
       <c r="U290" s="3"/>
       <c r="V290" s="3"/>
       <c r="W290" s="3"/>
@@ -16085,8 +17698,10 @@
       <c r="AE290" s="3"/>
       <c r="AF290" s="3"/>
       <c r="AG290" s="3"/>
-    </row>
-    <row r="291" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH290" s="3"/>
+      <c r="AI290" s="3"/>
+    </row>
+    <row r="291" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -16103,8 +17718,8 @@
       <c r="O291" s="3"/>
       <c r="P291" s="3"/>
       <c r="Q291" s="3"/>
+      <c r="R291" s="3"/>
       <c r="S291" s="3"/>
-      <c r="T291" s="3"/>
       <c r="U291" s="3"/>
       <c r="V291" s="3"/>
       <c r="W291" s="3"/>
@@ -16118,8 +17733,10 @@
       <c r="AE291" s="3"/>
       <c r="AF291" s="3"/>
       <c r="AG291" s="3"/>
-    </row>
-    <row r="292" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH291" s="3"/>
+      <c r="AI291" s="3"/>
+    </row>
+    <row r="292" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
@@ -16136,8 +17753,8 @@
       <c r="O292" s="3"/>
       <c r="P292" s="3"/>
       <c r="Q292" s="3"/>
+      <c r="R292" s="3"/>
       <c r="S292" s="3"/>
-      <c r="T292" s="3"/>
       <c r="U292" s="3"/>
       <c r="V292" s="3"/>
       <c r="W292" s="3"/>
@@ -16151,8 +17768,10 @@
       <c r="AE292" s="3"/>
       <c r="AF292" s="3"/>
       <c r="AG292" s="3"/>
-    </row>
-    <row r="293" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH292" s="3"/>
+      <c r="AI292" s="3"/>
+    </row>
+    <row r="293" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
@@ -16169,8 +17788,8 @@
       <c r="O293" s="3"/>
       <c r="P293" s="3"/>
       <c r="Q293" s="3"/>
+      <c r="R293" s="3"/>
       <c r="S293" s="3"/>
-      <c r="T293" s="3"/>
       <c r="U293" s="3"/>
       <c r="V293" s="3"/>
       <c r="W293" s="3"/>
@@ -16184,8 +17803,10 @@
       <c r="AE293" s="3"/>
       <c r="AF293" s="3"/>
       <c r="AG293" s="3"/>
-    </row>
-    <row r="294" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH293" s="3"/>
+      <c r="AI293" s="3"/>
+    </row>
+    <row r="294" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
@@ -16202,8 +17823,8 @@
       <c r="O294" s="3"/>
       <c r="P294" s="3"/>
       <c r="Q294" s="3"/>
+      <c r="R294" s="3"/>
       <c r="S294" s="3"/>
-      <c r="T294" s="3"/>
       <c r="U294" s="3"/>
       <c r="V294" s="3"/>
       <c r="W294" s="3"/>
@@ -16217,8 +17838,10 @@
       <c r="AE294" s="3"/>
       <c r="AF294" s="3"/>
       <c r="AG294" s="3"/>
-    </row>
-    <row r="295" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH294" s="3"/>
+      <c r="AI294" s="3"/>
+    </row>
+    <row r="295" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
@@ -16235,8 +17858,8 @@
       <c r="O295" s="3"/>
       <c r="P295" s="3"/>
       <c r="Q295" s="3"/>
+      <c r="R295" s="3"/>
       <c r="S295" s="3"/>
-      <c r="T295" s="3"/>
       <c r="U295" s="3"/>
       <c r="V295" s="3"/>
       <c r="W295" s="3"/>
@@ -16250,8 +17873,10 @@
       <c r="AE295" s="3"/>
       <c r="AF295" s="3"/>
       <c r="AG295" s="3"/>
-    </row>
-    <row r="296" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH295" s="3"/>
+      <c r="AI295" s="3"/>
+    </row>
+    <row r="296" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
@@ -16268,8 +17893,8 @@
       <c r="O296" s="3"/>
       <c r="P296" s="3"/>
       <c r="Q296" s="3"/>
+      <c r="R296" s="3"/>
       <c r="S296" s="3"/>
-      <c r="T296" s="3"/>
       <c r="U296" s="3"/>
       <c r="V296" s="3"/>
       <c r="W296" s="3"/>
@@ -16283,8 +17908,10 @@
       <c r="AE296" s="3"/>
       <c r="AF296" s="3"/>
       <c r="AG296" s="3"/>
-    </row>
-    <row r="297" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH296" s="3"/>
+      <c r="AI296" s="3"/>
+    </row>
+    <row r="297" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
@@ -16301,8 +17928,8 @@
       <c r="O297" s="3"/>
       <c r="P297" s="3"/>
       <c r="Q297" s="3"/>
+      <c r="R297" s="3"/>
       <c r="S297" s="3"/>
-      <c r="T297" s="3"/>
       <c r="U297" s="3"/>
       <c r="V297" s="3"/>
       <c r="W297" s="3"/>
@@ -16316,8 +17943,10 @@
       <c r="AE297" s="3"/>
       <c r="AF297" s="3"/>
       <c r="AG297" s="3"/>
-    </row>
-    <row r="298" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH297" s="3"/>
+      <c r="AI297" s="3"/>
+    </row>
+    <row r="298" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
@@ -16334,8 +17963,8 @@
       <c r="O298" s="3"/>
       <c r="P298" s="3"/>
       <c r="Q298" s="3"/>
+      <c r="R298" s="3"/>
       <c r="S298" s="3"/>
-      <c r="T298" s="3"/>
       <c r="U298" s="3"/>
       <c r="V298" s="3"/>
       <c r="W298" s="3"/>
@@ -16349,8 +17978,10 @@
       <c r="AE298" s="3"/>
       <c r="AF298" s="3"/>
       <c r="AG298" s="3"/>
-    </row>
-    <row r="299" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH298" s="3"/>
+      <c r="AI298" s="3"/>
+    </row>
+    <row r="299" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
@@ -16367,8 +17998,8 @@
       <c r="O299" s="3"/>
       <c r="P299" s="3"/>
       <c r="Q299" s="3"/>
+      <c r="R299" s="3"/>
       <c r="S299" s="3"/>
-      <c r="T299" s="3"/>
       <c r="U299" s="3"/>
       <c r="V299" s="3"/>
       <c r="W299" s="3"/>
@@ -16382,8 +18013,10 @@
       <c r="AE299" s="3"/>
       <c r="AF299" s="3"/>
       <c r="AG299" s="3"/>
-    </row>
-    <row r="300" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH299" s="3"/>
+      <c r="AI299" s="3"/>
+    </row>
+    <row r="300" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
@@ -16400,8 +18033,8 @@
       <c r="O300" s="3"/>
       <c r="P300" s="3"/>
       <c r="Q300" s="3"/>
+      <c r="R300" s="3"/>
       <c r="S300" s="3"/>
-      <c r="T300" s="3"/>
       <c r="U300" s="3"/>
       <c r="V300" s="3"/>
       <c r="W300" s="3"/>
@@ -16415,8 +18048,10 @@
       <c r="AE300" s="3"/>
       <c r="AF300" s="3"/>
       <c r="AG300" s="3"/>
-    </row>
-    <row r="301" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH300" s="3"/>
+      <c r="AI300" s="3"/>
+    </row>
+    <row r="301" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
@@ -16433,8 +18068,8 @@
       <c r="O301" s="3"/>
       <c r="P301" s="3"/>
       <c r="Q301" s="3"/>
+      <c r="R301" s="3"/>
       <c r="S301" s="3"/>
-      <c r="T301" s="3"/>
       <c r="U301" s="3"/>
       <c r="V301" s="3"/>
       <c r="W301" s="3"/>
@@ -16448,8 +18083,10 @@
       <c r="AE301" s="3"/>
       <c r="AF301" s="3"/>
       <c r="AG301" s="3"/>
-    </row>
-    <row r="302" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH301" s="3"/>
+      <c r="AI301" s="3"/>
+    </row>
+    <row r="302" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
@@ -16466,8 +18103,8 @@
       <c r="O302" s="3"/>
       <c r="P302" s="3"/>
       <c r="Q302" s="3"/>
+      <c r="R302" s="3"/>
       <c r="S302" s="3"/>
-      <c r="T302" s="3"/>
       <c r="U302" s="3"/>
       <c r="V302" s="3"/>
       <c r="W302" s="3"/>
@@ -16481,8 +18118,10 @@
       <c r="AE302" s="3"/>
       <c r="AF302" s="3"/>
       <c r="AG302" s="3"/>
-    </row>
-    <row r="303" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH302" s="3"/>
+      <c r="AI302" s="3"/>
+    </row>
+    <row r="303" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
@@ -16499,8 +18138,8 @@
       <c r="O303" s="3"/>
       <c r="P303" s="3"/>
       <c r="Q303" s="3"/>
+      <c r="R303" s="3"/>
       <c r="S303" s="3"/>
-      <c r="T303" s="3"/>
       <c r="U303" s="3"/>
       <c r="V303" s="3"/>
       <c r="W303" s="3"/>
@@ -16514,8 +18153,10 @@
       <c r="AE303" s="3"/>
       <c r="AF303" s="3"/>
       <c r="AG303" s="3"/>
-    </row>
-    <row r="304" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH303" s="3"/>
+      <c r="AI303" s="3"/>
+    </row>
+    <row r="304" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
@@ -16532,8 +18173,8 @@
       <c r="O304" s="3"/>
       <c r="P304" s="3"/>
       <c r="Q304" s="3"/>
+      <c r="R304" s="3"/>
       <c r="S304" s="3"/>
-      <c r="T304" s="3"/>
       <c r="U304" s="3"/>
       <c r="V304" s="3"/>
       <c r="W304" s="3"/>
@@ -16547,6 +18188,8 @@
       <c r="AE304" s="3"/>
       <c r="AF304" s="3"/>
       <c r="AG304" s="3"/>
+      <c r="AH304" s="3"/>
+      <c r="AI304" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
